--- a/application/results/preprocess/results.xlsx
+++ b/application/results/preprocess/results.xlsx
@@ -446,7 +446,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F417"/>
+  <dimension ref="A1:G417"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -470,7 +470,12 @@
       <c r="E1" s="1" t="n"/>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Dec (%)</t>
+          <t>Vertex Dec. (%)</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Arc Dec. (%)</t>
         </is>
       </c>
     </row>
@@ -497,6 +502,7 @@
         </is>
       </c>
       <c r="F2" s="1" t="inlineStr"/>
+      <c r="G2" s="1" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -524,6 +530,9 @@
       <c r="F4" t="n">
         <v>0</v>
       </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -536,13 +545,16 @@
         <v>43</v>
       </c>
       <c r="D5" t="n">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="E5" t="n">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="F5" t="n">
-        <v>46.51162790697674</v>
+        <v>66.66666666666666</v>
+      </c>
+      <c r="G5" t="n">
+        <v>79.06976744186046</v>
       </c>
     </row>
     <row r="6">
@@ -556,13 +568,16 @@
         <v>123</v>
       </c>
       <c r="D6" t="n">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E6" t="n">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F6" t="n">
-        <v>1.626016260162602</v>
+        <v>4.081632653061225</v>
+      </c>
+      <c r="G6" t="n">
+        <v>3.252032520325204</v>
       </c>
     </row>
     <row r="7">
@@ -584,6 +599,9 @@
       <c r="F7" t="n">
         <v>0</v>
       </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -604,6 +622,9 @@
       <c r="F8" t="n">
         <v>0</v>
       </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -616,13 +637,16 @@
         <v>43</v>
       </c>
       <c r="D9" t="n">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="E9" t="n">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="F9" t="n">
-        <v>46.51162790697674</v>
+        <v>66.66666666666666</v>
+      </c>
+      <c r="G9" t="n">
+        <v>79.06976744186046</v>
       </c>
     </row>
     <row r="10">
@@ -636,13 +660,16 @@
         <v>123</v>
       </c>
       <c r="D10" t="n">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E10" t="n">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F10" t="n">
-        <v>1.626016260162602</v>
+        <v>4.081632653061225</v>
+      </c>
+      <c r="G10" t="n">
+        <v>3.252032520325204</v>
       </c>
     </row>
     <row r="11">
@@ -664,6 +691,9 @@
       <c r="F11" t="n">
         <v>0</v>
       </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -684,6 +714,9 @@
       <c r="F12" t="n">
         <v>0</v>
       </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -696,13 +729,16 @@
         <v>24</v>
       </c>
       <c r="D13" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E13" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F13" t="n">
-        <v>29.16666666666667</v>
+        <v>38.46153846153847</v>
+      </c>
+      <c r="G13" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="14">
@@ -716,13 +752,16 @@
         <v>112</v>
       </c>
       <c r="D14" t="n">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="E14" t="n">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="F14" t="n">
-        <v>13.39285714285714</v>
+        <v>15.55555555555556</v>
+      </c>
+      <c r="G14" t="n">
+        <v>24.10714285714286</v>
       </c>
     </row>
     <row r="15">
@@ -744,6 +783,9 @@
       <c r="F15" t="n">
         <v>0</v>
       </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -764,6 +806,9 @@
       <c r="F16" t="n">
         <v>0</v>
       </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -776,13 +821,16 @@
         <v>24</v>
       </c>
       <c r="D17" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E17" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F17" t="n">
-        <v>29.16666666666667</v>
+        <v>38.46153846153847</v>
+      </c>
+      <c r="G17" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="18">
@@ -796,13 +844,16 @@
         <v>112</v>
       </c>
       <c r="D18" t="n">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="E18" t="n">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="F18" t="n">
-        <v>13.39285714285714</v>
+        <v>15.55555555555556</v>
+      </c>
+      <c r="G18" t="n">
+        <v>24.10714285714286</v>
       </c>
     </row>
     <row r="19">
@@ -824,6 +875,9 @@
       <c r="F19" t="n">
         <v>0</v>
       </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -844,6 +898,9 @@
       <c r="F20" t="n">
         <v>0</v>
       </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -862,6 +919,9 @@
         <v>7</v>
       </c>
       <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="n">
         <v>12.5</v>
       </c>
     </row>
@@ -876,13 +936,16 @@
         <v>96</v>
       </c>
       <c r="D22" t="n">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="E22" t="n">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="F22" t="n">
-        <v>21.875</v>
+        <v>15</v>
+      </c>
+      <c r="G22" t="n">
+        <v>30.20833333333333</v>
       </c>
     </row>
     <row r="23">
@@ -904,6 +967,9 @@
       <c r="F23" t="n">
         <v>0</v>
       </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -924,6 +990,9 @@
       <c r="F24" t="n">
         <v>0</v>
       </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -942,6 +1011,9 @@
         <v>7</v>
       </c>
       <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="n">
         <v>12.5</v>
       </c>
     </row>
@@ -956,13 +1028,16 @@
         <v>96</v>
       </c>
       <c r="D26" t="n">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="E26" t="n">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="F26" t="n">
-        <v>21.875</v>
+        <v>15</v>
+      </c>
+      <c r="G26" t="n">
+        <v>30.20833333333333</v>
       </c>
     </row>
     <row r="27">
@@ -984,6 +1059,9 @@
       <c r="F27" t="n">
         <v>0</v>
       </c>
+      <c r="G27" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1004,6 +1082,9 @@
       <c r="F28" t="n">
         <v>0</v>
       </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1016,13 +1097,16 @@
         <v>138</v>
       </c>
       <c r="D29" t="n">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="E29" t="n">
-        <v>77</v>
+        <v>49</v>
       </c>
       <c r="F29" t="n">
-        <v>44.20289855072464</v>
+        <v>45.94594594594595</v>
+      </c>
+      <c r="G29" t="n">
+        <v>64.49275362318841</v>
       </c>
     </row>
     <row r="30">
@@ -1044,6 +1128,9 @@
       <c r="F30" t="n">
         <v>0</v>
       </c>
+      <c r="G30" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1064,6 +1151,9 @@
       <c r="F31" t="n">
         <v>0</v>
       </c>
+      <c r="G31" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1084,6 +1174,9 @@
       <c r="F32" t="n">
         <v>0</v>
       </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1096,13 +1189,16 @@
         <v>138</v>
       </c>
       <c r="D33" t="n">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="E33" t="n">
-        <v>77</v>
+        <v>49</v>
       </c>
       <c r="F33" t="n">
-        <v>44.20289855072464</v>
+        <v>45.94594594594595</v>
+      </c>
+      <c r="G33" t="n">
+        <v>64.49275362318841</v>
       </c>
     </row>
     <row r="34">
@@ -1124,6 +1220,9 @@
       <c r="F34" t="n">
         <v>0</v>
       </c>
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1144,6 +1243,9 @@
       <c r="F35" t="n">
         <v>0</v>
       </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1164,6 +1266,9 @@
       <c r="F36" t="n">
         <v>0</v>
       </c>
+      <c r="G36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1176,13 +1281,16 @@
         <v>177</v>
       </c>
       <c r="D37" t="n">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="E37" t="n">
-        <v>83</v>
+        <v>46</v>
       </c>
       <c r="F37" t="n">
-        <v>53.10734463276836</v>
+        <v>48.88888888888889</v>
+      </c>
+      <c r="G37" t="n">
+        <v>74.01129943502825</v>
       </c>
     </row>
     <row r="38">
@@ -1204,6 +1312,9 @@
       <c r="F38" t="n">
         <v>0</v>
       </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1224,6 +1335,9 @@
       <c r="F39" t="n">
         <v>0</v>
       </c>
+      <c r="G39" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1244,6 +1358,9 @@
       <c r="F40" t="n">
         <v>0</v>
       </c>
+      <c r="G40" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1256,13 +1373,16 @@
         <v>177</v>
       </c>
       <c r="D41" t="n">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="E41" t="n">
-        <v>83</v>
+        <v>46</v>
       </c>
       <c r="F41" t="n">
-        <v>53.10734463276836</v>
+        <v>48.88888888888889</v>
+      </c>
+      <c r="G41" t="n">
+        <v>74.01129943502825</v>
       </c>
     </row>
     <row r="42">
@@ -1284,6 +1404,9 @@
       <c r="F42" t="n">
         <v>0</v>
       </c>
+      <c r="G42" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1304,6 +1427,9 @@
       <c r="F43" t="n">
         <v>0</v>
       </c>
+      <c r="G43" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1324,6 +1450,9 @@
       <c r="F44" t="n">
         <v>0</v>
       </c>
+      <c r="G44" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1336,13 +1465,16 @@
         <v>151</v>
       </c>
       <c r="D45" t="n">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="E45" t="n">
-        <v>93</v>
+        <v>75</v>
       </c>
       <c r="F45" t="n">
-        <v>38.41059602649007</v>
+        <v>30</v>
+      </c>
+      <c r="G45" t="n">
+        <v>50.33112582781457</v>
       </c>
     </row>
     <row r="46">
@@ -1364,6 +1496,9 @@
       <c r="F46" t="n">
         <v>0</v>
       </c>
+      <c r="G46" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1384,6 +1519,9 @@
       <c r="F47" t="n">
         <v>0</v>
       </c>
+      <c r="G47" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1404,6 +1542,9 @@
       <c r="F48" t="n">
         <v>0</v>
       </c>
+      <c r="G48" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1416,13 +1557,16 @@
         <v>151</v>
       </c>
       <c r="D49" t="n">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="E49" t="n">
-        <v>93</v>
+        <v>75</v>
       </c>
       <c r="F49" t="n">
-        <v>38.41059602649007</v>
+        <v>30</v>
+      </c>
+      <c r="G49" t="n">
+        <v>50.33112582781457</v>
       </c>
     </row>
     <row r="50">
@@ -1444,6 +1588,9 @@
       <c r="F50" t="n">
         <v>0</v>
       </c>
+      <c r="G50" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1464,6 +1611,9 @@
       <c r="F51" t="n">
         <v>0</v>
       </c>
+      <c r="G51" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1484,6 +1634,9 @@
       <c r="F52" t="n">
         <v>0</v>
       </c>
+      <c r="G52" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -1496,13 +1649,16 @@
         <v>13</v>
       </c>
       <c r="D53" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E53" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F53" t="n">
-        <v>30.76923076923077</v>
+        <v>37.5</v>
+      </c>
+      <c r="G53" t="n">
+        <v>53.84615384615385</v>
       </c>
     </row>
     <row r="54">
@@ -1516,13 +1672,16 @@
         <v>129</v>
       </c>
       <c r="D54" t="n">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="E54" t="n">
-        <v>99</v>
+        <v>78</v>
       </c>
       <c r="F54" t="n">
-        <v>23.25581395348837</v>
+        <v>30.90909090909091</v>
+      </c>
+      <c r="G54" t="n">
+        <v>39.53488372093023</v>
       </c>
     </row>
     <row r="55">
@@ -1544,6 +1703,9 @@
       <c r="F55" t="n">
         <v>0</v>
       </c>
+      <c r="G55" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -1564,6 +1726,9 @@
       <c r="F56" t="n">
         <v>0</v>
       </c>
+      <c r="G56" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -1576,13 +1741,16 @@
         <v>13</v>
       </c>
       <c r="D57" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E57" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F57" t="n">
-        <v>30.76923076923077</v>
+        <v>37.5</v>
+      </c>
+      <c r="G57" t="n">
+        <v>53.84615384615385</v>
       </c>
     </row>
     <row r="58">
@@ -1596,13 +1764,16 @@
         <v>129</v>
       </c>
       <c r="D58" t="n">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="E58" t="n">
-        <v>99</v>
+        <v>78</v>
       </c>
       <c r="F58" t="n">
-        <v>23.25581395348837</v>
+        <v>30.90909090909091</v>
+      </c>
+      <c r="G58" t="n">
+        <v>39.53488372093023</v>
       </c>
     </row>
     <row r="59">
@@ -1624,6 +1795,9 @@
       <c r="F59" t="n">
         <v>0</v>
       </c>
+      <c r="G59" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -1644,6 +1818,9 @@
       <c r="F60" t="n">
         <v>0</v>
       </c>
+      <c r="G60" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -1656,13 +1833,16 @@
         <v>12</v>
       </c>
       <c r="D61" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E61" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F61" t="n">
-        <v>25</v>
+        <v>37.5</v>
+      </c>
+      <c r="G61" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="62">
@@ -1676,13 +1856,16 @@
         <v>106</v>
       </c>
       <c r="D62" t="n">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="E62" t="n">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="F62" t="n">
-        <v>30.18867924528302</v>
+        <v>26.66666666666667</v>
+      </c>
+      <c r="G62" t="n">
+        <v>43.39622641509434</v>
       </c>
     </row>
     <row r="63">
@@ -1696,13 +1879,16 @@
         <v>184</v>
       </c>
       <c r="D63" t="n">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E63" t="n">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="F63" t="n">
-        <v>2.173913043478261</v>
+        <v>5.405405405405405</v>
+      </c>
+      <c r="G63" t="n">
+        <v>4.347826086956522</v>
       </c>
     </row>
     <row r="64">
@@ -1724,6 +1910,9 @@
       <c r="F64" t="n">
         <v>0</v>
       </c>
+      <c r="G64" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -1736,13 +1925,16 @@
         <v>12</v>
       </c>
       <c r="D65" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E65" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F65" t="n">
-        <v>25</v>
+        <v>37.5</v>
+      </c>
+      <c r="G65" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="66">
@@ -1756,13 +1948,16 @@
         <v>106</v>
       </c>
       <c r="D66" t="n">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="E66" t="n">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="F66" t="n">
-        <v>30.18867924528302</v>
+        <v>26.66666666666667</v>
+      </c>
+      <c r="G66" t="n">
+        <v>43.39622641509434</v>
       </c>
     </row>
     <row r="67">
@@ -1776,13 +1971,16 @@
         <v>184</v>
       </c>
       <c r="D67" t="n">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E67" t="n">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="F67" t="n">
-        <v>2.173913043478261</v>
+        <v>5.405405405405405</v>
+      </c>
+      <c r="G67" t="n">
+        <v>4.347826086956522</v>
       </c>
     </row>
     <row r="68">
@@ -1804,6 +2002,9 @@
       <c r="F68" t="n">
         <v>0</v>
       </c>
+      <c r="G68" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -1816,13 +2017,16 @@
         <v>57</v>
       </c>
       <c r="D69" t="n">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E69" t="n">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="F69" t="n">
-        <v>42.10526315789473</v>
+        <v>25.92592592592592</v>
+      </c>
+      <c r="G69" t="n">
+        <v>54.38596491228071</v>
       </c>
     </row>
     <row r="70">
@@ -1836,13 +2040,16 @@
         <v>175</v>
       </c>
       <c r="D70" t="n">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="E70" t="n">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="F70" t="n">
-        <v>5.142857142857142</v>
+        <v>8.450704225352112</v>
+      </c>
+      <c r="G70" t="n">
+        <v>9.142857142857142</v>
       </c>
     </row>
     <row r="71">
@@ -1864,6 +2071,9 @@
       <c r="F71" t="n">
         <v>0</v>
       </c>
+      <c r="G71" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -1884,6 +2094,9 @@
       <c r="F72" t="n">
         <v>0</v>
       </c>
+      <c r="G72" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -1896,13 +2109,16 @@
         <v>57</v>
       </c>
       <c r="D73" t="n">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E73" t="n">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="F73" t="n">
-        <v>42.10526315789473</v>
+        <v>25.92592592592592</v>
+      </c>
+      <c r="G73" t="n">
+        <v>54.38596491228071</v>
       </c>
     </row>
     <row r="74">
@@ -1916,13 +2132,16 @@
         <v>175</v>
       </c>
       <c r="D74" t="n">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="E74" t="n">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="F74" t="n">
-        <v>5.142857142857142</v>
+        <v>8.450704225352112</v>
+      </c>
+      <c r="G74" t="n">
+        <v>9.142857142857142</v>
       </c>
     </row>
     <row r="75">
@@ -1944,6 +2163,9 @@
       <c r="F75" t="n">
         <v>0</v>
       </c>
+      <c r="G75" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -1964,6 +2186,9 @@
       <c r="F76" t="n">
         <v>0</v>
       </c>
+      <c r="G76" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -1976,13 +2201,16 @@
         <v>177</v>
       </c>
       <c r="D77" t="n">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="E77" t="n">
-        <v>90</v>
+        <v>56</v>
       </c>
       <c r="F77" t="n">
-        <v>49.15254237288136</v>
+        <v>47.91666666666667</v>
+      </c>
+      <c r="G77" t="n">
+        <v>68.36158192090396</v>
       </c>
     </row>
     <row r="78">
@@ -2004,6 +2232,9 @@
       <c r="F78" t="n">
         <v>0</v>
       </c>
+      <c r="G78" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2024,6 +2255,9 @@
       <c r="F79" t="n">
         <v>0</v>
       </c>
+      <c r="G79" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2044,6 +2278,9 @@
       <c r="F80" t="n">
         <v>0</v>
       </c>
+      <c r="G80" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -2056,13 +2293,16 @@
         <v>177</v>
       </c>
       <c r="D81" t="n">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="E81" t="n">
-        <v>90</v>
+        <v>56</v>
       </c>
       <c r="F81" t="n">
-        <v>49.15254237288136</v>
+        <v>47.91666666666667</v>
+      </c>
+      <c r="G81" t="n">
+        <v>68.36158192090396</v>
       </c>
     </row>
     <row r="82">
@@ -2084,6 +2324,9 @@
       <c r="F82" t="n">
         <v>0</v>
       </c>
+      <c r="G82" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -2104,6 +2347,9 @@
       <c r="F83" t="n">
         <v>0</v>
       </c>
+      <c r="G83" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2124,6 +2370,9 @@
       <c r="F84" t="n">
         <v>0</v>
       </c>
+      <c r="G84" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2136,13 +2385,16 @@
         <v>113</v>
       </c>
       <c r="D85" t="n">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="E85" t="n">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="F85" t="n">
-        <v>51.32743362831859</v>
+        <v>55.00000000000001</v>
+      </c>
+      <c r="G85" t="n">
+        <v>74.33628318584071</v>
       </c>
     </row>
     <row r="86">
@@ -2164,6 +2416,9 @@
       <c r="F86" t="n">
         <v>0</v>
       </c>
+      <c r="G86" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2184,6 +2439,9 @@
       <c r="F87" t="n">
         <v>0</v>
       </c>
+      <c r="G87" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2204,6 +2462,9 @@
       <c r="F88" t="n">
         <v>0</v>
       </c>
+      <c r="G88" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2216,13 +2477,16 @@
         <v>113</v>
       </c>
       <c r="D89" t="n">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="E89" t="n">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="F89" t="n">
-        <v>51.32743362831859</v>
+        <v>55.00000000000001</v>
+      </c>
+      <c r="G89" t="n">
+        <v>74.33628318584071</v>
       </c>
     </row>
     <row r="90">
@@ -2244,6 +2508,9 @@
       <c r="F90" t="n">
         <v>0</v>
       </c>
+      <c r="G90" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2264,6 +2531,9 @@
       <c r="F91" t="n">
         <v>0</v>
       </c>
+      <c r="G91" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -2284,6 +2554,9 @@
       <c r="F92" t="n">
         <v>0</v>
       </c>
+      <c r="G92" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -2296,13 +2569,16 @@
         <v>144</v>
       </c>
       <c r="D93" t="n">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="E93" t="n">
-        <v>74</v>
+        <v>55</v>
       </c>
       <c r="F93" t="n">
-        <v>48.61111111111111</v>
+        <v>34.78260869565217</v>
+      </c>
+      <c r="G93" t="n">
+        <v>61.80555555555556</v>
       </c>
     </row>
     <row r="94">
@@ -2324,6 +2600,9 @@
       <c r="F94" t="n">
         <v>0</v>
       </c>
+      <c r="G94" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -2344,6 +2623,9 @@
       <c r="F95" t="n">
         <v>0</v>
       </c>
+      <c r="G95" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -2364,6 +2646,9 @@
       <c r="F96" t="n">
         <v>0</v>
       </c>
+      <c r="G96" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -2376,13 +2661,16 @@
         <v>144</v>
       </c>
       <c r="D97" t="n">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="E97" t="n">
-        <v>74</v>
+        <v>55</v>
       </c>
       <c r="F97" t="n">
-        <v>48.61111111111111</v>
+        <v>34.78260869565217</v>
+      </c>
+      <c r="G97" t="n">
+        <v>61.80555555555556</v>
       </c>
     </row>
     <row r="98">
@@ -2404,6 +2692,9 @@
       <c r="F98" t="n">
         <v>0</v>
       </c>
+      <c r="G98" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -2424,6 +2715,9 @@
       <c r="F99" t="n">
         <v>0</v>
       </c>
+      <c r="G99" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -2444,6 +2738,9 @@
       <c r="F100" t="n">
         <v>0</v>
       </c>
+      <c r="G100" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -2456,13 +2753,16 @@
         <v>47</v>
       </c>
       <c r="D101" t="n">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="E101" t="n">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="F101" t="n">
-        <v>40.42553191489361</v>
+        <v>58.33333333333334</v>
+      </c>
+      <c r="G101" t="n">
+        <v>70.21276595744681</v>
       </c>
     </row>
     <row r="102">
@@ -2476,13 +2776,16 @@
         <v>239</v>
       </c>
       <c r="D102" t="n">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="E102" t="n">
-        <v>226</v>
+        <v>214</v>
       </c>
       <c r="F102" t="n">
-        <v>5.439330543933055</v>
+        <v>11.34020618556701</v>
+      </c>
+      <c r="G102" t="n">
+        <v>10.4602510460251</v>
       </c>
     </row>
     <row r="103">
@@ -2504,6 +2807,9 @@
       <c r="F103" t="n">
         <v>0</v>
       </c>
+      <c r="G103" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -2524,6 +2830,9 @@
       <c r="F104" t="n">
         <v>0</v>
       </c>
+      <c r="G104" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -2536,13 +2845,16 @@
         <v>47</v>
       </c>
       <c r="D105" t="n">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="E105" t="n">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="F105" t="n">
-        <v>40.42553191489361</v>
+        <v>58.33333333333334</v>
+      </c>
+      <c r="G105" t="n">
+        <v>70.21276595744681</v>
       </c>
     </row>
     <row r="106">
@@ -2556,13 +2868,16 @@
         <v>239</v>
       </c>
       <c r="D106" t="n">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="E106" t="n">
-        <v>226</v>
+        <v>214</v>
       </c>
       <c r="F106" t="n">
-        <v>5.439330543933055</v>
+        <v>11.34020618556701</v>
+      </c>
+      <c r="G106" t="n">
+        <v>10.4602510460251</v>
       </c>
     </row>
     <row r="107">
@@ -2584,6 +2899,9 @@
       <c r="F107" t="n">
         <v>0</v>
       </c>
+      <c r="G107" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -2604,6 +2922,9 @@
       <c r="F108" t="n">
         <v>0</v>
       </c>
+      <c r="G108" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -2616,13 +2937,16 @@
         <v>18</v>
       </c>
       <c r="D109" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E109" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F109" t="n">
-        <v>33.33333333333333</v>
+        <v>36.36363636363637</v>
+      </c>
+      <c r="G109" t="n">
+        <v>55.55555555555556</v>
       </c>
     </row>
     <row r="110">
@@ -2636,13 +2960,16 @@
         <v>198</v>
       </c>
       <c r="D110" t="n">
-        <v>81</v>
+        <v>59</v>
       </c>
       <c r="E110" t="n">
-        <v>154</v>
+        <v>126</v>
       </c>
       <c r="F110" t="n">
-        <v>22.22222222222222</v>
+        <v>27.16049382716049</v>
+      </c>
+      <c r="G110" t="n">
+        <v>36.36363636363637</v>
       </c>
     </row>
     <row r="111">
@@ -2656,13 +2983,16 @@
         <v>248</v>
       </c>
       <c r="D111" t="n">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E111" t="n">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F111" t="n">
-        <v>0.4032258064516129</v>
+        <v>1</v>
+      </c>
+      <c r="G111" t="n">
+        <v>0.8064516129032258</v>
       </c>
     </row>
     <row r="112">
@@ -2684,6 +3014,9 @@
       <c r="F112" t="n">
         <v>0</v>
       </c>
+      <c r="G112" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -2696,13 +3029,16 @@
         <v>18</v>
       </c>
       <c r="D113" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E113" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F113" t="n">
-        <v>33.33333333333333</v>
+        <v>36.36363636363637</v>
+      </c>
+      <c r="G113" t="n">
+        <v>55.55555555555556</v>
       </c>
     </row>
     <row r="114">
@@ -2716,13 +3052,16 @@
         <v>198</v>
       </c>
       <c r="D114" t="n">
-        <v>81</v>
+        <v>59</v>
       </c>
       <c r="E114" t="n">
-        <v>154</v>
+        <v>126</v>
       </c>
       <c r="F114" t="n">
-        <v>22.22222222222222</v>
+        <v>27.16049382716049</v>
+      </c>
+      <c r="G114" t="n">
+        <v>36.36363636363637</v>
       </c>
     </row>
     <row r="115">
@@ -2736,13 +3075,16 @@
         <v>248</v>
       </c>
       <c r="D115" t="n">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E115" t="n">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F115" t="n">
-        <v>0.4032258064516129</v>
+        <v>1</v>
+      </c>
+      <c r="G115" t="n">
+        <v>0.8064516129032258</v>
       </c>
     </row>
     <row r="116">
@@ -2764,6 +3106,9 @@
       <c r="F116" t="n">
         <v>0</v>
       </c>
+      <c r="G116" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -2776,13 +3121,16 @@
         <v>72</v>
       </c>
       <c r="D117" t="n">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="E117" t="n">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="F117" t="n">
-        <v>36.11111111111111</v>
+        <v>34.28571428571428</v>
+      </c>
+      <c r="G117" t="n">
+        <v>54.16666666666666</v>
       </c>
     </row>
     <row r="118">
@@ -2796,13 +3144,16 @@
         <v>242</v>
       </c>
       <c r="D118" t="n">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="E118" t="n">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="F118" t="n">
-        <v>9.090909090909092</v>
+        <v>7.142857142857142</v>
+      </c>
+      <c r="G118" t="n">
+        <v>12.8099173553719</v>
       </c>
     </row>
     <row r="119">
@@ -2824,6 +3175,9 @@
       <c r="F119" t="n">
         <v>0</v>
       </c>
+      <c r="G119" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -2844,6 +3198,9 @@
       <c r="F120" t="n">
         <v>0</v>
       </c>
+      <c r="G120" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -2856,13 +3213,16 @@
         <v>72</v>
       </c>
       <c r="D121" t="n">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="E121" t="n">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="F121" t="n">
-        <v>36.11111111111111</v>
+        <v>34.28571428571428</v>
+      </c>
+      <c r="G121" t="n">
+        <v>54.16666666666666</v>
       </c>
     </row>
     <row r="122">
@@ -2876,13 +3236,16 @@
         <v>242</v>
       </c>
       <c r="D122" t="n">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="E122" t="n">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="F122" t="n">
-        <v>9.090909090909092</v>
+        <v>7.142857142857142</v>
+      </c>
+      <c r="G122" t="n">
+        <v>12.8099173553719</v>
       </c>
     </row>
     <row r="123">
@@ -2904,6 +3267,9 @@
       <c r="F123" t="n">
         <v>0</v>
       </c>
+      <c r="G123" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -2924,6 +3290,9 @@
       <c r="F124" t="n">
         <v>0</v>
       </c>
+      <c r="G124" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -2936,13 +3305,16 @@
         <v>184</v>
       </c>
       <c r="D125" t="n">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="E125" t="n">
-        <v>92</v>
+        <v>52</v>
       </c>
       <c r="F125" t="n">
-        <v>50</v>
+        <v>58.18181818181818</v>
+      </c>
+      <c r="G125" t="n">
+        <v>71.73913043478261</v>
       </c>
     </row>
     <row r="126">
@@ -2964,6 +3336,9 @@
       <c r="F126" t="n">
         <v>0</v>
       </c>
+      <c r="G126" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -2984,6 +3359,9 @@
       <c r="F127" t="n">
         <v>0</v>
       </c>
+      <c r="G127" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -3004,6 +3382,9 @@
       <c r="F128" t="n">
         <v>0</v>
       </c>
+      <c r="G128" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -3016,13 +3397,16 @@
         <v>184</v>
       </c>
       <c r="D129" t="n">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="E129" t="n">
-        <v>92</v>
+        <v>52</v>
       </c>
       <c r="F129" t="n">
-        <v>50</v>
+        <v>58.18181818181818</v>
+      </c>
+      <c r="G129" t="n">
+        <v>71.73913043478261</v>
       </c>
     </row>
     <row r="130">
@@ -3044,6 +3428,9 @@
       <c r="F130" t="n">
         <v>0</v>
       </c>
+      <c r="G130" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -3064,6 +3451,9 @@
       <c r="F131" t="n">
         <v>0</v>
       </c>
+      <c r="G131" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -3084,6 +3474,9 @@
       <c r="F132" t="n">
         <v>0</v>
       </c>
+      <c r="G132" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -3096,13 +3489,16 @@
         <v>33</v>
       </c>
       <c r="D133" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E133" t="n">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="F133" t="n">
-        <v>48.48484848484848</v>
+        <v>50</v>
+      </c>
+      <c r="G133" t="n">
+        <v>72.72727272727273</v>
       </c>
     </row>
     <row r="134">
@@ -3116,13 +3512,16 @@
         <v>399</v>
       </c>
       <c r="D134" t="n">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="E134" t="n">
-        <v>367</v>
+        <v>346</v>
       </c>
       <c r="F134" t="n">
-        <v>8.020050125313283</v>
+        <v>7.000000000000001</v>
+      </c>
+      <c r="G134" t="n">
+        <v>13.28320802005013</v>
       </c>
     </row>
     <row r="135">
@@ -3144,6 +3543,9 @@
       <c r="F135" t="n">
         <v>0</v>
       </c>
+      <c r="G135" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -3164,6 +3566,9 @@
       <c r="F136" t="n">
         <v>0</v>
       </c>
+      <c r="G136" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -3176,13 +3581,16 @@
         <v>33</v>
       </c>
       <c r="D137" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E137" t="n">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="F137" t="n">
-        <v>48.48484848484848</v>
+        <v>50</v>
+      </c>
+      <c r="G137" t="n">
+        <v>72.72727272727273</v>
       </c>
     </row>
     <row r="138">
@@ -3196,13 +3604,16 @@
         <v>399</v>
       </c>
       <c r="D138" t="n">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="E138" t="n">
-        <v>367</v>
+        <v>346</v>
       </c>
       <c r="F138" t="n">
-        <v>8.020050125313283</v>
+        <v>7.000000000000001</v>
+      </c>
+      <c r="G138" t="n">
+        <v>13.28320802005013</v>
       </c>
     </row>
     <row r="139">
@@ -3224,6 +3635,9 @@
       <c r="F139" t="n">
         <v>0</v>
       </c>
+      <c r="G139" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -3244,6 +3658,9 @@
       <c r="F140" t="n">
         <v>0</v>
       </c>
+      <c r="G140" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -3256,13 +3673,16 @@
         <v>198</v>
       </c>
       <c r="D141" t="n">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="E141" t="n">
-        <v>93</v>
+        <v>64</v>
       </c>
       <c r="F141" t="n">
-        <v>53.03030303030303</v>
+        <v>37.93103448275862</v>
+      </c>
+      <c r="G141" t="n">
+        <v>67.67676767676768</v>
       </c>
     </row>
     <row r="142">
@@ -3282,6 +3702,9 @@
         <v>390</v>
       </c>
       <c r="F142" t="n">
+        <v>0</v>
+      </c>
+      <c r="G142" t="n">
         <v>0.5102040816326531</v>
       </c>
     </row>
@@ -3304,6 +3727,9 @@
       <c r="F143" t="n">
         <v>0</v>
       </c>
+      <c r="G143" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -3324,6 +3750,9 @@
       <c r="F144" t="n">
         <v>0</v>
       </c>
+      <c r="G144" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -3336,13 +3765,16 @@
         <v>198</v>
       </c>
       <c r="D145" t="n">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="E145" t="n">
-        <v>93</v>
+        <v>64</v>
       </c>
       <c r="F145" t="n">
-        <v>53.03030303030303</v>
+        <v>37.93103448275862</v>
+      </c>
+      <c r="G145" t="n">
+        <v>67.67676767676768</v>
       </c>
     </row>
     <row r="146">
@@ -3362,6 +3794,9 @@
         <v>390</v>
       </c>
       <c r="F146" t="n">
+        <v>0</v>
+      </c>
+      <c r="G146" t="n">
         <v>0.5102040816326531</v>
       </c>
     </row>
@@ -3384,6 +3819,9 @@
       <c r="F147" t="n">
         <v>0</v>
       </c>
+      <c r="G147" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -3404,6 +3842,9 @@
       <c r="F148" t="n">
         <v>0</v>
       </c>
+      <c r="G148" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -3424,6 +3865,9 @@
       <c r="F149" t="n">
         <v>0</v>
       </c>
+      <c r="G149" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -3436,13 +3880,16 @@
         <v>192</v>
       </c>
       <c r="D150" t="n">
-        <v>90</v>
+        <v>37</v>
       </c>
       <c r="E150" t="n">
-        <v>126</v>
+        <v>69</v>
       </c>
       <c r="F150" t="n">
-        <v>34.375</v>
+        <v>58.88888888888889</v>
+      </c>
+      <c r="G150" t="n">
+        <v>64.0625</v>
       </c>
     </row>
     <row r="151">
@@ -3464,6 +3911,9 @@
       <c r="F151" t="n">
         <v>0</v>
       </c>
+      <c r="G151" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -3484,6 +3934,9 @@
       <c r="F152" t="n">
         <v>0</v>
       </c>
+      <c r="G152" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -3496,13 +3949,16 @@
         <v>192</v>
       </c>
       <c r="D153" t="n">
-        <v>90</v>
+        <v>37</v>
       </c>
       <c r="E153" t="n">
-        <v>126</v>
+        <v>69</v>
       </c>
       <c r="F153" t="n">
-        <v>34.375</v>
+        <v>58.88888888888889</v>
+      </c>
+      <c r="G153" t="n">
+        <v>64.0625</v>
       </c>
     </row>
     <row r="154">
@@ -3524,6 +3980,9 @@
       <c r="F154" t="n">
         <v>0</v>
       </c>
+      <c r="G154" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -3544,6 +4003,9 @@
       <c r="F155" t="n">
         <v>0</v>
       </c>
+      <c r="G155" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -3556,13 +4018,16 @@
         <v>192</v>
       </c>
       <c r="D156" t="n">
-        <v>90</v>
+        <v>37</v>
       </c>
       <c r="E156" t="n">
-        <v>126</v>
+        <v>69</v>
       </c>
       <c r="F156" t="n">
-        <v>34.375</v>
+        <v>58.88888888888889</v>
+      </c>
+      <c r="G156" t="n">
+        <v>64.0625</v>
       </c>
     </row>
     <row r="157">
@@ -3584,6 +4049,9 @@
       <c r="F157" t="n">
         <v>0</v>
       </c>
+      <c r="G157" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -3604,6 +4072,9 @@
       <c r="F158" t="n">
         <v>0</v>
       </c>
+      <c r="G158" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -3616,13 +4087,16 @@
         <v>192</v>
       </c>
       <c r="D159" t="n">
-        <v>90</v>
+        <v>37</v>
       </c>
       <c r="E159" t="n">
-        <v>126</v>
+        <v>69</v>
       </c>
       <c r="F159" t="n">
-        <v>34.375</v>
+        <v>58.88888888888889</v>
+      </c>
+      <c r="G159" t="n">
+        <v>64.0625</v>
       </c>
     </row>
     <row r="160">
@@ -3644,6 +4118,9 @@
       <c r="F160" t="n">
         <v>0</v>
       </c>
+      <c r="G160" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -3664,6 +4141,9 @@
       <c r="F161" t="n">
         <v>0</v>
       </c>
+      <c r="G161" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -3676,13 +4156,16 @@
         <v>226</v>
       </c>
       <c r="D162" t="n">
-        <v>108</v>
+        <v>51</v>
       </c>
       <c r="E162" t="n">
-        <v>159</v>
+        <v>97</v>
       </c>
       <c r="F162" t="n">
-        <v>29.64601769911505</v>
+        <v>52.77777777777778</v>
+      </c>
+      <c r="G162" t="n">
+        <v>57.07964601769911</v>
       </c>
     </row>
     <row r="163">
@@ -3704,6 +4187,9 @@
       <c r="F163" t="n">
         <v>0</v>
       </c>
+      <c r="G163" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -3724,6 +4210,9 @@
       <c r="F164" t="n">
         <v>0</v>
       </c>
+      <c r="G164" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -3736,13 +4225,16 @@
         <v>226</v>
       </c>
       <c r="D165" t="n">
-        <v>108</v>
+        <v>51</v>
       </c>
       <c r="E165" t="n">
-        <v>159</v>
+        <v>97</v>
       </c>
       <c r="F165" t="n">
-        <v>29.64601769911505</v>
+        <v>52.77777777777778</v>
+      </c>
+      <c r="G165" t="n">
+        <v>57.07964601769911</v>
       </c>
     </row>
     <row r="166">
@@ -3764,6 +4256,9 @@
       <c r="F166" t="n">
         <v>0</v>
       </c>
+      <c r="G166" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -3784,6 +4279,9 @@
       <c r="F167" t="n">
         <v>0</v>
       </c>
+      <c r="G167" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -3796,13 +4294,16 @@
         <v>226</v>
       </c>
       <c r="D168" t="n">
-        <v>108</v>
+        <v>51</v>
       </c>
       <c r="E168" t="n">
-        <v>159</v>
+        <v>97</v>
       </c>
       <c r="F168" t="n">
-        <v>29.64601769911505</v>
+        <v>52.77777777777778</v>
+      </c>
+      <c r="G168" t="n">
+        <v>57.07964601769911</v>
       </c>
     </row>
     <row r="169">
@@ -3824,6 +4325,9 @@
       <c r="F169" t="n">
         <v>0</v>
       </c>
+      <c r="G169" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -3844,6 +4348,9 @@
       <c r="F170" t="n">
         <v>0</v>
       </c>
+      <c r="G170" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -3856,13 +4363,16 @@
         <v>226</v>
       </c>
       <c r="D171" t="n">
-        <v>108</v>
+        <v>51</v>
       </c>
       <c r="E171" t="n">
-        <v>159</v>
+        <v>97</v>
       </c>
       <c r="F171" t="n">
-        <v>29.64601769911505</v>
+        <v>52.77777777777778</v>
+      </c>
+      <c r="G171" t="n">
+        <v>57.07964601769911</v>
       </c>
     </row>
     <row r="172">
@@ -3884,6 +4394,9 @@
       <c r="F172" t="n">
         <v>0</v>
       </c>
+      <c r="G172" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -3904,6 +4417,9 @@
       <c r="F173" t="n">
         <v>0</v>
       </c>
+      <c r="G173" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -3916,13 +4432,16 @@
         <v>403</v>
       </c>
       <c r="D174" t="n">
-        <v>178</v>
+        <v>103</v>
       </c>
       <c r="E174" t="n">
-        <v>282</v>
+        <v>204</v>
       </c>
       <c r="F174" t="n">
-        <v>30.02481389578164</v>
+        <v>42.13483146067416</v>
+      </c>
+      <c r="G174" t="n">
+        <v>49.37965260545906</v>
       </c>
     </row>
     <row r="175">
@@ -3944,6 +4463,9 @@
       <c r="F175" t="n">
         <v>0</v>
       </c>
+      <c r="G175" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -3964,6 +4486,9 @@
       <c r="F176" t="n">
         <v>0</v>
       </c>
+      <c r="G176" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -3976,13 +4501,16 @@
         <v>403</v>
       </c>
       <c r="D177" t="n">
-        <v>178</v>
+        <v>103</v>
       </c>
       <c r="E177" t="n">
-        <v>282</v>
+        <v>204</v>
       </c>
       <c r="F177" t="n">
-        <v>30.02481389578164</v>
+        <v>42.13483146067416</v>
+      </c>
+      <c r="G177" t="n">
+        <v>49.37965260545906</v>
       </c>
     </row>
     <row r="178">
@@ -4004,6 +4532,9 @@
       <c r="F178" t="n">
         <v>0</v>
       </c>
+      <c r="G178" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -4024,6 +4555,9 @@
       <c r="F179" t="n">
         <v>0</v>
       </c>
+      <c r="G179" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -4036,13 +4570,16 @@
         <v>403</v>
       </c>
       <c r="D180" t="n">
-        <v>178</v>
+        <v>103</v>
       </c>
       <c r="E180" t="n">
-        <v>282</v>
+        <v>204</v>
       </c>
       <c r="F180" t="n">
-        <v>30.02481389578164</v>
+        <v>42.13483146067416</v>
+      </c>
+      <c r="G180" t="n">
+        <v>49.37965260545906</v>
       </c>
     </row>
     <row r="181">
@@ -4064,6 +4601,9 @@
       <c r="F181" t="n">
         <v>0</v>
       </c>
+      <c r="G181" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -4084,6 +4624,9 @@
       <c r="F182" t="n">
         <v>0</v>
       </c>
+      <c r="G182" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -4096,13 +4639,16 @@
         <v>403</v>
       </c>
       <c r="D183" t="n">
-        <v>178</v>
+        <v>103</v>
       </c>
       <c r="E183" t="n">
-        <v>282</v>
+        <v>204</v>
       </c>
       <c r="F183" t="n">
-        <v>30.02481389578164</v>
+        <v>42.13483146067416</v>
+      </c>
+      <c r="G183" t="n">
+        <v>49.37965260545906</v>
       </c>
     </row>
     <row r="184">
@@ -4124,6 +4670,9 @@
       <c r="F184" t="n">
         <v>0</v>
       </c>
+      <c r="G184" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -4144,6 +4693,9 @@
       <c r="F185" t="n">
         <v>0</v>
       </c>
+      <c r="G185" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -4156,13 +4708,16 @@
         <v>178</v>
       </c>
       <c r="D186" t="n">
-        <v>84</v>
+        <v>49</v>
       </c>
       <c r="E186" t="n">
-        <v>121</v>
+        <v>85</v>
       </c>
       <c r="F186" t="n">
-        <v>32.02247191011236</v>
+        <v>41.66666666666667</v>
+      </c>
+      <c r="G186" t="n">
+        <v>52.24719101123596</v>
       </c>
     </row>
     <row r="187">
@@ -4184,6 +4739,9 @@
       <c r="F187" t="n">
         <v>0</v>
       </c>
+      <c r="G187" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -4204,6 +4762,9 @@
       <c r="F188" t="n">
         <v>0</v>
       </c>
+      <c r="G188" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -4216,13 +4777,16 @@
         <v>178</v>
       </c>
       <c r="D189" t="n">
-        <v>84</v>
+        <v>49</v>
       </c>
       <c r="E189" t="n">
-        <v>121</v>
+        <v>85</v>
       </c>
       <c r="F189" t="n">
-        <v>32.02247191011236</v>
+        <v>41.66666666666667</v>
+      </c>
+      <c r="G189" t="n">
+        <v>52.24719101123596</v>
       </c>
     </row>
     <row r="190">
@@ -4244,6 +4808,9 @@
       <c r="F190" t="n">
         <v>0</v>
       </c>
+      <c r="G190" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -4264,6 +4831,9 @@
       <c r="F191" t="n">
         <v>0</v>
       </c>
+      <c r="G191" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -4276,13 +4846,16 @@
         <v>178</v>
       </c>
       <c r="D192" t="n">
-        <v>84</v>
+        <v>49</v>
       </c>
       <c r="E192" t="n">
-        <v>121</v>
+        <v>85</v>
       </c>
       <c r="F192" t="n">
-        <v>32.02247191011236</v>
+        <v>41.66666666666667</v>
+      </c>
+      <c r="G192" t="n">
+        <v>52.24719101123596</v>
       </c>
     </row>
     <row r="193">
@@ -4304,6 +4877,9 @@
       <c r="F193" t="n">
         <v>0</v>
       </c>
+      <c r="G193" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -4324,6 +4900,9 @@
       <c r="F194" t="n">
         <v>0</v>
       </c>
+      <c r="G194" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -4336,13 +4915,16 @@
         <v>178</v>
       </c>
       <c r="D195" t="n">
-        <v>84</v>
+        <v>49</v>
       </c>
       <c r="E195" t="n">
-        <v>121</v>
+        <v>85</v>
       </c>
       <c r="F195" t="n">
-        <v>32.02247191011236</v>
+        <v>41.66666666666667</v>
+      </c>
+      <c r="G195" t="n">
+        <v>52.24719101123596</v>
       </c>
     </row>
     <row r="196">
@@ -4364,6 +4946,9 @@
       <c r="F196" t="n">
         <v>0</v>
       </c>
+      <c r="G196" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -4384,6 +4969,9 @@
       <c r="F197" t="n">
         <v>0</v>
       </c>
+      <c r="G197" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -4396,13 +4984,16 @@
         <v>219</v>
       </c>
       <c r="D198" t="n">
-        <v>97</v>
+        <v>73</v>
       </c>
       <c r="E198" t="n">
-        <v>154</v>
+        <v>129</v>
       </c>
       <c r="F198" t="n">
-        <v>29.68036529680365</v>
+        <v>24.74226804123711</v>
+      </c>
+      <c r="G198" t="n">
+        <v>41.0958904109589</v>
       </c>
     </row>
     <row r="199">
@@ -4424,6 +5015,9 @@
       <c r="F199" t="n">
         <v>0</v>
       </c>
+      <c r="G199" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -4444,6 +5038,9 @@
       <c r="F200" t="n">
         <v>0</v>
       </c>
+      <c r="G200" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -4456,13 +5053,16 @@
         <v>219</v>
       </c>
       <c r="D201" t="n">
-        <v>97</v>
+        <v>73</v>
       </c>
       <c r="E201" t="n">
-        <v>154</v>
+        <v>129</v>
       </c>
       <c r="F201" t="n">
-        <v>29.68036529680365</v>
+        <v>24.74226804123711</v>
+      </c>
+      <c r="G201" t="n">
+        <v>41.0958904109589</v>
       </c>
     </row>
     <row r="202">
@@ -4484,6 +5084,9 @@
       <c r="F202" t="n">
         <v>0</v>
       </c>
+      <c r="G202" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -4504,6 +5107,9 @@
       <c r="F203" t="n">
         <v>0</v>
       </c>
+      <c r="G203" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -4516,13 +5122,16 @@
         <v>219</v>
       </c>
       <c r="D204" t="n">
-        <v>97</v>
+        <v>73</v>
       </c>
       <c r="E204" t="n">
-        <v>154</v>
+        <v>129</v>
       </c>
       <c r="F204" t="n">
-        <v>29.68036529680365</v>
+        <v>24.74226804123711</v>
+      </c>
+      <c r="G204" t="n">
+        <v>41.0958904109589</v>
       </c>
     </row>
     <row r="205">
@@ -4544,6 +5153,9 @@
       <c r="F205" t="n">
         <v>0</v>
       </c>
+      <c r="G205" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -4564,6 +5176,9 @@
       <c r="F206" t="n">
         <v>0</v>
       </c>
+      <c r="G206" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -4576,13 +5191,16 @@
         <v>219</v>
       </c>
       <c r="D207" t="n">
-        <v>97</v>
+        <v>73</v>
       </c>
       <c r="E207" t="n">
-        <v>154</v>
+        <v>129</v>
       </c>
       <c r="F207" t="n">
-        <v>29.68036529680365</v>
+        <v>24.74226804123711</v>
+      </c>
+      <c r="G207" t="n">
+        <v>41.0958904109589</v>
       </c>
     </row>
     <row r="208">
@@ -4604,6 +5222,9 @@
       <c r="F208" t="n">
         <v>0</v>
       </c>
+      <c r="G208" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -4624,6 +5245,9 @@
       <c r="F209" t="n">
         <v>0</v>
       </c>
+      <c r="G209" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -4636,13 +5260,16 @@
         <v>1721</v>
       </c>
       <c r="D210" t="n">
-        <v>436</v>
+        <v>250</v>
       </c>
       <c r="E210" t="n">
-        <v>1130</v>
+        <v>817</v>
       </c>
       <c r="F210" t="n">
-        <v>34.34049970947124</v>
+        <v>42.6605504587156</v>
+      </c>
+      <c r="G210" t="n">
+        <v>52.52760023242301</v>
       </c>
     </row>
     <row r="211">
@@ -4664,6 +5291,9 @@
       <c r="F211" t="n">
         <v>0</v>
       </c>
+      <c r="G211" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -4684,6 +5314,9 @@
       <c r="F212" t="n">
         <v>0</v>
       </c>
+      <c r="G212" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -4696,13 +5329,16 @@
         <v>1721</v>
       </c>
       <c r="D213" t="n">
-        <v>436</v>
+        <v>250</v>
       </c>
       <c r="E213" t="n">
-        <v>1130</v>
+        <v>817</v>
       </c>
       <c r="F213" t="n">
-        <v>34.34049970947124</v>
+        <v>42.6605504587156</v>
+      </c>
+      <c r="G213" t="n">
+        <v>52.52760023242301</v>
       </c>
     </row>
     <row r="214">
@@ -4724,6 +5360,9 @@
       <c r="F214" t="n">
         <v>0</v>
       </c>
+      <c r="G214" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -4744,6 +5383,9 @@
       <c r="F215" t="n">
         <v>0</v>
       </c>
+      <c r="G215" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -4756,13 +5398,16 @@
         <v>1721</v>
       </c>
       <c r="D216" t="n">
-        <v>436</v>
+        <v>250</v>
       </c>
       <c r="E216" t="n">
-        <v>1130</v>
+        <v>817</v>
       </c>
       <c r="F216" t="n">
-        <v>34.34049970947124</v>
+        <v>42.6605504587156</v>
+      </c>
+      <c r="G216" t="n">
+        <v>52.52760023242301</v>
       </c>
     </row>
     <row r="217">
@@ -4784,6 +5429,9 @@
       <c r="F217" t="n">
         <v>0</v>
       </c>
+      <c r="G217" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -4804,6 +5452,9 @@
       <c r="F218" t="n">
         <v>0</v>
       </c>
+      <c r="G218" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -4816,13 +5467,16 @@
         <v>1721</v>
       </c>
       <c r="D219" t="n">
-        <v>436</v>
+        <v>250</v>
       </c>
       <c r="E219" t="n">
-        <v>1130</v>
+        <v>817</v>
       </c>
       <c r="F219" t="n">
-        <v>34.34049970947124</v>
+        <v>42.6605504587156</v>
+      </c>
+      <c r="G219" t="n">
+        <v>52.52760023242301</v>
       </c>
     </row>
     <row r="220">
@@ -4844,6 +5498,9 @@
       <c r="F220" t="n">
         <v>0</v>
       </c>
+      <c r="G220" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -4864,6 +5521,9 @@
       <c r="F221" t="n">
         <v>0</v>
       </c>
+      <c r="G221" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -4876,13 +5536,16 @@
         <v>1676</v>
       </c>
       <c r="D222" t="n">
-        <v>433</v>
+        <v>247</v>
       </c>
       <c r="E222" t="n">
-        <v>1107</v>
+        <v>800</v>
       </c>
       <c r="F222" t="n">
-        <v>33.94988066825776</v>
+        <v>42.95612009237875</v>
+      </c>
+      <c r="G222" t="n">
+        <v>52.2673031026253</v>
       </c>
     </row>
     <row r="223">
@@ -4904,6 +5567,9 @@
       <c r="F223" t="n">
         <v>0</v>
       </c>
+      <c r="G223" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -4924,6 +5590,9 @@
       <c r="F224" t="n">
         <v>0</v>
       </c>
+      <c r="G224" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -4936,13 +5605,16 @@
         <v>1676</v>
       </c>
       <c r="D225" t="n">
-        <v>433</v>
+        <v>247</v>
       </c>
       <c r="E225" t="n">
-        <v>1107</v>
+        <v>800</v>
       </c>
       <c r="F225" t="n">
-        <v>33.94988066825776</v>
+        <v>42.95612009237875</v>
+      </c>
+      <c r="G225" t="n">
+        <v>52.2673031026253</v>
       </c>
     </row>
     <row r="226">
@@ -4964,6 +5636,9 @@
       <c r="F226" t="n">
         <v>0</v>
       </c>
+      <c r="G226" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -4984,6 +5659,9 @@
       <c r="F227" t="n">
         <v>0</v>
       </c>
+      <c r="G227" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -4996,13 +5674,16 @@
         <v>1676</v>
       </c>
       <c r="D228" t="n">
-        <v>433</v>
+        <v>247</v>
       </c>
       <c r="E228" t="n">
-        <v>1107</v>
+        <v>800</v>
       </c>
       <c r="F228" t="n">
-        <v>33.94988066825776</v>
+        <v>42.95612009237875</v>
+      </c>
+      <c r="G228" t="n">
+        <v>52.2673031026253</v>
       </c>
     </row>
     <row r="229">
@@ -5024,6 +5705,9 @@
       <c r="F229" t="n">
         <v>0</v>
       </c>
+      <c r="G229" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -5044,6 +5728,9 @@
       <c r="F230" t="n">
         <v>0</v>
       </c>
+      <c r="G230" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -5056,13 +5743,16 @@
         <v>1676</v>
       </c>
       <c r="D231" t="n">
-        <v>433</v>
+        <v>247</v>
       </c>
       <c r="E231" t="n">
-        <v>1107</v>
+        <v>800</v>
       </c>
       <c r="F231" t="n">
-        <v>33.94988066825776</v>
+        <v>42.95612009237875</v>
+      </c>
+      <c r="G231" t="n">
+        <v>52.2673031026253</v>
       </c>
     </row>
     <row r="232">
@@ -5084,6 +5774,9 @@
       <c r="F232" t="n">
         <v>0</v>
       </c>
+      <c r="G232" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -5104,6 +5797,9 @@
       <c r="F233" t="n">
         <v>0</v>
       </c>
+      <c r="G233" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -5116,13 +5812,16 @@
         <v>1315</v>
       </c>
       <c r="D234" t="n">
-        <v>353</v>
+        <v>182</v>
       </c>
       <c r="E234" t="n">
-        <v>709</v>
+        <v>461</v>
       </c>
       <c r="F234" t="n">
-        <v>46.08365019011407</v>
+        <v>48.44192634560906</v>
+      </c>
+      <c r="G234" t="n">
+        <v>64.94296577946767</v>
       </c>
     </row>
     <row r="235">
@@ -5144,6 +5843,9 @@
       <c r="F235" t="n">
         <v>0</v>
       </c>
+      <c r="G235" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -5164,6 +5866,9 @@
       <c r="F236" t="n">
         <v>0</v>
       </c>
+      <c r="G236" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -5176,13 +5881,16 @@
         <v>1315</v>
       </c>
       <c r="D237" t="n">
-        <v>353</v>
+        <v>182</v>
       </c>
       <c r="E237" t="n">
-        <v>709</v>
+        <v>461</v>
       </c>
       <c r="F237" t="n">
-        <v>46.08365019011407</v>
+        <v>48.44192634560906</v>
+      </c>
+      <c r="G237" t="n">
+        <v>64.94296577946767</v>
       </c>
     </row>
     <row r="238">
@@ -5204,6 +5912,9 @@
       <c r="F238" t="n">
         <v>0</v>
       </c>
+      <c r="G238" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -5224,6 +5935,9 @@
       <c r="F239" t="n">
         <v>0</v>
       </c>
+      <c r="G239" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -5236,13 +5950,16 @@
         <v>1315</v>
       </c>
       <c r="D240" t="n">
-        <v>353</v>
+        <v>182</v>
       </c>
       <c r="E240" t="n">
-        <v>709</v>
+        <v>461</v>
       </c>
       <c r="F240" t="n">
-        <v>46.08365019011407</v>
+        <v>48.44192634560906</v>
+      </c>
+      <c r="G240" t="n">
+        <v>64.94296577946767</v>
       </c>
     </row>
     <row r="241">
@@ -5264,6 +5981,9 @@
       <c r="F241" t="n">
         <v>0</v>
       </c>
+      <c r="G241" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -5284,6 +6004,9 @@
       <c r="F242" t="n">
         <v>0</v>
       </c>
+      <c r="G242" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -5296,13 +6019,16 @@
         <v>1315</v>
       </c>
       <c r="D243" t="n">
-        <v>353</v>
+        <v>182</v>
       </c>
       <c r="E243" t="n">
-        <v>709</v>
+        <v>461</v>
       </c>
       <c r="F243" t="n">
-        <v>46.08365019011407</v>
+        <v>48.44192634560906</v>
+      </c>
+      <c r="G243" t="n">
+        <v>64.94296577946767</v>
       </c>
     </row>
     <row r="244">
@@ -5324,6 +6050,9 @@
       <c r="F244" t="n">
         <v>0</v>
       </c>
+      <c r="G244" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -5344,6 +6073,9 @@
       <c r="F245" t="n">
         <v>0</v>
       </c>
+      <c r="G245" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
@@ -5356,13 +6088,16 @@
         <v>1898</v>
       </c>
       <c r="D246" t="n">
-        <v>476</v>
+        <v>378</v>
       </c>
       <c r="E246" t="n">
-        <v>1516</v>
+        <v>1302</v>
       </c>
       <c r="F246" t="n">
-        <v>20.12644889357218</v>
+        <v>20.58823529411764</v>
+      </c>
+      <c r="G246" t="n">
+        <v>31.40147523709167</v>
       </c>
     </row>
     <row r="247">
@@ -5384,6 +6119,9 @@
       <c r="F247" t="n">
         <v>0</v>
       </c>
+      <c r="G247" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -5404,6 +6142,9 @@
       <c r="F248" t="n">
         <v>0</v>
       </c>
+      <c r="G248" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
@@ -5416,13 +6157,16 @@
         <v>1898</v>
       </c>
       <c r="D249" t="n">
-        <v>476</v>
+        <v>378</v>
       </c>
       <c r="E249" t="n">
-        <v>1516</v>
+        <v>1302</v>
       </c>
       <c r="F249" t="n">
-        <v>20.12644889357218</v>
+        <v>20.58823529411764</v>
+      </c>
+      <c r="G249" t="n">
+        <v>31.40147523709167</v>
       </c>
     </row>
     <row r="250">
@@ -5444,6 +6188,9 @@
       <c r="F250" t="n">
         <v>0</v>
       </c>
+      <c r="G250" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
@@ -5464,6 +6211,9 @@
       <c r="F251" t="n">
         <v>0</v>
       </c>
+      <c r="G251" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
@@ -5476,13 +6226,16 @@
         <v>1898</v>
       </c>
       <c r="D252" t="n">
-        <v>476</v>
+        <v>378</v>
       </c>
       <c r="E252" t="n">
-        <v>1516</v>
+        <v>1302</v>
       </c>
       <c r="F252" t="n">
-        <v>20.12644889357218</v>
+        <v>20.58823529411764</v>
+      </c>
+      <c r="G252" t="n">
+        <v>31.40147523709167</v>
       </c>
     </row>
     <row r="253">
@@ -5504,6 +6257,9 @@
       <c r="F253" t="n">
         <v>0</v>
       </c>
+      <c r="G253" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
@@ -5524,6 +6280,9 @@
       <c r="F254" t="n">
         <v>0</v>
       </c>
+      <c r="G254" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
@@ -5536,13 +6295,16 @@
         <v>1898</v>
       </c>
       <c r="D255" t="n">
-        <v>476</v>
+        <v>378</v>
       </c>
       <c r="E255" t="n">
-        <v>1516</v>
+        <v>1302</v>
       </c>
       <c r="F255" t="n">
-        <v>20.12644889357218</v>
+        <v>20.58823529411764</v>
+      </c>
+      <c r="G255" t="n">
+        <v>31.40147523709167</v>
       </c>
     </row>
     <row r="256">
@@ -5564,6 +6326,9 @@
       <c r="F256" t="n">
         <v>0</v>
       </c>
+      <c r="G256" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
@@ -5584,6 +6349,9 @@
       <c r="F257" t="n">
         <v>0</v>
       </c>
+      <c r="G257" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
@@ -5596,13 +6364,16 @@
         <v>1381</v>
       </c>
       <c r="D258" t="n">
-        <v>376</v>
+        <v>275</v>
       </c>
       <c r="E258" t="n">
-        <v>773</v>
+        <v>612</v>
       </c>
       <c r="F258" t="n">
-        <v>44.02606806661839</v>
+        <v>26.86170212765958</v>
+      </c>
+      <c r="G258" t="n">
+        <v>55.6842867487328</v>
       </c>
     </row>
     <row r="259">
@@ -5624,6 +6395,9 @@
       <c r="F259" t="n">
         <v>0</v>
       </c>
+      <c r="G259" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
@@ -5644,6 +6418,9 @@
       <c r="F260" t="n">
         <v>0</v>
       </c>
+      <c r="G260" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
@@ -5656,13 +6433,16 @@
         <v>1381</v>
       </c>
       <c r="D261" t="n">
-        <v>376</v>
+        <v>275</v>
       </c>
       <c r="E261" t="n">
-        <v>773</v>
+        <v>612</v>
       </c>
       <c r="F261" t="n">
-        <v>44.02606806661839</v>
+        <v>26.86170212765958</v>
+      </c>
+      <c r="G261" t="n">
+        <v>55.6842867487328</v>
       </c>
     </row>
     <row r="262">
@@ -5684,6 +6464,9 @@
       <c r="F262" t="n">
         <v>0</v>
       </c>
+      <c r="G262" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
@@ -5704,6 +6487,9 @@
       <c r="F263" t="n">
         <v>0</v>
       </c>
+      <c r="G263" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
@@ -5716,13 +6502,16 @@
         <v>1381</v>
       </c>
       <c r="D264" t="n">
-        <v>376</v>
+        <v>275</v>
       </c>
       <c r="E264" t="n">
-        <v>773</v>
+        <v>612</v>
       </c>
       <c r="F264" t="n">
-        <v>44.02606806661839</v>
+        <v>26.86170212765958</v>
+      </c>
+      <c r="G264" t="n">
+        <v>55.6842867487328</v>
       </c>
     </row>
     <row r="265">
@@ -5744,6 +6533,9 @@
       <c r="F265" t="n">
         <v>0</v>
       </c>
+      <c r="G265" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="266">
       <c r="A266" s="1" t="n">
@@ -5764,6 +6556,9 @@
       <c r="F266" t="n">
         <v>0</v>
       </c>
+      <c r="G266" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="267">
       <c r="A267" s="1" t="n">
@@ -5776,13 +6571,16 @@
         <v>1381</v>
       </c>
       <c r="D267" t="n">
-        <v>376</v>
+        <v>275</v>
       </c>
       <c r="E267" t="n">
-        <v>773</v>
+        <v>612</v>
       </c>
       <c r="F267" t="n">
-        <v>44.02606806661839</v>
+        <v>26.86170212765958</v>
+      </c>
+      <c r="G267" t="n">
+        <v>55.6842867487328</v>
       </c>
     </row>
     <row r="268">
@@ -5804,6 +6602,9 @@
       <c r="F268" t="n">
         <v>0</v>
       </c>
+      <c r="G268" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="269">
       <c r="A269" s="1" t="n">
@@ -5824,6 +6625,9 @@
       <c r="F269" t="n">
         <v>0</v>
       </c>
+      <c r="G269" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="270">
       <c r="A270" s="1" t="n">
@@ -5844,6 +6648,9 @@
       <c r="F270" t="n">
         <v>0</v>
       </c>
+      <c r="G270" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="271">
       <c r="A271" s="1" t="n">
@@ -5864,6 +6671,9 @@
       <c r="F271" t="n">
         <v>0</v>
       </c>
+      <c r="G271" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="272">
       <c r="A272" s="1" t="n">
@@ -5884,6 +6694,9 @@
       <c r="F272" t="n">
         <v>0</v>
       </c>
+      <c r="G272" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="273">
       <c r="A273" s="1" t="n">
@@ -5904,6 +6717,9 @@
       <c r="F273" t="n">
         <v>0</v>
       </c>
+      <c r="G273" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="274">
       <c r="A274" s="1" t="n">
@@ -5924,6 +6740,9 @@
       <c r="F274" t="n">
         <v>0</v>
       </c>
+      <c r="G274" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="275">
       <c r="A275" s="1" t="n">
@@ -5944,6 +6763,9 @@
       <c r="F275" t="n">
         <v>0</v>
       </c>
+      <c r="G275" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="276">
       <c r="A276" s="1" t="n">
@@ -5964,6 +6786,9 @@
       <c r="F276" t="n">
         <v>0</v>
       </c>
+      <c r="G276" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="277">
       <c r="A277" s="1" t="n">
@@ -5984,6 +6809,9 @@
       <c r="F277" t="n">
         <v>0</v>
       </c>
+      <c r="G277" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="278">
       <c r="A278" s="1" t="n">
@@ -6004,6 +6832,9 @@
       <c r="F278" t="n">
         <v>0</v>
       </c>
+      <c r="G278" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="279">
       <c r="A279" s="1" t="n">
@@ -6024,6 +6855,9 @@
       <c r="F279" t="n">
         <v>0</v>
       </c>
+      <c r="G279" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="280">
       <c r="A280" s="1" t="n">
@@ -6044,6 +6878,9 @@
       <c r="F280" t="n">
         <v>0</v>
       </c>
+      <c r="G280" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="281">
       <c r="A281" s="1" t="n">
@@ -6064,6 +6901,9 @@
       <c r="F281" t="n">
         <v>0</v>
       </c>
+      <c r="G281" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="282">
       <c r="A282" s="1" t="n">
@@ -6084,6 +6924,9 @@
       <c r="F282" t="n">
         <v>0</v>
       </c>
+      <c r="G282" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="283">
       <c r="A283" s="1" t="n">
@@ -6104,6 +6947,9 @@
       <c r="F283" t="n">
         <v>0</v>
       </c>
+      <c r="G283" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="284">
       <c r="A284" s="1" t="n">
@@ -6124,6 +6970,9 @@
       <c r="F284" t="n">
         <v>0</v>
       </c>
+      <c r="G284" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="285">
       <c r="A285" s="1" t="n">
@@ -6144,6 +6993,9 @@
       <c r="F285" t="n">
         <v>0</v>
       </c>
+      <c r="G285" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="286">
       <c r="A286" s="1" t="n">
@@ -6164,6 +7016,9 @@
       <c r="F286" t="n">
         <v>0</v>
       </c>
+      <c r="G286" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="287">
       <c r="A287" s="1" t="n">
@@ -6184,6 +7039,9 @@
       <c r="F287" t="n">
         <v>0</v>
       </c>
+      <c r="G287" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="288">
       <c r="A288" s="1" t="n">
@@ -6204,6 +7062,9 @@
       <c r="F288" t="n">
         <v>0</v>
       </c>
+      <c r="G288" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="289">
       <c r="A289" s="1" t="n">
@@ -6224,6 +7085,9 @@
       <c r="F289" t="n">
         <v>0</v>
       </c>
+      <c r="G289" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="290">
       <c r="A290" s="1" t="n">
@@ -6244,6 +7108,9 @@
       <c r="F290" t="n">
         <v>0</v>
       </c>
+      <c r="G290" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="291">
       <c r="A291" s="1" t="n">
@@ -6264,6 +7131,9 @@
       <c r="F291" t="n">
         <v>0</v>
       </c>
+      <c r="G291" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="292">
       <c r="A292" s="1" t="n">
@@ -6284,6 +7154,9 @@
       <c r="F292" t="n">
         <v>0</v>
       </c>
+      <c r="G292" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="293">
       <c r="A293" s="1" t="n">
@@ -6304,6 +7177,9 @@
       <c r="F293" t="n">
         <v>0</v>
       </c>
+      <c r="G293" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="294">
       <c r="A294" s="1" t="n">
@@ -6316,13 +7192,16 @@
         <v>4994</v>
       </c>
       <c r="D294" t="n">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="E294" t="n">
-        <v>4993</v>
+        <v>4992</v>
       </c>
       <c r="F294" t="n">
-        <v>0.02002402883460152</v>
+        <v>0.2</v>
+      </c>
+      <c r="G294" t="n">
+        <v>0.04004805766920305</v>
       </c>
     </row>
     <row r="295">
@@ -6344,6 +7223,9 @@
       <c r="F295" t="n">
         <v>0</v>
       </c>
+      <c r="G295" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="296">
       <c r="A296" s="1" t="n">
@@ -6364,6 +7246,9 @@
       <c r="F296" t="n">
         <v>0</v>
       </c>
+      <c r="G296" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="297">
       <c r="A297" s="1" t="n">
@@ -6376,13 +7261,16 @@
         <v>4994</v>
       </c>
       <c r="D297" t="n">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="E297" t="n">
-        <v>4993</v>
+        <v>4992</v>
       </c>
       <c r="F297" t="n">
-        <v>0.02002402883460152</v>
+        <v>0.2</v>
+      </c>
+      <c r="G297" t="n">
+        <v>0.04004805766920305</v>
       </c>
     </row>
     <row r="298">
@@ -6404,6 +7292,9 @@
       <c r="F298" t="n">
         <v>0</v>
       </c>
+      <c r="G298" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="299">
       <c r="A299" s="1" t="n">
@@ -6424,6 +7315,9 @@
       <c r="F299" t="n">
         <v>0</v>
       </c>
+      <c r="G299" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="300">
       <c r="A300" s="1" t="n">
@@ -6436,13 +7330,16 @@
         <v>4994</v>
       </c>
       <c r="D300" t="n">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="E300" t="n">
-        <v>4993</v>
+        <v>4992</v>
       </c>
       <c r="F300" t="n">
-        <v>0.02002402883460152</v>
+        <v>0.2</v>
+      </c>
+      <c r="G300" t="n">
+        <v>0.04004805766920305</v>
       </c>
     </row>
     <row r="301">
@@ -6464,6 +7361,9 @@
       <c r="F301" t="n">
         <v>0</v>
       </c>
+      <c r="G301" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="302">
       <c r="A302" s="1" t="n">
@@ -6484,6 +7384,9 @@
       <c r="F302" t="n">
         <v>0</v>
       </c>
+      <c r="G302" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="303">
       <c r="A303" s="1" t="n">
@@ -6496,13 +7399,16 @@
         <v>4994</v>
       </c>
       <c r="D303" t="n">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="E303" t="n">
-        <v>4993</v>
+        <v>4992</v>
       </c>
       <c r="F303" t="n">
-        <v>0.02002402883460152</v>
+        <v>0.2</v>
+      </c>
+      <c r="G303" t="n">
+        <v>0.04004805766920305</v>
       </c>
     </row>
     <row r="304">
@@ -6524,6 +7430,9 @@
       <c r="F304" t="n">
         <v>0</v>
       </c>
+      <c r="G304" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="305">
       <c r="A305" s="1" t="n">
@@ -6544,6 +7453,9 @@
       <c r="F305" t="n">
         <v>0</v>
       </c>
+      <c r="G305" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="306">
       <c r="A306" s="1" t="n">
@@ -6564,6 +7476,9 @@
       <c r="F306" t="n">
         <v>0</v>
       </c>
+      <c r="G306" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="307">
       <c r="A307" s="1" t="n">
@@ -6584,6 +7499,9 @@
       <c r="F307" t="n">
         <v>0</v>
       </c>
+      <c r="G307" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="308">
       <c r="A308" s="1" t="n">
@@ -6604,6 +7522,9 @@
       <c r="F308" t="n">
         <v>0</v>
       </c>
+      <c r="G308" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="309">
       <c r="A309" s="1" t="n">
@@ -6624,6 +7545,9 @@
       <c r="F309" t="n">
         <v>0</v>
       </c>
+      <c r="G309" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="310">
       <c r="A310" s="1" t="n">
@@ -6644,6 +7568,9 @@
       <c r="F310" t="n">
         <v>0</v>
       </c>
+      <c r="G310" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="311">
       <c r="A311" s="1" t="n">
@@ -6664,6 +7591,9 @@
       <c r="F311" t="n">
         <v>0</v>
       </c>
+      <c r="G311" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="312">
       <c r="A312" s="1" t="n">
@@ -6684,6 +7614,9 @@
       <c r="F312" t="n">
         <v>0</v>
       </c>
+      <c r="G312" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="313">
       <c r="A313" s="1" t="n">
@@ -6704,6 +7637,9 @@
       <c r="F313" t="n">
         <v>0</v>
       </c>
+      <c r="G313" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="314">
       <c r="A314" s="1" t="n">
@@ -6724,6 +7660,9 @@
       <c r="F314" t="n">
         <v>0</v>
       </c>
+      <c r="G314" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="315">
       <c r="A315" s="1" t="n">
@@ -6744,6 +7683,9 @@
       <c r="F315" t="n">
         <v>0</v>
       </c>
+      <c r="G315" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="316">
       <c r="A316" s="1" t="n">
@@ -6764,6 +7706,9 @@
       <c r="F316" t="n">
         <v>0</v>
       </c>
+      <c r="G316" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="317">
       <c r="A317" s="1" t="n">
@@ -6784,6 +7729,9 @@
       <c r="F317" t="n">
         <v>0</v>
       </c>
+      <c r="G317" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="318">
       <c r="A318" s="1" t="n">
@@ -6804,6 +7752,9 @@
       <c r="F318" t="n">
         <v>0</v>
       </c>
+      <c r="G318" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="319">
       <c r="A319" s="1" t="n">
@@ -6824,6 +7775,9 @@
       <c r="F319" t="n">
         <v>0</v>
       </c>
+      <c r="G319" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="320">
       <c r="A320" s="1" t="n">
@@ -6844,6 +7798,9 @@
       <c r="F320" t="n">
         <v>0</v>
       </c>
+      <c r="G320" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="321">
       <c r="A321" s="1" t="n">
@@ -6864,6 +7821,9 @@
       <c r="F321" t="n">
         <v>0</v>
       </c>
+      <c r="G321" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="322">
       <c r="A322" s="1" t="n">
@@ -6884,6 +7844,9 @@
       <c r="F322" t="n">
         <v>0</v>
       </c>
+      <c r="G322" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="323">
       <c r="A323" s="1" t="n">
@@ -6904,6 +7867,9 @@
       <c r="F323" t="n">
         <v>0</v>
       </c>
+      <c r="G323" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="324">
       <c r="A324" s="1" t="n">
@@ -6924,6 +7890,9 @@
       <c r="F324" t="n">
         <v>0</v>
       </c>
+      <c r="G324" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="325">
       <c r="A325" s="1" t="n">
@@ -6944,6 +7913,9 @@
       <c r="F325" t="n">
         <v>0</v>
       </c>
+      <c r="G325" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="326">
       <c r="A326" s="1" t="n">
@@ -6964,6 +7936,9 @@
       <c r="F326" t="n">
         <v>0</v>
       </c>
+      <c r="G326" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="327">
       <c r="A327" s="1" t="n">
@@ -6984,6 +7959,9 @@
       <c r="F327" t="n">
         <v>0</v>
       </c>
+      <c r="G327" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="328">
       <c r="A328" s="1" t="n">
@@ -7004,6 +7982,9 @@
       <c r="F328" t="n">
         <v>0</v>
       </c>
+      <c r="G328" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="329">
       <c r="A329" s="1" t="n">
@@ -7024,6 +8005,9 @@
       <c r="F329" t="n">
         <v>0</v>
       </c>
+      <c r="G329" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="330">
       <c r="A330" s="1" t="n">
@@ -7044,6 +8028,9 @@
       <c r="F330" t="n">
         <v>0</v>
       </c>
+      <c r="G330" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="331">
       <c r="A331" s="1" t="n">
@@ -7064,6 +8051,9 @@
       <c r="F331" t="n">
         <v>0</v>
       </c>
+      <c r="G331" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="332">
       <c r="A332" s="1" t="n">
@@ -7084,6 +8074,9 @@
       <c r="F332" t="n">
         <v>0</v>
       </c>
+      <c r="G332" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="333">
       <c r="A333" s="1" t="n">
@@ -7104,6 +8097,9 @@
       <c r="F333" t="n">
         <v>0</v>
       </c>
+      <c r="G333" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="334">
       <c r="A334" s="1" t="n">
@@ -7124,6 +8120,9 @@
       <c r="F334" t="n">
         <v>0</v>
       </c>
+      <c r="G334" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="335">
       <c r="A335" s="1" t="n">
@@ -7144,6 +8143,9 @@
       <c r="F335" t="n">
         <v>0</v>
       </c>
+      <c r="G335" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="336">
       <c r="A336" s="1" t="n">
@@ -7164,6 +8166,9 @@
       <c r="F336" t="n">
         <v>0</v>
       </c>
+      <c r="G336" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="337">
       <c r="A337" s="1" t="n">
@@ -7184,6 +8189,9 @@
       <c r="F337" t="n">
         <v>0</v>
       </c>
+      <c r="G337" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="338">
       <c r="A338" s="1" t="n">
@@ -7204,6 +8212,9 @@
       <c r="F338" t="n">
         <v>0</v>
       </c>
+      <c r="G338" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="339">
       <c r="A339" s="1" t="n">
@@ -7224,6 +8235,9 @@
       <c r="F339" t="n">
         <v>0</v>
       </c>
+      <c r="G339" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="340">
       <c r="A340" s="1" t="n">
@@ -7244,6 +8258,9 @@
       <c r="F340" t="n">
         <v>0</v>
       </c>
+      <c r="G340" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="341">
       <c r="A341" s="1" t="n">
@@ -7264,6 +8281,9 @@
       <c r="F341" t="n">
         <v>0</v>
       </c>
+      <c r="G341" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="342">
       <c r="A342" s="1" t="n">
@@ -7284,6 +8304,9 @@
       <c r="F342" t="n">
         <v>0</v>
       </c>
+      <c r="G342" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="343">
       <c r="A343" s="1" t="n">
@@ -7304,6 +8327,9 @@
       <c r="F343" t="n">
         <v>0</v>
       </c>
+      <c r="G343" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="344">
       <c r="A344" s="1" t="n">
@@ -7324,6 +8350,9 @@
       <c r="F344" t="n">
         <v>0</v>
       </c>
+      <c r="G344" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="345">
       <c r="A345" s="1" t="n">
@@ -7344,6 +8373,9 @@
       <c r="F345" t="n">
         <v>0</v>
       </c>
+      <c r="G345" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="346">
       <c r="A346" s="1" t="n">
@@ -7364,6 +8396,9 @@
       <c r="F346" t="n">
         <v>0</v>
       </c>
+      <c r="G346" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="347">
       <c r="A347" s="1" t="n">
@@ -7384,6 +8419,9 @@
       <c r="F347" t="n">
         <v>0</v>
       </c>
+      <c r="G347" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="348">
       <c r="A348" s="1" t="n">
@@ -7404,6 +8442,9 @@
       <c r="F348" t="n">
         <v>0</v>
       </c>
+      <c r="G348" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="349">
       <c r="A349" s="1" t="n">
@@ -7424,6 +8465,9 @@
       <c r="F349" t="n">
         <v>0</v>
       </c>
+      <c r="G349" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="350">
       <c r="A350" s="1" t="n">
@@ -7444,6 +8488,9 @@
       <c r="F350" t="n">
         <v>0</v>
       </c>
+      <c r="G350" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="351">
       <c r="A351" s="1" t="n">
@@ -7464,6 +8511,9 @@
       <c r="F351" t="n">
         <v>0</v>
       </c>
+      <c r="G351" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="352">
       <c r="A352" s="1" t="n">
@@ -7484,6 +8534,9 @@
       <c r="F352" t="n">
         <v>0</v>
       </c>
+      <c r="G352" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="353">
       <c r="A353" s="1" t="n">
@@ -7504,6 +8557,9 @@
       <c r="F353" t="n">
         <v>0</v>
       </c>
+      <c r="G353" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="354">
       <c r="A354" s="1" t="n">
@@ -7524,6 +8580,9 @@
       <c r="F354" t="n">
         <v>0</v>
       </c>
+      <c r="G354" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="355">
       <c r="A355" s="1" t="n">
@@ -7544,6 +8603,9 @@
       <c r="F355" t="n">
         <v>0</v>
       </c>
+      <c r="G355" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="356">
       <c r="A356" s="1" t="n">
@@ -7564,6 +8626,9 @@
       <c r="F356" t="n">
         <v>0</v>
       </c>
+      <c r="G356" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="357">
       <c r="A357" s="1" t="n">
@@ -7584,6 +8649,9 @@
       <c r="F357" t="n">
         <v>0</v>
       </c>
+      <c r="G357" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="358">
       <c r="A358" s="1" t="n">
@@ -7604,6 +8672,9 @@
       <c r="F358" t="n">
         <v>0</v>
       </c>
+      <c r="G358" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="359">
       <c r="A359" s="1" t="n">
@@ -7624,6 +8695,9 @@
       <c r="F359" t="n">
         <v>0</v>
       </c>
+      <c r="G359" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="360">
       <c r="A360" s="1" t="n">
@@ -7644,6 +8718,9 @@
       <c r="F360" t="n">
         <v>0</v>
       </c>
+      <c r="G360" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="361">
       <c r="A361" s="1" t="n">
@@ -7664,6 +8741,9 @@
       <c r="F361" t="n">
         <v>0</v>
       </c>
+      <c r="G361" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="362">
       <c r="A362" s="1" t="n">
@@ -7684,6 +8764,9 @@
       <c r="F362" t="n">
         <v>0</v>
       </c>
+      <c r="G362" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="363">
       <c r="A363" s="1" t="n">
@@ -7704,6 +8787,9 @@
       <c r="F363" t="n">
         <v>0</v>
       </c>
+      <c r="G363" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="364">
       <c r="A364" s="1" t="n">
@@ -7724,6 +8810,9 @@
       <c r="F364" t="n">
         <v>0</v>
       </c>
+      <c r="G364" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="365">
       <c r="A365" s="1" t="n">
@@ -7744,6 +8833,9 @@
       <c r="F365" t="n">
         <v>0</v>
       </c>
+      <c r="G365" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="366">
       <c r="A366" s="1" t="n">
@@ -7764,6 +8856,9 @@
       <c r="F366" t="n">
         <v>0</v>
       </c>
+      <c r="G366" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="367">
       <c r="A367" s="1" t="n">
@@ -7784,6 +8879,9 @@
       <c r="F367" t="n">
         <v>0</v>
       </c>
+      <c r="G367" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="368">
       <c r="A368" s="1" t="n">
@@ -7804,6 +8902,9 @@
       <c r="F368" t="n">
         <v>0</v>
       </c>
+      <c r="G368" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="369">
       <c r="A369" s="1" t="n">
@@ -7824,6 +8925,9 @@
       <c r="F369" t="n">
         <v>0</v>
       </c>
+      <c r="G369" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="370">
       <c r="A370" s="1" t="n">
@@ -7844,6 +8948,9 @@
       <c r="F370" t="n">
         <v>0</v>
       </c>
+      <c r="G370" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="371">
       <c r="A371" s="1" t="n">
@@ -7864,6 +8971,9 @@
       <c r="F371" t="n">
         <v>0</v>
       </c>
+      <c r="G371" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="372">
       <c r="A372" s="1" t="n">
@@ -7884,6 +8994,9 @@
       <c r="F372" t="n">
         <v>0</v>
       </c>
+      <c r="G372" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="373">
       <c r="A373" s="1" t="n">
@@ -7904,6 +9017,9 @@
       <c r="F373" t="n">
         <v>0</v>
       </c>
+      <c r="G373" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="374">
       <c r="A374" s="1" t="n">
@@ -7924,6 +9040,9 @@
       <c r="F374" t="n">
         <v>0</v>
       </c>
+      <c r="G374" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="375">
       <c r="A375" s="1" t="n">
@@ -7944,6 +9063,9 @@
       <c r="F375" t="n">
         <v>0</v>
       </c>
+      <c r="G375" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="376">
       <c r="A376" s="1" t="n">
@@ -7964,6 +9086,9 @@
       <c r="F376" t="n">
         <v>0</v>
       </c>
+      <c r="G376" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="377">
       <c r="A377" s="1" t="n">
@@ -7984,6 +9109,9 @@
       <c r="F377" t="n">
         <v>0</v>
       </c>
+      <c r="G377" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="378">
       <c r="A378" s="1" t="n">
@@ -8004,6 +9132,9 @@
       <c r="F378" t="n">
         <v>0</v>
       </c>
+      <c r="G378" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="379">
       <c r="A379" s="1" t="n">
@@ -8024,6 +9155,9 @@
       <c r="F379" t="n">
         <v>0</v>
       </c>
+      <c r="G379" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="380">
       <c r="A380" s="1" t="n">
@@ -8044,6 +9178,9 @@
       <c r="F380" t="n">
         <v>0</v>
       </c>
+      <c r="G380" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="381">
       <c r="A381" s="1" t="n">
@@ -8064,6 +9201,9 @@
       <c r="F381" t="n">
         <v>0</v>
       </c>
+      <c r="G381" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="382">
       <c r="A382" s="1" t="n">
@@ -8084,6 +9224,9 @@
       <c r="F382" t="n">
         <v>0</v>
       </c>
+      <c r="G382" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="383">
       <c r="A383" s="1" t="n">
@@ -8104,6 +9247,9 @@
       <c r="F383" t="n">
         <v>0</v>
       </c>
+      <c r="G383" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="384">
       <c r="A384" s="1" t="n">
@@ -8124,6 +9270,9 @@
       <c r="F384" t="n">
         <v>0</v>
       </c>
+      <c r="G384" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="385">
       <c r="A385" s="1" t="n">
@@ -8144,6 +9293,9 @@
       <c r="F385" t="n">
         <v>0</v>
       </c>
+      <c r="G385" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="386">
       <c r="A386" s="1" t="n">
@@ -8164,6 +9316,9 @@
       <c r="F386" t="n">
         <v>0</v>
       </c>
+      <c r="G386" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="387">
       <c r="A387" s="1" t="n">
@@ -8184,6 +9339,9 @@
       <c r="F387" t="n">
         <v>0</v>
       </c>
+      <c r="G387" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="388">
       <c r="A388" s="1" t="n">
@@ -8204,6 +9362,9 @@
       <c r="F388" t="n">
         <v>0</v>
       </c>
+      <c r="G388" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="389">
       <c r="A389" s="1" t="n">
@@ -8224,6 +9385,9 @@
       <c r="F389" t="n">
         <v>0</v>
       </c>
+      <c r="G389" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="390">
       <c r="A390" s="1" t="n">
@@ -8244,6 +9408,9 @@
       <c r="F390" t="n">
         <v>0</v>
       </c>
+      <c r="G390" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="391">
       <c r="A391" s="1" t="n">
@@ -8264,6 +9431,9 @@
       <c r="F391" t="n">
         <v>0</v>
       </c>
+      <c r="G391" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="392">
       <c r="A392" s="1" t="n">
@@ -8284,6 +9454,9 @@
       <c r="F392" t="n">
         <v>0</v>
       </c>
+      <c r="G392" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="393">
       <c r="A393" s="1" t="n">
@@ -8304,6 +9477,9 @@
       <c r="F393" t="n">
         <v>0</v>
       </c>
+      <c r="G393" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="394">
       <c r="A394" s="1" t="n">
@@ -8324,6 +9500,9 @@
       <c r="F394" t="n">
         <v>0</v>
       </c>
+      <c r="G394" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="395">
       <c r="A395" s="1" t="n">
@@ -8344,6 +9523,9 @@
       <c r="F395" t="n">
         <v>0</v>
       </c>
+      <c r="G395" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="396">
       <c r="A396" s="1" t="n">
@@ -8364,6 +9546,9 @@
       <c r="F396" t="n">
         <v>0</v>
       </c>
+      <c r="G396" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="397">
       <c r="A397" s="1" t="n">
@@ -8384,6 +9569,9 @@
       <c r="F397" t="n">
         <v>0</v>
       </c>
+      <c r="G397" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="398">
       <c r="A398" s="1" t="n">
@@ -8404,6 +9592,9 @@
       <c r="F398" t="n">
         <v>0</v>
       </c>
+      <c r="G398" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="399">
       <c r="A399" s="1" t="n">
@@ -8424,6 +9615,9 @@
       <c r="F399" t="n">
         <v>0</v>
       </c>
+      <c r="G399" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="400">
       <c r="A400" s="1" t="n">
@@ -8444,6 +9638,9 @@
       <c r="F400" t="n">
         <v>0</v>
       </c>
+      <c r="G400" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="401">
       <c r="A401" s="1" t="n">
@@ -8464,6 +9661,9 @@
       <c r="F401" t="n">
         <v>0</v>
       </c>
+      <c r="G401" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="402">
       <c r="A402" s="1" t="n">
@@ -8484,6 +9684,9 @@
       <c r="F402" t="n">
         <v>0</v>
       </c>
+      <c r="G402" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="403">
       <c r="A403" s="1" t="n">
@@ -8504,6 +9707,9 @@
       <c r="F403" t="n">
         <v>0</v>
       </c>
+      <c r="G403" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="404">
       <c r="A404" s="1" t="n">
@@ -8524,6 +9730,9 @@
       <c r="F404" t="n">
         <v>0</v>
       </c>
+      <c r="G404" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="405">
       <c r="A405" s="1" t="n">
@@ -8544,6 +9753,9 @@
       <c r="F405" t="n">
         <v>0</v>
       </c>
+      <c r="G405" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="406">
       <c r="A406" s="1" t="n">
@@ -8564,6 +9776,9 @@
       <c r="F406" t="n">
         <v>0</v>
       </c>
+      <c r="G406" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="407">
       <c r="A407" s="1" t="n">
@@ -8584,6 +9799,9 @@
       <c r="F407" t="n">
         <v>0</v>
       </c>
+      <c r="G407" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="408">
       <c r="A408" s="1" t="n">
@@ -8604,6 +9822,9 @@
       <c r="F408" t="n">
         <v>0</v>
       </c>
+      <c r="G408" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="409">
       <c r="A409" s="1" t="n">
@@ -8624,6 +9845,9 @@
       <c r="F409" t="n">
         <v>0</v>
       </c>
+      <c r="G409" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="410">
       <c r="A410" s="1" t="n">
@@ -8644,6 +9868,9 @@
       <c r="F410" t="n">
         <v>0</v>
       </c>
+      <c r="G410" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="411">
       <c r="A411" s="1" t="n">
@@ -8664,6 +9891,9 @@
       <c r="F411" t="n">
         <v>0</v>
       </c>
+      <c r="G411" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="412">
       <c r="A412" s="1" t="n">
@@ -8684,6 +9914,9 @@
       <c r="F412" t="n">
         <v>0</v>
       </c>
+      <c r="G412" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="413">
       <c r="A413" s="1" t="n">
@@ -8704,6 +9937,9 @@
       <c r="F413" t="n">
         <v>0</v>
       </c>
+      <c r="G413" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="414">
       <c r="A414" s="1" t="n">
@@ -8724,6 +9960,9 @@
       <c r="F414" t="n">
         <v>0</v>
       </c>
+      <c r="G414" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="415">
       <c r="A415" s="1" t="n">
@@ -8744,6 +9983,9 @@
       <c r="F415" t="n">
         <v>0</v>
       </c>
+      <c r="G415" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="416">
       <c r="A416" s="1" t="n">
@@ -8764,6 +10006,9 @@
       <c r="F416" t="n">
         <v>0</v>
       </c>
+      <c r="G416" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="417">
       <c r="A417" s="1" t="n">
@@ -8782,6 +10027,9 @@
         <v>24948</v>
       </c>
       <c r="F417" t="n">
+        <v>0</v>
+      </c>
+      <c r="G417" t="n">
         <v>0</v>
       </c>
     </row>

--- a/application/results/preprocess/results.xlsx
+++ b/application/results/preprocess/results.xlsx
@@ -522,16 +522,16 @@
         <v>125</v>
       </c>
       <c r="D4" t="n">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="E4" t="n">
-        <v>125</v>
+        <v>97</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>22.4</v>
       </c>
     </row>
     <row r="5">
@@ -545,16 +545,16 @@
         <v>43</v>
       </c>
       <c r="D5" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E5" t="n">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="F5" t="n">
-        <v>66.66666666666666</v>
+        <v>22.22222222222222</v>
       </c>
       <c r="G5" t="n">
-        <v>79.06976744186046</v>
+        <v>55.81395348837209</v>
       </c>
     </row>
     <row r="6">
@@ -568,16 +568,16 @@
         <v>123</v>
       </c>
       <c r="D6" t="n">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="E6" t="n">
-        <v>119</v>
+        <v>94</v>
       </c>
       <c r="F6" t="n">
-        <v>4.081632653061225</v>
+        <v>26.53061224489796</v>
       </c>
       <c r="G6" t="n">
-        <v>3.252032520325204</v>
+        <v>23.57723577235772</v>
       </c>
     </row>
     <row r="7">
@@ -591,16 +591,16 @@
         <v>125</v>
       </c>
       <c r="D7" t="n">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="E7" t="n">
-        <v>125</v>
+        <v>97</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>22.4</v>
       </c>
     </row>
     <row r="8">
@@ -614,16 +614,16 @@
         <v>125</v>
       </c>
       <c r="D8" t="n">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="E8" t="n">
-        <v>125</v>
+        <v>97</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>22.4</v>
       </c>
     </row>
     <row r="9">
@@ -637,16 +637,16 @@
         <v>43</v>
       </c>
       <c r="D9" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E9" t="n">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="F9" t="n">
-        <v>66.66666666666666</v>
+        <v>22.22222222222222</v>
       </c>
       <c r="G9" t="n">
-        <v>79.06976744186046</v>
+        <v>55.81395348837209</v>
       </c>
     </row>
     <row r="10">
@@ -660,16 +660,16 @@
         <v>123</v>
       </c>
       <c r="D10" t="n">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="E10" t="n">
-        <v>119</v>
+        <v>94</v>
       </c>
       <c r="F10" t="n">
-        <v>4.081632653061225</v>
+        <v>26.53061224489796</v>
       </c>
       <c r="G10" t="n">
-        <v>3.252032520325204</v>
+        <v>23.57723577235772</v>
       </c>
     </row>
     <row r="11">
@@ -683,16 +683,16 @@
         <v>125</v>
       </c>
       <c r="D11" t="n">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="E11" t="n">
-        <v>125</v>
+        <v>97</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>22.4</v>
       </c>
     </row>
     <row r="12">
@@ -706,16 +706,16 @@
         <v>124</v>
       </c>
       <c r="D12" t="n">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="E12" t="n">
-        <v>124</v>
+        <v>106</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>14.51612903225807</v>
       </c>
     </row>
     <row r="13">
@@ -729,16 +729,16 @@
         <v>24</v>
       </c>
       <c r="D13" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E13" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F13" t="n">
-        <v>38.46153846153847</v>
+        <v>15.38461538461539</v>
       </c>
       <c r="G13" t="n">
-        <v>50</v>
+        <v>37.5</v>
       </c>
     </row>
     <row r="14">
@@ -752,16 +752,16 @@
         <v>112</v>
       </c>
       <c r="D14" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E14" t="n">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F14" t="n">
-        <v>15.55555555555556</v>
+        <v>13.33333333333333</v>
       </c>
       <c r="G14" t="n">
-        <v>24.10714285714286</v>
+        <v>23.21428571428572</v>
       </c>
     </row>
     <row r="15">
@@ -775,16 +775,16 @@
         <v>124</v>
       </c>
       <c r="D15" t="n">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="E15" t="n">
-        <v>124</v>
+        <v>106</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>14.51612903225807</v>
       </c>
     </row>
     <row r="16">
@@ -798,16 +798,16 @@
         <v>124</v>
       </c>
       <c r="D16" t="n">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="E16" t="n">
-        <v>124</v>
+        <v>106</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>14.51612903225807</v>
       </c>
     </row>
     <row r="17">
@@ -821,16 +821,16 @@
         <v>24</v>
       </c>
       <c r="D17" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E17" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F17" t="n">
-        <v>38.46153846153847</v>
+        <v>15.38461538461539</v>
       </c>
       <c r="G17" t="n">
-        <v>50</v>
+        <v>37.5</v>
       </c>
     </row>
     <row r="18">
@@ -844,16 +844,16 @@
         <v>112</v>
       </c>
       <c r="D18" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E18" t="n">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F18" t="n">
-        <v>15.55555555555556</v>
+        <v>13.33333333333333</v>
       </c>
       <c r="G18" t="n">
-        <v>24.10714285714286</v>
+        <v>23.21428571428572</v>
       </c>
     </row>
     <row r="19">
@@ -867,16 +867,16 @@
         <v>124</v>
       </c>
       <c r="D19" t="n">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="E19" t="n">
-        <v>124</v>
+        <v>106</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>14.51612903225807</v>
       </c>
     </row>
     <row r="20">
@@ -890,16 +890,16 @@
         <v>124</v>
       </c>
       <c r="D20" t="n">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="E20" t="n">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>9.67741935483871</v>
       </c>
     </row>
     <row r="21">
@@ -913,16 +913,16 @@
         <v>8</v>
       </c>
       <c r="D21" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E21" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="G21" t="n">
-        <v>12.5</v>
+        <v>37.5</v>
       </c>
     </row>
     <row r="22">
@@ -936,16 +936,16 @@
         <v>96</v>
       </c>
       <c r="D22" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E22" t="n">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F22" t="n">
-        <v>15</v>
+        <v>12.5</v>
       </c>
       <c r="G22" t="n">
-        <v>30.20833333333333</v>
+        <v>29.16666666666667</v>
       </c>
     </row>
     <row r="23">
@@ -959,16 +959,16 @@
         <v>124</v>
       </c>
       <c r="D23" t="n">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="E23" t="n">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>9.67741935483871</v>
       </c>
     </row>
     <row r="24">
@@ -982,16 +982,16 @@
         <v>124</v>
       </c>
       <c r="D24" t="n">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="E24" t="n">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>9.67741935483871</v>
       </c>
     </row>
     <row r="25">
@@ -1005,16 +1005,16 @@
         <v>8</v>
       </c>
       <c r="D25" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E25" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="G25" t="n">
-        <v>12.5</v>
+        <v>37.5</v>
       </c>
     </row>
     <row r="26">
@@ -1028,16 +1028,16 @@
         <v>96</v>
       </c>
       <c r="D26" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E26" t="n">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F26" t="n">
-        <v>15</v>
+        <v>12.5</v>
       </c>
       <c r="G26" t="n">
-        <v>30.20833333333333</v>
+        <v>29.16666666666667</v>
       </c>
     </row>
     <row r="27">
@@ -1051,16 +1051,16 @@
         <v>124</v>
       </c>
       <c r="D27" t="n">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="E27" t="n">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>9.67741935483871</v>
       </c>
     </row>
     <row r="28">
@@ -1074,16 +1074,16 @@
         <v>196</v>
       </c>
       <c r="D28" t="n">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E28" t="n">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>4.081632653061225</v>
       </c>
     </row>
     <row r="29">
@@ -1097,16 +1097,16 @@
         <v>138</v>
       </c>
       <c r="D29" t="n">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="E29" t="n">
-        <v>49</v>
+        <v>74</v>
       </c>
       <c r="F29" t="n">
-        <v>45.94594594594595</v>
+        <v>5.405405405405405</v>
       </c>
       <c r="G29" t="n">
-        <v>64.49275362318841</v>
+        <v>46.3768115942029</v>
       </c>
     </row>
     <row r="30">
@@ -1120,16 +1120,16 @@
         <v>196</v>
       </c>
       <c r="D30" t="n">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E30" t="n">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>4.081632653061225</v>
       </c>
     </row>
     <row r="31">
@@ -1143,16 +1143,16 @@
         <v>196</v>
       </c>
       <c r="D31" t="n">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E31" t="n">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>4.081632653061225</v>
       </c>
     </row>
     <row r="32">
@@ -1166,16 +1166,16 @@
         <v>196</v>
       </c>
       <c r="D32" t="n">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E32" t="n">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>4.081632653061225</v>
       </c>
     </row>
     <row r="33">
@@ -1189,16 +1189,16 @@
         <v>138</v>
       </c>
       <c r="D33" t="n">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="E33" t="n">
-        <v>49</v>
+        <v>74</v>
       </c>
       <c r="F33" t="n">
-        <v>45.94594594594595</v>
+        <v>5.405405405405405</v>
       </c>
       <c r="G33" t="n">
-        <v>64.49275362318841</v>
+        <v>46.3768115942029</v>
       </c>
     </row>
     <row r="34">
@@ -1212,16 +1212,16 @@
         <v>196</v>
       </c>
       <c r="D34" t="n">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E34" t="n">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>4.081632653061225</v>
       </c>
     </row>
     <row r="35">
@@ -1235,16 +1235,16 @@
         <v>196</v>
       </c>
       <c r="D35" t="n">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E35" t="n">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>4.081632653061225</v>
       </c>
     </row>
     <row r="36">
@@ -1258,16 +1258,16 @@
         <v>195</v>
       </c>
       <c r="D36" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="E36" t="n">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>5.128205128205128</v>
       </c>
     </row>
     <row r="37">
@@ -1281,16 +1281,16 @@
         <v>177</v>
       </c>
       <c r="D37" t="n">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="E37" t="n">
-        <v>46</v>
+        <v>80</v>
       </c>
       <c r="F37" t="n">
-        <v>48.88888888888889</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="G37" t="n">
-        <v>74.01129943502825</v>
+        <v>54.80225988700565</v>
       </c>
     </row>
     <row r="38">
@@ -1304,16 +1304,16 @@
         <v>195</v>
       </c>
       <c r="D38" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="E38" t="n">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>5.128205128205128</v>
       </c>
     </row>
     <row r="39">
@@ -1327,16 +1327,16 @@
         <v>195</v>
       </c>
       <c r="D39" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="E39" t="n">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>5.128205128205128</v>
       </c>
     </row>
     <row r="40">
@@ -1350,16 +1350,16 @@
         <v>195</v>
       </c>
       <c r="D40" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="E40" t="n">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>5.128205128205128</v>
       </c>
     </row>
     <row r="41">
@@ -1373,16 +1373,16 @@
         <v>177</v>
       </c>
       <c r="D41" t="n">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="E41" t="n">
-        <v>46</v>
+        <v>80</v>
       </c>
       <c r="F41" t="n">
-        <v>48.88888888888889</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="G41" t="n">
-        <v>74.01129943502825</v>
+        <v>54.80225988700565</v>
       </c>
     </row>
     <row r="42">
@@ -1396,16 +1396,16 @@
         <v>195</v>
       </c>
       <c r="D42" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="E42" t="n">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>5.128205128205128</v>
       </c>
     </row>
     <row r="43">
@@ -1419,16 +1419,16 @@
         <v>195</v>
       </c>
       <c r="D43" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="E43" t="n">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>5.128205128205128</v>
       </c>
     </row>
     <row r="44">
@@ -1442,16 +1442,16 @@
         <v>195</v>
       </c>
       <c r="D44" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E44" t="n">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>3.076923076923077</v>
       </c>
     </row>
     <row r="45">
@@ -1465,16 +1465,16 @@
         <v>151</v>
       </c>
       <c r="D45" t="n">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="E45" t="n">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="F45" t="n">
-        <v>30</v>
+        <v>2.5</v>
       </c>
       <c r="G45" t="n">
-        <v>50.33112582781457</v>
+        <v>39.73509933774834</v>
       </c>
     </row>
     <row r="46">
@@ -1488,16 +1488,16 @@
         <v>195</v>
       </c>
       <c r="D46" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E46" t="n">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>3.076923076923077</v>
       </c>
     </row>
     <row r="47">
@@ -1511,16 +1511,16 @@
         <v>195</v>
       </c>
       <c r="D47" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E47" t="n">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="F47" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G47" t="n">
-        <v>0</v>
+        <v>3.076923076923077</v>
       </c>
     </row>
     <row r="48">
@@ -1534,16 +1534,16 @@
         <v>195</v>
       </c>
       <c r="D48" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E48" t="n">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="F48" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G48" t="n">
-        <v>0</v>
+        <v>3.076923076923077</v>
       </c>
     </row>
     <row r="49">
@@ -1557,16 +1557,16 @@
         <v>151</v>
       </c>
       <c r="D49" t="n">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="E49" t="n">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="F49" t="n">
-        <v>30</v>
+        <v>2.5</v>
       </c>
       <c r="G49" t="n">
-        <v>50.33112582781457</v>
+        <v>39.73509933774834</v>
       </c>
     </row>
     <row r="50">
@@ -1580,16 +1580,16 @@
         <v>195</v>
       </c>
       <c r="D50" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E50" t="n">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="F50" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G50" t="n">
-        <v>0</v>
+        <v>3.076923076923077</v>
       </c>
     </row>
     <row r="51">
@@ -1603,16 +1603,16 @@
         <v>195</v>
       </c>
       <c r="D51" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E51" t="n">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="F51" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G51" t="n">
-        <v>0</v>
+        <v>3.076923076923077</v>
       </c>
     </row>
     <row r="52">
@@ -1626,16 +1626,16 @@
         <v>187</v>
       </c>
       <c r="D52" t="n">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="E52" t="n">
-        <v>187</v>
+        <v>145</v>
       </c>
       <c r="F52" t="n">
-        <v>0</v>
+        <v>26.66666666666667</v>
       </c>
       <c r="G52" t="n">
-        <v>0</v>
+        <v>22.45989304812834</v>
       </c>
     </row>
     <row r="53">
@@ -1649,16 +1649,16 @@
         <v>13</v>
       </c>
       <c r="D53" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E53" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F53" t="n">
-        <v>37.5</v>
+        <v>12.5</v>
       </c>
       <c r="G53" t="n">
-        <v>53.84615384615385</v>
+        <v>38.46153846153847</v>
       </c>
     </row>
     <row r="54">
@@ -1672,16 +1672,16 @@
         <v>129</v>
       </c>
       <c r="D54" t="n">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="E54" t="n">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="F54" t="n">
-        <v>30.90909090909091</v>
+        <v>21.81818181818182</v>
       </c>
       <c r="G54" t="n">
-        <v>39.53488372093023</v>
+        <v>36.43410852713178</v>
       </c>
     </row>
     <row r="55">
@@ -1695,16 +1695,16 @@
         <v>187</v>
       </c>
       <c r="D55" t="n">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="E55" t="n">
-        <v>187</v>
+        <v>145</v>
       </c>
       <c r="F55" t="n">
-        <v>0</v>
+        <v>26.66666666666667</v>
       </c>
       <c r="G55" t="n">
-        <v>0</v>
+        <v>22.45989304812834</v>
       </c>
     </row>
     <row r="56">
@@ -1718,16 +1718,16 @@
         <v>187</v>
       </c>
       <c r="D56" t="n">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="E56" t="n">
-        <v>187</v>
+        <v>145</v>
       </c>
       <c r="F56" t="n">
-        <v>0</v>
+        <v>26.66666666666667</v>
       </c>
       <c r="G56" t="n">
-        <v>0</v>
+        <v>22.45989304812834</v>
       </c>
     </row>
     <row r="57">
@@ -1741,16 +1741,16 @@
         <v>13</v>
       </c>
       <c r="D57" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E57" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F57" t="n">
-        <v>37.5</v>
+        <v>12.5</v>
       </c>
       <c r="G57" t="n">
-        <v>53.84615384615385</v>
+        <v>38.46153846153847</v>
       </c>
     </row>
     <row r="58">
@@ -1764,16 +1764,16 @@
         <v>129</v>
       </c>
       <c r="D58" t="n">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="E58" t="n">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="F58" t="n">
-        <v>30.90909090909091</v>
+        <v>21.81818181818182</v>
       </c>
       <c r="G58" t="n">
-        <v>39.53488372093023</v>
+        <v>36.43410852713178</v>
       </c>
     </row>
     <row r="59">
@@ -1787,16 +1787,16 @@
         <v>187</v>
       </c>
       <c r="D59" t="n">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="E59" t="n">
-        <v>187</v>
+        <v>145</v>
       </c>
       <c r="F59" t="n">
-        <v>0</v>
+        <v>26.66666666666667</v>
       </c>
       <c r="G59" t="n">
-        <v>0</v>
+        <v>22.45989304812834</v>
       </c>
     </row>
     <row r="60">
@@ -1810,16 +1810,16 @@
         <v>186</v>
       </c>
       <c r="D60" t="n">
-        <v>75</v>
+        <v>51</v>
       </c>
       <c r="E60" t="n">
-        <v>186</v>
+        <v>134</v>
       </c>
       <c r="F60" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="G60" t="n">
-        <v>0</v>
+        <v>27.95698924731182</v>
       </c>
     </row>
     <row r="61">
@@ -1833,16 +1833,16 @@
         <v>12</v>
       </c>
       <c r="D61" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E61" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F61" t="n">
-        <v>37.5</v>
+        <v>12.5</v>
       </c>
       <c r="G61" t="n">
-        <v>50</v>
+        <v>33.33333333333333</v>
       </c>
     </row>
     <row r="62">
@@ -1856,16 +1856,16 @@
         <v>106</v>
       </c>
       <c r="D62" t="n">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="E62" t="n">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="F62" t="n">
-        <v>26.66666666666667</v>
+        <v>15.55555555555556</v>
       </c>
       <c r="G62" t="n">
-        <v>43.39622641509434</v>
+        <v>40.56603773584906</v>
       </c>
     </row>
     <row r="63">
@@ -1879,16 +1879,16 @@
         <v>184</v>
       </c>
       <c r="D63" t="n">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="E63" t="n">
-        <v>176</v>
+        <v>133</v>
       </c>
       <c r="F63" t="n">
-        <v>5.405405405405405</v>
+        <v>31.08108108108108</v>
       </c>
       <c r="G63" t="n">
-        <v>4.347826086956522</v>
+        <v>27.71739130434783</v>
       </c>
     </row>
     <row r="64">
@@ -1902,16 +1902,16 @@
         <v>186</v>
       </c>
       <c r="D64" t="n">
-        <v>75</v>
+        <v>51</v>
       </c>
       <c r="E64" t="n">
-        <v>186</v>
+        <v>134</v>
       </c>
       <c r="F64" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="G64" t="n">
-        <v>0</v>
+        <v>27.95698924731182</v>
       </c>
     </row>
     <row r="65">
@@ -1925,16 +1925,16 @@
         <v>12</v>
       </c>
       <c r="D65" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E65" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F65" t="n">
-        <v>37.5</v>
+        <v>12.5</v>
       </c>
       <c r="G65" t="n">
-        <v>50</v>
+        <v>33.33333333333333</v>
       </c>
     </row>
     <row r="66">
@@ -1948,16 +1948,16 @@
         <v>106</v>
       </c>
       <c r="D66" t="n">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="E66" t="n">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="F66" t="n">
-        <v>26.66666666666667</v>
+        <v>15.55555555555556</v>
       </c>
       <c r="G66" t="n">
-        <v>43.39622641509434</v>
+        <v>40.56603773584906</v>
       </c>
     </row>
     <row r="67">
@@ -1971,16 +1971,16 @@
         <v>184</v>
       </c>
       <c r="D67" t="n">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="E67" t="n">
-        <v>176</v>
+        <v>133</v>
       </c>
       <c r="F67" t="n">
-        <v>5.405405405405405</v>
+        <v>31.08108108108108</v>
       </c>
       <c r="G67" t="n">
-        <v>4.347826086956522</v>
+        <v>27.71739130434783</v>
       </c>
     </row>
     <row r="68">
@@ -1994,16 +1994,16 @@
         <v>183</v>
       </c>
       <c r="D68" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="E68" t="n">
-        <v>183</v>
+        <v>163</v>
       </c>
       <c r="F68" t="n">
-        <v>0</v>
+        <v>13.33333333333333</v>
       </c>
       <c r="G68" t="n">
-        <v>0</v>
+        <v>10.92896174863388</v>
       </c>
     </row>
     <row r="69">
@@ -2017,16 +2017,16 @@
         <v>57</v>
       </c>
       <c r="D69" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E69" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F69" t="n">
-        <v>25.92592592592592</v>
+        <v>7.407407407407407</v>
       </c>
       <c r="G69" t="n">
-        <v>54.38596491228071</v>
+        <v>47.36842105263158</v>
       </c>
     </row>
     <row r="70">
@@ -2040,16 +2040,16 @@
         <v>175</v>
       </c>
       <c r="D70" t="n">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E70" t="n">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="F70" t="n">
-        <v>8.450704225352112</v>
+        <v>11.26760563380282</v>
       </c>
       <c r="G70" t="n">
-        <v>9.142857142857142</v>
+        <v>12</v>
       </c>
     </row>
     <row r="71">
@@ -2063,16 +2063,16 @@
         <v>183</v>
       </c>
       <c r="D71" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="E71" t="n">
-        <v>183</v>
+        <v>163</v>
       </c>
       <c r="F71" t="n">
-        <v>0</v>
+        <v>13.33333333333333</v>
       </c>
       <c r="G71" t="n">
-        <v>0</v>
+        <v>10.92896174863388</v>
       </c>
     </row>
     <row r="72">
@@ -2086,16 +2086,16 @@
         <v>183</v>
       </c>
       <c r="D72" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="E72" t="n">
-        <v>183</v>
+        <v>163</v>
       </c>
       <c r="F72" t="n">
-        <v>0</v>
+        <v>13.33333333333333</v>
       </c>
       <c r="G72" t="n">
-        <v>0</v>
+        <v>10.92896174863388</v>
       </c>
     </row>
     <row r="73">
@@ -2109,16 +2109,16 @@
         <v>57</v>
       </c>
       <c r="D73" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E73" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F73" t="n">
-        <v>25.92592592592592</v>
+        <v>7.407407407407407</v>
       </c>
       <c r="G73" t="n">
-        <v>54.38596491228071</v>
+        <v>47.36842105263158</v>
       </c>
     </row>
     <row r="74">
@@ -2132,16 +2132,16 @@
         <v>175</v>
       </c>
       <c r="D74" t="n">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E74" t="n">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="F74" t="n">
-        <v>8.450704225352112</v>
+        <v>11.26760563380282</v>
       </c>
       <c r="G74" t="n">
-        <v>9.142857142857142</v>
+        <v>12</v>
       </c>
     </row>
     <row r="75">
@@ -2155,16 +2155,16 @@
         <v>183</v>
       </c>
       <c r="D75" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="E75" t="n">
-        <v>183</v>
+        <v>163</v>
       </c>
       <c r="F75" t="n">
-        <v>0</v>
+        <v>13.33333333333333</v>
       </c>
       <c r="G75" t="n">
-        <v>0</v>
+        <v>10.92896174863388</v>
       </c>
     </row>
     <row r="76">
@@ -2178,16 +2178,16 @@
         <v>295</v>
       </c>
       <c r="D76" t="n">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E76" t="n">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="F76" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G76" t="n">
-        <v>0</v>
+        <v>2.033898305084746</v>
       </c>
     </row>
     <row r="77">
@@ -2201,16 +2201,16 @@
         <v>177</v>
       </c>
       <c r="D77" t="n">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="E77" t="n">
-        <v>56</v>
+        <v>88</v>
       </c>
       <c r="F77" t="n">
-        <v>47.91666666666667</v>
+        <v>2.083333333333333</v>
       </c>
       <c r="G77" t="n">
-        <v>68.36158192090396</v>
+        <v>50.28248587570621</v>
       </c>
     </row>
     <row r="78">
@@ -2224,16 +2224,16 @@
         <v>295</v>
       </c>
       <c r="D78" t="n">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E78" t="n">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="F78" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G78" t="n">
-        <v>0</v>
+        <v>2.033898305084746</v>
       </c>
     </row>
     <row r="79">
@@ -2247,16 +2247,16 @@
         <v>295</v>
       </c>
       <c r="D79" t="n">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E79" t="n">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="F79" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G79" t="n">
-        <v>0</v>
+        <v>2.033898305084746</v>
       </c>
     </row>
     <row r="80">
@@ -2270,16 +2270,16 @@
         <v>295</v>
       </c>
       <c r="D80" t="n">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E80" t="n">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="F80" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G80" t="n">
-        <v>0</v>
+        <v>2.033898305084746</v>
       </c>
     </row>
     <row r="81">
@@ -2293,16 +2293,16 @@
         <v>177</v>
       </c>
       <c r="D81" t="n">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="E81" t="n">
-        <v>56</v>
+        <v>88</v>
       </c>
       <c r="F81" t="n">
-        <v>47.91666666666667</v>
+        <v>2.083333333333333</v>
       </c>
       <c r="G81" t="n">
-        <v>68.36158192090396</v>
+        <v>50.28248587570621</v>
       </c>
     </row>
     <row r="82">
@@ -2316,16 +2316,16 @@
         <v>295</v>
       </c>
       <c r="D82" t="n">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E82" t="n">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="F82" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G82" t="n">
-        <v>0</v>
+        <v>2.033898305084746</v>
       </c>
     </row>
     <row r="83">
@@ -2339,16 +2339,16 @@
         <v>295</v>
       </c>
       <c r="D83" t="n">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E83" t="n">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="F83" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G83" t="n">
-        <v>0</v>
+        <v>2.033898305084746</v>
       </c>
     </row>
     <row r="84">
@@ -2362,16 +2362,16 @@
         <v>297</v>
       </c>
       <c r="D84" t="n">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E84" t="n">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="F84" t="n">
-        <v>0</v>
+        <v>5.333333333333334</v>
       </c>
       <c r="G84" t="n">
-        <v>0</v>
+        <v>3.367003367003367</v>
       </c>
     </row>
     <row r="85">
@@ -2385,16 +2385,16 @@
         <v>113</v>
       </c>
       <c r="D85" t="n">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="E85" t="n">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="F85" t="n">
-        <v>55.00000000000001</v>
+        <v>0</v>
       </c>
       <c r="G85" t="n">
-        <v>74.33628318584071</v>
+        <v>51.32743362831859</v>
       </c>
     </row>
     <row r="86">
@@ -2408,16 +2408,16 @@
         <v>297</v>
       </c>
       <c r="D86" t="n">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E86" t="n">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="F86" t="n">
-        <v>0</v>
+        <v>5.333333333333334</v>
       </c>
       <c r="G86" t="n">
-        <v>0</v>
+        <v>3.367003367003367</v>
       </c>
     </row>
     <row r="87">
@@ -2431,16 +2431,16 @@
         <v>297</v>
       </c>
       <c r="D87" t="n">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E87" t="n">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="F87" t="n">
-        <v>0</v>
+        <v>5.333333333333334</v>
       </c>
       <c r="G87" t="n">
-        <v>0</v>
+        <v>3.367003367003367</v>
       </c>
     </row>
     <row r="88">
@@ -2454,16 +2454,16 @@
         <v>297</v>
       </c>
       <c r="D88" t="n">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E88" t="n">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="F88" t="n">
-        <v>0</v>
+        <v>5.333333333333334</v>
       </c>
       <c r="G88" t="n">
-        <v>0</v>
+        <v>3.367003367003367</v>
       </c>
     </row>
     <row r="89">
@@ -2477,16 +2477,16 @@
         <v>113</v>
       </c>
       <c r="D89" t="n">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="E89" t="n">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="F89" t="n">
-        <v>55.00000000000001</v>
+        <v>0</v>
       </c>
       <c r="G89" t="n">
-        <v>74.33628318584071</v>
+        <v>51.32743362831859</v>
       </c>
     </row>
     <row r="90">
@@ -2500,16 +2500,16 @@
         <v>297</v>
       </c>
       <c r="D90" t="n">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E90" t="n">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="F90" t="n">
-        <v>0</v>
+        <v>5.333333333333334</v>
       </c>
       <c r="G90" t="n">
-        <v>0</v>
+        <v>3.367003367003367</v>
       </c>
     </row>
     <row r="91">
@@ -2523,16 +2523,16 @@
         <v>297</v>
       </c>
       <c r="D91" t="n">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E91" t="n">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="F91" t="n">
-        <v>0</v>
+        <v>5.333333333333334</v>
       </c>
       <c r="G91" t="n">
-        <v>0</v>
+        <v>3.367003367003367</v>
       </c>
     </row>
     <row r="92">
@@ -2546,16 +2546,16 @@
         <v>296</v>
       </c>
       <c r="D92" t="n">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E92" t="n">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="F92" t="n">
-        <v>0</v>
+        <v>2.666666666666667</v>
       </c>
       <c r="G92" t="n">
-        <v>0</v>
+        <v>2.702702702702703</v>
       </c>
     </row>
     <row r="93">
@@ -2569,16 +2569,16 @@
         <v>144</v>
       </c>
       <c r="D93" t="n">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="E93" t="n">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="F93" t="n">
-        <v>34.78260869565217</v>
+        <v>2.173913043478261</v>
       </c>
       <c r="G93" t="n">
-        <v>61.80555555555556</v>
+        <v>51.38888888888889</v>
       </c>
     </row>
     <row r="94">
@@ -2592,16 +2592,16 @@
         <v>296</v>
       </c>
       <c r="D94" t="n">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E94" t="n">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="F94" t="n">
-        <v>0</v>
+        <v>2.666666666666667</v>
       </c>
       <c r="G94" t="n">
-        <v>0</v>
+        <v>2.702702702702703</v>
       </c>
     </row>
     <row r="95">
@@ -2615,16 +2615,16 @@
         <v>296</v>
       </c>
       <c r="D95" t="n">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E95" t="n">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="F95" t="n">
-        <v>0</v>
+        <v>2.666666666666667</v>
       </c>
       <c r="G95" t="n">
-        <v>0</v>
+        <v>2.702702702702703</v>
       </c>
     </row>
     <row r="96">
@@ -2638,16 +2638,16 @@
         <v>296</v>
       </c>
       <c r="D96" t="n">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E96" t="n">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="F96" t="n">
-        <v>0</v>
+        <v>2.666666666666667</v>
       </c>
       <c r="G96" t="n">
-        <v>0</v>
+        <v>2.702702702702703</v>
       </c>
     </row>
     <row r="97">
@@ -2661,16 +2661,16 @@
         <v>144</v>
       </c>
       <c r="D97" t="n">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="E97" t="n">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="F97" t="n">
-        <v>34.78260869565217</v>
+        <v>2.173913043478261</v>
       </c>
       <c r="G97" t="n">
-        <v>61.80555555555556</v>
+        <v>51.38888888888889</v>
       </c>
     </row>
     <row r="98">
@@ -2684,16 +2684,16 @@
         <v>296</v>
       </c>
       <c r="D98" t="n">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E98" t="n">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="F98" t="n">
-        <v>0</v>
+        <v>2.666666666666667</v>
       </c>
       <c r="G98" t="n">
-        <v>0</v>
+        <v>2.702702702702703</v>
       </c>
     </row>
     <row r="99">
@@ -2707,16 +2707,16 @@
         <v>296</v>
       </c>
       <c r="D99" t="n">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E99" t="n">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="F99" t="n">
-        <v>0</v>
+        <v>2.666666666666667</v>
       </c>
       <c r="G99" t="n">
-        <v>0</v>
+        <v>2.702702702702703</v>
       </c>
     </row>
     <row r="100">
@@ -2730,16 +2730,16 @@
         <v>247</v>
       </c>
       <c r="D100" t="n">
-        <v>100</v>
+        <v>73</v>
       </c>
       <c r="E100" t="n">
-        <v>247</v>
+        <v>192</v>
       </c>
       <c r="F100" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="G100" t="n">
-        <v>0</v>
+        <v>22.26720647773279</v>
       </c>
     </row>
     <row r="101">
@@ -2753,16 +2753,16 @@
         <v>47</v>
       </c>
       <c r="D101" t="n">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E101" t="n">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="F101" t="n">
-        <v>58.33333333333334</v>
+        <v>20.83333333333334</v>
       </c>
       <c r="G101" t="n">
-        <v>70.21276595744681</v>
+        <v>53.19148936170212</v>
       </c>
     </row>
     <row r="102">
@@ -2776,16 +2776,16 @@
         <v>239</v>
       </c>
       <c r="D102" t="n">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="E102" t="n">
-        <v>214</v>
+        <v>183</v>
       </c>
       <c r="F102" t="n">
-        <v>11.34020618556701</v>
+        <v>25.77319587628866</v>
       </c>
       <c r="G102" t="n">
-        <v>10.4602510460251</v>
+        <v>23.43096234309623</v>
       </c>
     </row>
     <row r="103">
@@ -2799,16 +2799,16 @@
         <v>247</v>
       </c>
       <c r="D103" t="n">
-        <v>100</v>
+        <v>73</v>
       </c>
       <c r="E103" t="n">
-        <v>247</v>
+        <v>192</v>
       </c>
       <c r="F103" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="G103" t="n">
-        <v>0</v>
+        <v>22.26720647773279</v>
       </c>
     </row>
     <row r="104">
@@ -2822,16 +2822,16 @@
         <v>247</v>
       </c>
       <c r="D104" t="n">
-        <v>100</v>
+        <v>73</v>
       </c>
       <c r="E104" t="n">
-        <v>247</v>
+        <v>192</v>
       </c>
       <c r="F104" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="G104" t="n">
-        <v>0</v>
+        <v>22.26720647773279</v>
       </c>
     </row>
     <row r="105">
@@ -2845,16 +2845,16 @@
         <v>47</v>
       </c>
       <c r="D105" t="n">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E105" t="n">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="F105" t="n">
-        <v>58.33333333333334</v>
+        <v>20.83333333333334</v>
       </c>
       <c r="G105" t="n">
-        <v>70.21276595744681</v>
+        <v>53.19148936170212</v>
       </c>
     </row>
     <row r="106">
@@ -2868,16 +2868,16 @@
         <v>239</v>
       </c>
       <c r="D106" t="n">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="E106" t="n">
-        <v>214</v>
+        <v>183</v>
       </c>
       <c r="F106" t="n">
-        <v>11.34020618556701</v>
+        <v>25.77319587628866</v>
       </c>
       <c r="G106" t="n">
-        <v>10.4602510460251</v>
+        <v>23.43096234309623</v>
       </c>
     </row>
     <row r="107">
@@ -2891,16 +2891,16 @@
         <v>247</v>
       </c>
       <c r="D107" t="n">
-        <v>100</v>
+        <v>73</v>
       </c>
       <c r="E107" t="n">
-        <v>247</v>
+        <v>192</v>
       </c>
       <c r="F107" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="G107" t="n">
-        <v>0</v>
+        <v>22.26720647773279</v>
       </c>
     </row>
     <row r="108">
@@ -2914,16 +2914,16 @@
         <v>248</v>
       </c>
       <c r="D108" t="n">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="E108" t="n">
-        <v>248</v>
+        <v>207</v>
       </c>
       <c r="F108" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="G108" t="n">
-        <v>0</v>
+        <v>16.53225806451613</v>
       </c>
     </row>
     <row r="109">
@@ -2937,16 +2937,16 @@
         <v>18</v>
       </c>
       <c r="D109" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E109" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F109" t="n">
-        <v>36.36363636363637</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="G109" t="n">
-        <v>55.55555555555556</v>
+        <v>38.88888888888889</v>
       </c>
     </row>
     <row r="110">
@@ -2960,16 +2960,16 @@
         <v>198</v>
       </c>
       <c r="D110" t="n">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="E110" t="n">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="F110" t="n">
-        <v>27.16049382716049</v>
+        <v>13.58024691358025</v>
       </c>
       <c r="G110" t="n">
-        <v>36.36363636363637</v>
+        <v>30.3030303030303</v>
       </c>
     </row>
     <row r="111">
@@ -2983,16 +2983,16 @@
         <v>248</v>
       </c>
       <c r="D111" t="n">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="E111" t="n">
-        <v>246</v>
+        <v>207</v>
       </c>
       <c r="F111" t="n">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="G111" t="n">
-        <v>0.8064516129032258</v>
+        <v>16.53225806451613</v>
       </c>
     </row>
     <row r="112">
@@ -3006,16 +3006,16 @@
         <v>248</v>
       </c>
       <c r="D112" t="n">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="E112" t="n">
-        <v>248</v>
+        <v>207</v>
       </c>
       <c r="F112" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="G112" t="n">
-        <v>0</v>
+        <v>16.53225806451613</v>
       </c>
     </row>
     <row r="113">
@@ -3029,16 +3029,16 @@
         <v>18</v>
       </c>
       <c r="D113" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E113" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F113" t="n">
-        <v>36.36363636363637</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="G113" t="n">
-        <v>55.55555555555556</v>
+        <v>38.88888888888889</v>
       </c>
     </row>
     <row r="114">
@@ -3052,16 +3052,16 @@
         <v>198</v>
       </c>
       <c r="D114" t="n">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="E114" t="n">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="F114" t="n">
-        <v>27.16049382716049</v>
+        <v>13.58024691358025</v>
       </c>
       <c r="G114" t="n">
-        <v>36.36363636363637</v>
+        <v>30.3030303030303</v>
       </c>
     </row>
     <row r="115">
@@ -3075,16 +3075,16 @@
         <v>248</v>
       </c>
       <c r="D115" t="n">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="E115" t="n">
-        <v>246</v>
+        <v>207</v>
       </c>
       <c r="F115" t="n">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="G115" t="n">
-        <v>0.8064516129032258</v>
+        <v>16.53225806451613</v>
       </c>
     </row>
     <row r="116">
@@ -3098,16 +3098,16 @@
         <v>246</v>
       </c>
       <c r="D116" t="n">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="E116" t="n">
-        <v>246</v>
+        <v>212</v>
       </c>
       <c r="F116" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="G116" t="n">
-        <v>0</v>
+        <v>13.82113821138211</v>
       </c>
     </row>
     <row r="117">
@@ -3121,16 +3121,16 @@
         <v>72</v>
       </c>
       <c r="D117" t="n">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="E117" t="n">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="F117" t="n">
-        <v>34.28571428571428</v>
+        <v>11.42857142857143</v>
       </c>
       <c r="G117" t="n">
-        <v>54.16666666666666</v>
+        <v>41.66666666666667</v>
       </c>
     </row>
     <row r="118">
@@ -3144,16 +3144,16 @@
         <v>242</v>
       </c>
       <c r="D118" t="n">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="E118" t="n">
-        <v>211</v>
+        <v>193</v>
       </c>
       <c r="F118" t="n">
-        <v>7.142857142857142</v>
+        <v>15.30612244897959</v>
       </c>
       <c r="G118" t="n">
-        <v>12.8099173553719</v>
+        <v>20.24793388429752</v>
       </c>
     </row>
     <row r="119">
@@ -3167,16 +3167,16 @@
         <v>246</v>
       </c>
       <c r="D119" t="n">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="E119" t="n">
-        <v>246</v>
+        <v>212</v>
       </c>
       <c r="F119" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="G119" t="n">
-        <v>0</v>
+        <v>13.82113821138211</v>
       </c>
     </row>
     <row r="120">
@@ -3190,16 +3190,16 @@
         <v>246</v>
       </c>
       <c r="D120" t="n">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="E120" t="n">
-        <v>246</v>
+        <v>212</v>
       </c>
       <c r="F120" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="G120" t="n">
-        <v>0</v>
+        <v>13.82113821138211</v>
       </c>
     </row>
     <row r="121">
@@ -3213,16 +3213,16 @@
         <v>72</v>
       </c>
       <c r="D121" t="n">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="E121" t="n">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="F121" t="n">
-        <v>34.28571428571428</v>
+        <v>11.42857142857143</v>
       </c>
       <c r="G121" t="n">
-        <v>54.16666666666666</v>
+        <v>41.66666666666667</v>
       </c>
     </row>
     <row r="122">
@@ -3236,16 +3236,16 @@
         <v>242</v>
       </c>
       <c r="D122" t="n">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="E122" t="n">
-        <v>211</v>
+        <v>193</v>
       </c>
       <c r="F122" t="n">
-        <v>7.142857142857142</v>
+        <v>15.30612244897959</v>
       </c>
       <c r="G122" t="n">
-        <v>12.8099173553719</v>
+        <v>20.24793388429752</v>
       </c>
     </row>
     <row r="123">
@@ -3259,16 +3259,16 @@
         <v>246</v>
       </c>
       <c r="D123" t="n">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="E123" t="n">
-        <v>246</v>
+        <v>212</v>
       </c>
       <c r="F123" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="G123" t="n">
-        <v>0</v>
+        <v>13.82113821138211</v>
       </c>
     </row>
     <row r="124">
@@ -3282,16 +3282,16 @@
         <v>396</v>
       </c>
       <c r="D124" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="E124" t="n">
-        <v>396</v>
+        <v>386</v>
       </c>
       <c r="F124" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G124" t="n">
-        <v>0</v>
+        <v>2.525252525252525</v>
       </c>
     </row>
     <row r="125">
@@ -3305,16 +3305,16 @@
         <v>184</v>
       </c>
       <c r="D125" t="n">
-        <v>23</v>
+        <v>54</v>
       </c>
       <c r="E125" t="n">
-        <v>52</v>
+        <v>91</v>
       </c>
       <c r="F125" t="n">
-        <v>58.18181818181818</v>
+        <v>1.818181818181818</v>
       </c>
       <c r="G125" t="n">
-        <v>71.73913043478261</v>
+        <v>50.54347826086957</v>
       </c>
     </row>
     <row r="126">
@@ -3328,16 +3328,16 @@
         <v>396</v>
       </c>
       <c r="D126" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="E126" t="n">
-        <v>396</v>
+        <v>386</v>
       </c>
       <c r="F126" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G126" t="n">
-        <v>0</v>
+        <v>2.525252525252525</v>
       </c>
     </row>
     <row r="127">
@@ -3351,16 +3351,16 @@
         <v>396</v>
       </c>
       <c r="D127" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="E127" t="n">
-        <v>396</v>
+        <v>386</v>
       </c>
       <c r="F127" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G127" t="n">
-        <v>0</v>
+        <v>2.525252525252525</v>
       </c>
     </row>
     <row r="128">
@@ -3374,16 +3374,16 @@
         <v>396</v>
       </c>
       <c r="D128" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="E128" t="n">
-        <v>396</v>
+        <v>386</v>
       </c>
       <c r="F128" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G128" t="n">
-        <v>0</v>
+        <v>2.525252525252525</v>
       </c>
     </row>
     <row r="129">
@@ -3397,16 +3397,16 @@
         <v>184</v>
       </c>
       <c r="D129" t="n">
-        <v>23</v>
+        <v>54</v>
       </c>
       <c r="E129" t="n">
-        <v>52</v>
+        <v>91</v>
       </c>
       <c r="F129" t="n">
-        <v>58.18181818181818</v>
+        <v>1.818181818181818</v>
       </c>
       <c r="G129" t="n">
-        <v>71.73913043478261</v>
+        <v>50.54347826086957</v>
       </c>
     </row>
     <row r="130">
@@ -3420,16 +3420,16 @@
         <v>396</v>
       </c>
       <c r="D130" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="E130" t="n">
-        <v>396</v>
+        <v>386</v>
       </c>
       <c r="F130" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G130" t="n">
-        <v>0</v>
+        <v>2.525252525252525</v>
       </c>
     </row>
     <row r="131">
@@ -3443,16 +3443,16 @@
         <v>396</v>
       </c>
       <c r="D131" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="E131" t="n">
-        <v>396</v>
+        <v>386</v>
       </c>
       <c r="F131" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G131" t="n">
-        <v>0</v>
+        <v>2.525252525252525</v>
       </c>
     </row>
     <row r="132">
@@ -3466,16 +3466,16 @@
         <v>399</v>
       </c>
       <c r="D132" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="E132" t="n">
-        <v>399</v>
+        <v>389</v>
       </c>
       <c r="F132" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G132" t="n">
-        <v>0</v>
+        <v>2.506265664160401</v>
       </c>
     </row>
     <row r="133">
@@ -3489,16 +3489,16 @@
         <v>33</v>
       </c>
       <c r="D133" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E133" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="F133" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="G133" t="n">
-        <v>72.72727272727273</v>
+        <v>48.48484848484848</v>
       </c>
     </row>
     <row r="134">
@@ -3512,16 +3512,16 @@
         <v>399</v>
       </c>
       <c r="D134" t="n">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E134" t="n">
-        <v>346</v>
+        <v>357</v>
       </c>
       <c r="F134" t="n">
-        <v>7.000000000000001</v>
+        <v>5</v>
       </c>
       <c r="G134" t="n">
-        <v>13.28320802005013</v>
+        <v>10.52631578947368</v>
       </c>
     </row>
     <row r="135">
@@ -3535,16 +3535,16 @@
         <v>399</v>
       </c>
       <c r="D135" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="E135" t="n">
-        <v>399</v>
+        <v>389</v>
       </c>
       <c r="F135" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G135" t="n">
-        <v>0</v>
+        <v>2.506265664160401</v>
       </c>
     </row>
     <row r="136">
@@ -3558,16 +3558,16 @@
         <v>399</v>
       </c>
       <c r="D136" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="E136" t="n">
-        <v>399</v>
+        <v>389</v>
       </c>
       <c r="F136" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G136" t="n">
-        <v>0</v>
+        <v>2.506265664160401</v>
       </c>
     </row>
     <row r="137">
@@ -3581,16 +3581,16 @@
         <v>33</v>
       </c>
       <c r="D137" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E137" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="F137" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="G137" t="n">
-        <v>72.72727272727273</v>
+        <v>48.48484848484848</v>
       </c>
     </row>
     <row r="138">
@@ -3604,16 +3604,16 @@
         <v>399</v>
       </c>
       <c r="D138" t="n">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E138" t="n">
-        <v>346</v>
+        <v>357</v>
       </c>
       <c r="F138" t="n">
-        <v>7.000000000000001</v>
+        <v>5</v>
       </c>
       <c r="G138" t="n">
-        <v>13.28320802005013</v>
+        <v>10.52631578947368</v>
       </c>
     </row>
     <row r="139">
@@ -3627,16 +3627,16 @@
         <v>399</v>
       </c>
       <c r="D139" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="E139" t="n">
-        <v>399</v>
+        <v>389</v>
       </c>
       <c r="F139" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G139" t="n">
-        <v>0</v>
+        <v>2.506265664160401</v>
       </c>
     </row>
     <row r="140">
@@ -3650,16 +3650,16 @@
         <v>394</v>
       </c>
       <c r="D140" t="n">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E140" t="n">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="F140" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G140" t="n">
-        <v>0</v>
+        <v>2.030456852791878</v>
       </c>
     </row>
     <row r="141">
@@ -3673,16 +3673,16 @@
         <v>198</v>
       </c>
       <c r="D141" t="n">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="E141" t="n">
-        <v>64</v>
+        <v>93</v>
       </c>
       <c r="F141" t="n">
-        <v>37.93103448275862</v>
+        <v>0</v>
       </c>
       <c r="G141" t="n">
-        <v>67.67676767676768</v>
+        <v>53.03030303030303</v>
       </c>
     </row>
     <row r="142">
@@ -3696,16 +3696,16 @@
         <v>392</v>
       </c>
       <c r="D142" t="n">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="E142" t="n">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="F142" t="n">
-        <v>0</v>
+        <v>3.03030303030303</v>
       </c>
       <c r="G142" t="n">
-        <v>0.5102040816326531</v>
+        <v>2.040816326530612</v>
       </c>
     </row>
     <row r="143">
@@ -3719,16 +3719,16 @@
         <v>394</v>
       </c>
       <c r="D143" t="n">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E143" t="n">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="F143" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G143" t="n">
-        <v>0</v>
+        <v>2.030456852791878</v>
       </c>
     </row>
     <row r="144">
@@ -3742,16 +3742,16 @@
         <v>394</v>
       </c>
       <c r="D144" t="n">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E144" t="n">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="F144" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G144" t="n">
-        <v>0</v>
+        <v>2.030456852791878</v>
       </c>
     </row>
     <row r="145">
@@ -3765,16 +3765,16 @@
         <v>198</v>
       </c>
       <c r="D145" t="n">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="E145" t="n">
-        <v>64</v>
+        <v>93</v>
       </c>
       <c r="F145" t="n">
-        <v>37.93103448275862</v>
+        <v>0</v>
       </c>
       <c r="G145" t="n">
-        <v>67.67676767676768</v>
+        <v>53.03030303030303</v>
       </c>
     </row>
     <row r="146">
@@ -3788,16 +3788,16 @@
         <v>392</v>
       </c>
       <c r="D146" t="n">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="E146" t="n">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="F146" t="n">
-        <v>0</v>
+        <v>3.03030303030303</v>
       </c>
       <c r="G146" t="n">
-        <v>0.5102040816326531</v>
+        <v>2.040816326530612</v>
       </c>
     </row>
     <row r="147">
@@ -3811,16 +3811,16 @@
         <v>394</v>
       </c>
       <c r="D147" t="n">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E147" t="n">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="F147" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G147" t="n">
-        <v>0</v>
+        <v>2.030456852791878</v>
       </c>
     </row>
     <row r="148">
@@ -3834,16 +3834,16 @@
         <v>1248</v>
       </c>
       <c r="D148" t="n">
-        <v>500</v>
+        <v>357</v>
       </c>
       <c r="E148" t="n">
-        <v>1248</v>
+        <v>962</v>
       </c>
       <c r="F148" t="n">
-        <v>0</v>
+        <v>28.6</v>
       </c>
       <c r="G148" t="n">
-        <v>0</v>
+        <v>22.91666666666666</v>
       </c>
     </row>
     <row r="149">
@@ -3857,16 +3857,16 @@
         <v>1248</v>
       </c>
       <c r="D149" t="n">
-        <v>500</v>
+        <v>357</v>
       </c>
       <c r="E149" t="n">
-        <v>1248</v>
+        <v>962</v>
       </c>
       <c r="F149" t="n">
-        <v>0</v>
+        <v>28.6</v>
       </c>
       <c r="G149" t="n">
-        <v>0</v>
+        <v>22.91666666666666</v>
       </c>
     </row>
     <row r="150">
@@ -3880,16 +3880,16 @@
         <v>192</v>
       </c>
       <c r="D150" t="n">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="E150" t="n">
-        <v>69</v>
+        <v>112</v>
       </c>
       <c r="F150" t="n">
-        <v>58.88888888888889</v>
+        <v>12.22222222222222</v>
       </c>
       <c r="G150" t="n">
-        <v>64.0625</v>
+        <v>41.66666666666667</v>
       </c>
     </row>
     <row r="151">
@@ -3903,16 +3903,16 @@
         <v>1248</v>
       </c>
       <c r="D151" t="n">
-        <v>500</v>
+        <v>357</v>
       </c>
       <c r="E151" t="n">
-        <v>1248</v>
+        <v>962</v>
       </c>
       <c r="F151" t="n">
-        <v>0</v>
+        <v>28.6</v>
       </c>
       <c r="G151" t="n">
-        <v>0</v>
+        <v>22.91666666666666</v>
       </c>
     </row>
     <row r="152">
@@ -3926,16 +3926,16 @@
         <v>1248</v>
       </c>
       <c r="D152" t="n">
-        <v>500</v>
+        <v>357</v>
       </c>
       <c r="E152" t="n">
-        <v>1248</v>
+        <v>962</v>
       </c>
       <c r="F152" t="n">
-        <v>0</v>
+        <v>28.6</v>
       </c>
       <c r="G152" t="n">
-        <v>0</v>
+        <v>22.91666666666666</v>
       </c>
     </row>
     <row r="153">
@@ -3949,16 +3949,16 @@
         <v>192</v>
       </c>
       <c r="D153" t="n">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="E153" t="n">
-        <v>69</v>
+        <v>112</v>
       </c>
       <c r="F153" t="n">
-        <v>58.88888888888889</v>
+        <v>12.22222222222222</v>
       </c>
       <c r="G153" t="n">
-        <v>64.0625</v>
+        <v>41.66666666666667</v>
       </c>
     </row>
     <row r="154">
@@ -3972,16 +3972,16 @@
         <v>1248</v>
       </c>
       <c r="D154" t="n">
-        <v>500</v>
+        <v>357</v>
       </c>
       <c r="E154" t="n">
-        <v>1248</v>
+        <v>962</v>
       </c>
       <c r="F154" t="n">
-        <v>0</v>
+        <v>28.6</v>
       </c>
       <c r="G154" t="n">
-        <v>0</v>
+        <v>22.91666666666666</v>
       </c>
     </row>
     <row r="155">
@@ -3995,16 +3995,16 @@
         <v>1248</v>
       </c>
       <c r="D155" t="n">
-        <v>500</v>
+        <v>357</v>
       </c>
       <c r="E155" t="n">
-        <v>1248</v>
+        <v>962</v>
       </c>
       <c r="F155" t="n">
-        <v>0</v>
+        <v>28.6</v>
       </c>
       <c r="G155" t="n">
-        <v>0</v>
+        <v>22.91666666666666</v>
       </c>
     </row>
     <row r="156">
@@ -4018,16 +4018,16 @@
         <v>192</v>
       </c>
       <c r="D156" t="n">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="E156" t="n">
-        <v>69</v>
+        <v>112</v>
       </c>
       <c r="F156" t="n">
-        <v>58.88888888888889</v>
+        <v>12.22222222222222</v>
       </c>
       <c r="G156" t="n">
-        <v>64.0625</v>
+        <v>41.66666666666667</v>
       </c>
     </row>
     <row r="157">
@@ -4041,16 +4041,16 @@
         <v>1248</v>
       </c>
       <c r="D157" t="n">
-        <v>500</v>
+        <v>357</v>
       </c>
       <c r="E157" t="n">
-        <v>1248</v>
+        <v>962</v>
       </c>
       <c r="F157" t="n">
-        <v>0</v>
+        <v>28.6</v>
       </c>
       <c r="G157" t="n">
-        <v>0</v>
+        <v>22.91666666666666</v>
       </c>
     </row>
     <row r="158">
@@ -4064,16 +4064,16 @@
         <v>1248</v>
       </c>
       <c r="D158" t="n">
-        <v>500</v>
+        <v>357</v>
       </c>
       <c r="E158" t="n">
-        <v>1248</v>
+        <v>962</v>
       </c>
       <c r="F158" t="n">
-        <v>0</v>
+        <v>28.6</v>
       </c>
       <c r="G158" t="n">
-        <v>0</v>
+        <v>22.91666666666666</v>
       </c>
     </row>
     <row r="159">
@@ -4087,16 +4087,16 @@
         <v>192</v>
       </c>
       <c r="D159" t="n">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="E159" t="n">
-        <v>69</v>
+        <v>112</v>
       </c>
       <c r="F159" t="n">
-        <v>58.88888888888889</v>
+        <v>12.22222222222222</v>
       </c>
       <c r="G159" t="n">
-        <v>64.0625</v>
+        <v>41.66666666666667</v>
       </c>
     </row>
     <row r="160">
@@ -4110,16 +4110,16 @@
         <v>1246</v>
       </c>
       <c r="D160" t="n">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="E160" t="n">
-        <v>1246</v>
+        <v>943</v>
       </c>
       <c r="F160" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="G160" t="n">
-        <v>0</v>
+        <v>24.31781701444623</v>
       </c>
     </row>
     <row r="161">
@@ -4133,16 +4133,16 @@
         <v>1246</v>
       </c>
       <c r="D161" t="n">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="E161" t="n">
-        <v>1246</v>
+        <v>943</v>
       </c>
       <c r="F161" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="G161" t="n">
-        <v>0</v>
+        <v>24.31781701444623</v>
       </c>
     </row>
     <row r="162">
@@ -4156,16 +4156,16 @@
         <v>226</v>
       </c>
       <c r="D162" t="n">
-        <v>51</v>
+        <v>94</v>
       </c>
       <c r="E162" t="n">
-        <v>97</v>
+        <v>138</v>
       </c>
       <c r="F162" t="n">
-        <v>52.77777777777778</v>
+        <v>12.96296296296296</v>
       </c>
       <c r="G162" t="n">
-        <v>57.07964601769911</v>
+        <v>38.93805309734513</v>
       </c>
     </row>
     <row r="163">
@@ -4179,16 +4179,16 @@
         <v>1246</v>
       </c>
       <c r="D163" t="n">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="E163" t="n">
-        <v>1246</v>
+        <v>943</v>
       </c>
       <c r="F163" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="G163" t="n">
-        <v>0</v>
+        <v>24.31781701444623</v>
       </c>
     </row>
     <row r="164">
@@ -4202,16 +4202,16 @@
         <v>1246</v>
       </c>
       <c r="D164" t="n">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="E164" t="n">
-        <v>1246</v>
+        <v>943</v>
       </c>
       <c r="F164" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="G164" t="n">
-        <v>0</v>
+        <v>24.31781701444623</v>
       </c>
     </row>
     <row r="165">
@@ -4225,16 +4225,16 @@
         <v>226</v>
       </c>
       <c r="D165" t="n">
-        <v>51</v>
+        <v>94</v>
       </c>
       <c r="E165" t="n">
-        <v>97</v>
+        <v>138</v>
       </c>
       <c r="F165" t="n">
-        <v>52.77777777777778</v>
+        <v>12.96296296296296</v>
       </c>
       <c r="G165" t="n">
-        <v>57.07964601769911</v>
+        <v>38.93805309734513</v>
       </c>
     </row>
     <row r="166">
@@ -4248,16 +4248,16 @@
         <v>1246</v>
       </c>
       <c r="D166" t="n">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="E166" t="n">
-        <v>1246</v>
+        <v>943</v>
       </c>
       <c r="F166" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="G166" t="n">
-        <v>0</v>
+        <v>24.31781701444623</v>
       </c>
     </row>
     <row r="167">
@@ -4271,16 +4271,16 @@
         <v>1246</v>
       </c>
       <c r="D167" t="n">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="E167" t="n">
-        <v>1246</v>
+        <v>943</v>
       </c>
       <c r="F167" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="G167" t="n">
-        <v>0</v>
+        <v>24.31781701444623</v>
       </c>
     </row>
     <row r="168">
@@ -4294,16 +4294,16 @@
         <v>226</v>
       </c>
       <c r="D168" t="n">
-        <v>51</v>
+        <v>94</v>
       </c>
       <c r="E168" t="n">
-        <v>97</v>
+        <v>138</v>
       </c>
       <c r="F168" t="n">
-        <v>52.77777777777778</v>
+        <v>12.96296296296296</v>
       </c>
       <c r="G168" t="n">
-        <v>57.07964601769911</v>
+        <v>38.93805309734513</v>
       </c>
     </row>
     <row r="169">
@@ -4317,16 +4317,16 @@
         <v>1246</v>
       </c>
       <c r="D169" t="n">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="E169" t="n">
-        <v>1246</v>
+        <v>943</v>
       </c>
       <c r="F169" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="G169" t="n">
-        <v>0</v>
+        <v>24.31781701444623</v>
       </c>
     </row>
     <row r="170">
@@ -4340,16 +4340,16 @@
         <v>1246</v>
       </c>
       <c r="D170" t="n">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="E170" t="n">
-        <v>1246</v>
+        <v>943</v>
       </c>
       <c r="F170" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="G170" t="n">
-        <v>0</v>
+        <v>24.31781701444623</v>
       </c>
     </row>
     <row r="171">
@@ -4363,16 +4363,16 @@
         <v>226</v>
       </c>
       <c r="D171" t="n">
-        <v>51</v>
+        <v>94</v>
       </c>
       <c r="E171" t="n">
-        <v>97</v>
+        <v>138</v>
       </c>
       <c r="F171" t="n">
-        <v>52.77777777777778</v>
+        <v>12.96296296296296</v>
       </c>
       <c r="G171" t="n">
-        <v>57.07964601769911</v>
+        <v>38.93805309734513</v>
       </c>
     </row>
     <row r="172">
@@ -4386,16 +4386,16 @@
         <v>1247</v>
       </c>
       <c r="D172" t="n">
-        <v>500</v>
+        <v>366</v>
       </c>
       <c r="E172" t="n">
-        <v>1247</v>
+        <v>979</v>
       </c>
       <c r="F172" t="n">
-        <v>0</v>
+        <v>26.8</v>
       </c>
       <c r="G172" t="n">
-        <v>0</v>
+        <v>21.4915797914996</v>
       </c>
     </row>
     <row r="173">
@@ -4409,16 +4409,16 @@
         <v>1247</v>
       </c>
       <c r="D173" t="n">
-        <v>500</v>
+        <v>366</v>
       </c>
       <c r="E173" t="n">
-        <v>1247</v>
+        <v>979</v>
       </c>
       <c r="F173" t="n">
-        <v>0</v>
+        <v>26.8</v>
       </c>
       <c r="G173" t="n">
-        <v>0</v>
+        <v>21.4915797914996</v>
       </c>
     </row>
     <row r="174">
@@ -4432,16 +4432,16 @@
         <v>403</v>
       </c>
       <c r="D174" t="n">
-        <v>103</v>
+        <v>152</v>
       </c>
       <c r="E174" t="n">
-        <v>204</v>
+        <v>243</v>
       </c>
       <c r="F174" t="n">
-        <v>42.13483146067416</v>
+        <v>14.60674157303371</v>
       </c>
       <c r="G174" t="n">
-        <v>49.37965260545906</v>
+        <v>39.70223325062035</v>
       </c>
     </row>
     <row r="175">
@@ -4455,16 +4455,16 @@
         <v>1247</v>
       </c>
       <c r="D175" t="n">
-        <v>500</v>
+        <v>366</v>
       </c>
       <c r="E175" t="n">
-        <v>1247</v>
+        <v>979</v>
       </c>
       <c r="F175" t="n">
-        <v>0</v>
+        <v>26.8</v>
       </c>
       <c r="G175" t="n">
-        <v>0</v>
+        <v>21.4915797914996</v>
       </c>
     </row>
     <row r="176">
@@ -4478,16 +4478,16 @@
         <v>1247</v>
       </c>
       <c r="D176" t="n">
-        <v>500</v>
+        <v>366</v>
       </c>
       <c r="E176" t="n">
-        <v>1247</v>
+        <v>979</v>
       </c>
       <c r="F176" t="n">
-        <v>0</v>
+        <v>26.8</v>
       </c>
       <c r="G176" t="n">
-        <v>0</v>
+        <v>21.4915797914996</v>
       </c>
     </row>
     <row r="177">
@@ -4501,16 +4501,16 @@
         <v>403</v>
       </c>
       <c r="D177" t="n">
-        <v>103</v>
+        <v>152</v>
       </c>
       <c r="E177" t="n">
-        <v>204</v>
+        <v>243</v>
       </c>
       <c r="F177" t="n">
-        <v>42.13483146067416</v>
+        <v>14.60674157303371</v>
       </c>
       <c r="G177" t="n">
-        <v>49.37965260545906</v>
+        <v>39.70223325062035</v>
       </c>
     </row>
     <row r="178">
@@ -4524,16 +4524,16 @@
         <v>1247</v>
       </c>
       <c r="D178" t="n">
-        <v>500</v>
+        <v>366</v>
       </c>
       <c r="E178" t="n">
-        <v>1247</v>
+        <v>979</v>
       </c>
       <c r="F178" t="n">
-        <v>0</v>
+        <v>26.8</v>
       </c>
       <c r="G178" t="n">
-        <v>0</v>
+        <v>21.4915797914996</v>
       </c>
     </row>
     <row r="179">
@@ -4547,16 +4547,16 @@
         <v>1247</v>
       </c>
       <c r="D179" t="n">
-        <v>500</v>
+        <v>366</v>
       </c>
       <c r="E179" t="n">
-        <v>1247</v>
+        <v>979</v>
       </c>
       <c r="F179" t="n">
-        <v>0</v>
+        <v>26.8</v>
       </c>
       <c r="G179" t="n">
-        <v>0</v>
+        <v>21.4915797914996</v>
       </c>
     </row>
     <row r="180">
@@ -4570,16 +4570,16 @@
         <v>403</v>
       </c>
       <c r="D180" t="n">
-        <v>103</v>
+        <v>152</v>
       </c>
       <c r="E180" t="n">
-        <v>204</v>
+        <v>243</v>
       </c>
       <c r="F180" t="n">
-        <v>42.13483146067416</v>
+        <v>14.60674157303371</v>
       </c>
       <c r="G180" t="n">
-        <v>49.37965260545906</v>
+        <v>39.70223325062035</v>
       </c>
     </row>
     <row r="181">
@@ -4593,16 +4593,16 @@
         <v>1247</v>
       </c>
       <c r="D181" t="n">
-        <v>500</v>
+        <v>366</v>
       </c>
       <c r="E181" t="n">
-        <v>1247</v>
+        <v>979</v>
       </c>
       <c r="F181" t="n">
-        <v>0</v>
+        <v>26.8</v>
       </c>
       <c r="G181" t="n">
-        <v>0</v>
+        <v>21.4915797914996</v>
       </c>
     </row>
     <row r="182">
@@ -4616,16 +4616,16 @@
         <v>1247</v>
       </c>
       <c r="D182" t="n">
-        <v>500</v>
+        <v>366</v>
       </c>
       <c r="E182" t="n">
-        <v>1247</v>
+        <v>979</v>
       </c>
       <c r="F182" t="n">
-        <v>0</v>
+        <v>26.8</v>
       </c>
       <c r="G182" t="n">
-        <v>0</v>
+        <v>21.4915797914996</v>
       </c>
     </row>
     <row r="183">
@@ -4639,16 +4639,16 @@
         <v>403</v>
       </c>
       <c r="D183" t="n">
-        <v>103</v>
+        <v>152</v>
       </c>
       <c r="E183" t="n">
-        <v>204</v>
+        <v>243</v>
       </c>
       <c r="F183" t="n">
-        <v>42.13483146067416</v>
+        <v>14.60674157303371</v>
       </c>
       <c r="G183" t="n">
-        <v>49.37965260545906</v>
+        <v>39.70223325062035</v>
       </c>
     </row>
     <row r="184">
@@ -4662,16 +4662,16 @@
         <v>1248</v>
       </c>
       <c r="D184" t="n">
-        <v>500</v>
+        <v>391</v>
       </c>
       <c r="E184" t="n">
-        <v>1248</v>
+        <v>1030</v>
       </c>
       <c r="F184" t="n">
-        <v>0</v>
+        <v>21.8</v>
       </c>
       <c r="G184" t="n">
-        <v>0</v>
+        <v>17.46794871794872</v>
       </c>
     </row>
     <row r="185">
@@ -4685,16 +4685,16 @@
         <v>1248</v>
       </c>
       <c r="D185" t="n">
-        <v>500</v>
+        <v>391</v>
       </c>
       <c r="E185" t="n">
-        <v>1248</v>
+        <v>1030</v>
       </c>
       <c r="F185" t="n">
-        <v>0</v>
+        <v>21.8</v>
       </c>
       <c r="G185" t="n">
-        <v>0</v>
+        <v>17.46794871794872</v>
       </c>
     </row>
     <row r="186">
@@ -4708,16 +4708,16 @@
         <v>178</v>
       </c>
       <c r="D186" t="n">
-        <v>49</v>
+        <v>75</v>
       </c>
       <c r="E186" t="n">
-        <v>85</v>
+        <v>106</v>
       </c>
       <c r="F186" t="n">
-        <v>41.66666666666667</v>
+        <v>10.71428571428571</v>
       </c>
       <c r="G186" t="n">
-        <v>52.24719101123596</v>
+        <v>40.44943820224719</v>
       </c>
     </row>
     <row r="187">
@@ -4731,16 +4731,16 @@
         <v>1248</v>
       </c>
       <c r="D187" t="n">
-        <v>500</v>
+        <v>391</v>
       </c>
       <c r="E187" t="n">
-        <v>1248</v>
+        <v>1030</v>
       </c>
       <c r="F187" t="n">
-        <v>0</v>
+        <v>21.8</v>
       </c>
       <c r="G187" t="n">
-        <v>0</v>
+        <v>17.46794871794872</v>
       </c>
     </row>
     <row r="188">
@@ -4754,16 +4754,16 @@
         <v>1248</v>
       </c>
       <c r="D188" t="n">
-        <v>500</v>
+        <v>391</v>
       </c>
       <c r="E188" t="n">
-        <v>1248</v>
+        <v>1030</v>
       </c>
       <c r="F188" t="n">
-        <v>0</v>
+        <v>21.8</v>
       </c>
       <c r="G188" t="n">
-        <v>0</v>
+        <v>17.46794871794872</v>
       </c>
     </row>
     <row r="189">
@@ -4777,16 +4777,16 @@
         <v>178</v>
       </c>
       <c r="D189" t="n">
-        <v>49</v>
+        <v>75</v>
       </c>
       <c r="E189" t="n">
-        <v>85</v>
+        <v>106</v>
       </c>
       <c r="F189" t="n">
-        <v>41.66666666666667</v>
+        <v>10.71428571428571</v>
       </c>
       <c r="G189" t="n">
-        <v>52.24719101123596</v>
+        <v>40.44943820224719</v>
       </c>
     </row>
     <row r="190">
@@ -4800,16 +4800,16 @@
         <v>1248</v>
       </c>
       <c r="D190" t="n">
-        <v>500</v>
+        <v>391</v>
       </c>
       <c r="E190" t="n">
-        <v>1248</v>
+        <v>1030</v>
       </c>
       <c r="F190" t="n">
-        <v>0</v>
+        <v>21.8</v>
       </c>
       <c r="G190" t="n">
-        <v>0</v>
+        <v>17.46794871794872</v>
       </c>
     </row>
     <row r="191">
@@ -4823,16 +4823,16 @@
         <v>1248</v>
       </c>
       <c r="D191" t="n">
-        <v>500</v>
+        <v>391</v>
       </c>
       <c r="E191" t="n">
-        <v>1248</v>
+        <v>1030</v>
       </c>
       <c r="F191" t="n">
-        <v>0</v>
+        <v>21.8</v>
       </c>
       <c r="G191" t="n">
-        <v>0</v>
+        <v>17.46794871794872</v>
       </c>
     </row>
     <row r="192">
@@ -4846,16 +4846,16 @@
         <v>178</v>
       </c>
       <c r="D192" t="n">
-        <v>49</v>
+        <v>75</v>
       </c>
       <c r="E192" t="n">
-        <v>85</v>
+        <v>106</v>
       </c>
       <c r="F192" t="n">
-        <v>41.66666666666667</v>
+        <v>10.71428571428571</v>
       </c>
       <c r="G192" t="n">
-        <v>52.24719101123596</v>
+        <v>40.44943820224719</v>
       </c>
     </row>
     <row r="193">
@@ -4869,16 +4869,16 @@
         <v>1248</v>
       </c>
       <c r="D193" t="n">
-        <v>500</v>
+        <v>391</v>
       </c>
       <c r="E193" t="n">
-        <v>1248</v>
+        <v>1030</v>
       </c>
       <c r="F193" t="n">
-        <v>0</v>
+        <v>21.8</v>
       </c>
       <c r="G193" t="n">
-        <v>0</v>
+        <v>17.46794871794872</v>
       </c>
     </row>
     <row r="194">
@@ -4892,16 +4892,16 @@
         <v>1248</v>
       </c>
       <c r="D194" t="n">
-        <v>500</v>
+        <v>391</v>
       </c>
       <c r="E194" t="n">
-        <v>1248</v>
+        <v>1030</v>
       </c>
       <c r="F194" t="n">
-        <v>0</v>
+        <v>21.8</v>
       </c>
       <c r="G194" t="n">
-        <v>0</v>
+        <v>17.46794871794872</v>
       </c>
     </row>
     <row r="195">
@@ -4915,16 +4915,16 @@
         <v>178</v>
       </c>
       <c r="D195" t="n">
-        <v>49</v>
+        <v>75</v>
       </c>
       <c r="E195" t="n">
-        <v>85</v>
+        <v>106</v>
       </c>
       <c r="F195" t="n">
-        <v>41.66666666666667</v>
+        <v>10.71428571428571</v>
       </c>
       <c r="G195" t="n">
-        <v>52.24719101123596</v>
+        <v>40.44943820224719</v>
       </c>
     </row>
     <row r="196">
@@ -4938,16 +4938,16 @@
         <v>1249</v>
       </c>
       <c r="D196" t="n">
-        <v>500</v>
+        <v>421</v>
       </c>
       <c r="E196" t="n">
-        <v>1249</v>
+        <v>1091</v>
       </c>
       <c r="F196" t="n">
-        <v>0</v>
+        <v>15.8</v>
       </c>
       <c r="G196" t="n">
-        <v>0</v>
+        <v>12.65012009607686</v>
       </c>
     </row>
     <row r="197">
@@ -4961,16 +4961,16 @@
         <v>1249</v>
       </c>
       <c r="D197" t="n">
-        <v>500</v>
+        <v>421</v>
       </c>
       <c r="E197" t="n">
-        <v>1249</v>
+        <v>1091</v>
       </c>
       <c r="F197" t="n">
-        <v>0</v>
+        <v>15.8</v>
       </c>
       <c r="G197" t="n">
-        <v>0</v>
+        <v>12.65012009607686</v>
       </c>
     </row>
     <row r="198">
@@ -4984,16 +4984,16 @@
         <v>219</v>
       </c>
       <c r="D198" t="n">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="E198" t="n">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="F198" t="n">
-        <v>24.74226804123711</v>
+        <v>10.30927835051546</v>
       </c>
       <c r="G198" t="n">
-        <v>41.0958904109589</v>
+        <v>36.98630136986301</v>
       </c>
     </row>
     <row r="199">
@@ -5007,16 +5007,16 @@
         <v>1249</v>
       </c>
       <c r="D199" t="n">
-        <v>500</v>
+        <v>421</v>
       </c>
       <c r="E199" t="n">
-        <v>1249</v>
+        <v>1091</v>
       </c>
       <c r="F199" t="n">
-        <v>0</v>
+        <v>15.8</v>
       </c>
       <c r="G199" t="n">
-        <v>0</v>
+        <v>12.65012009607686</v>
       </c>
     </row>
     <row r="200">
@@ -5030,16 +5030,16 @@
         <v>1249</v>
       </c>
       <c r="D200" t="n">
-        <v>500</v>
+        <v>421</v>
       </c>
       <c r="E200" t="n">
-        <v>1249</v>
+        <v>1091</v>
       </c>
       <c r="F200" t="n">
-        <v>0</v>
+        <v>15.8</v>
       </c>
       <c r="G200" t="n">
-        <v>0</v>
+        <v>12.65012009607686</v>
       </c>
     </row>
     <row r="201">
@@ -5053,16 +5053,16 @@
         <v>219</v>
       </c>
       <c r="D201" t="n">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="E201" t="n">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="F201" t="n">
-        <v>24.74226804123711</v>
+        <v>10.30927835051546</v>
       </c>
       <c r="G201" t="n">
-        <v>41.0958904109589</v>
+        <v>36.98630136986301</v>
       </c>
     </row>
     <row r="202">
@@ -5076,16 +5076,16 @@
         <v>1249</v>
       </c>
       <c r="D202" t="n">
-        <v>500</v>
+        <v>421</v>
       </c>
       <c r="E202" t="n">
-        <v>1249</v>
+        <v>1091</v>
       </c>
       <c r="F202" t="n">
-        <v>0</v>
+        <v>15.8</v>
       </c>
       <c r="G202" t="n">
-        <v>0</v>
+        <v>12.65012009607686</v>
       </c>
     </row>
     <row r="203">
@@ -5099,16 +5099,16 @@
         <v>1249</v>
       </c>
       <c r="D203" t="n">
-        <v>500</v>
+        <v>421</v>
       </c>
       <c r="E203" t="n">
-        <v>1249</v>
+        <v>1091</v>
       </c>
       <c r="F203" t="n">
-        <v>0</v>
+        <v>15.8</v>
       </c>
       <c r="G203" t="n">
-        <v>0</v>
+        <v>12.65012009607686</v>
       </c>
     </row>
     <row r="204">
@@ -5122,16 +5122,16 @@
         <v>219</v>
       </c>
       <c r="D204" t="n">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="E204" t="n">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="F204" t="n">
-        <v>24.74226804123711</v>
+        <v>10.30927835051546</v>
       </c>
       <c r="G204" t="n">
-        <v>41.0958904109589</v>
+        <v>36.98630136986301</v>
       </c>
     </row>
     <row r="205">
@@ -5145,16 +5145,16 @@
         <v>1249</v>
       </c>
       <c r="D205" t="n">
-        <v>500</v>
+        <v>421</v>
       </c>
       <c r="E205" t="n">
-        <v>1249</v>
+        <v>1091</v>
       </c>
       <c r="F205" t="n">
-        <v>0</v>
+        <v>15.8</v>
       </c>
       <c r="G205" t="n">
-        <v>0</v>
+        <v>12.65012009607686</v>
       </c>
     </row>
     <row r="206">
@@ -5168,16 +5168,16 @@
         <v>1249</v>
       </c>
       <c r="D206" t="n">
-        <v>500</v>
+        <v>421</v>
       </c>
       <c r="E206" t="n">
-        <v>1249</v>
+        <v>1091</v>
       </c>
       <c r="F206" t="n">
-        <v>0</v>
+        <v>15.8</v>
       </c>
       <c r="G206" t="n">
-        <v>0</v>
+        <v>12.65012009607686</v>
       </c>
     </row>
     <row r="207">
@@ -5191,16 +5191,16 @@
         <v>219</v>
       </c>
       <c r="D207" t="n">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="E207" t="n">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="F207" t="n">
-        <v>24.74226804123711</v>
+        <v>10.30927835051546</v>
       </c>
       <c r="G207" t="n">
-        <v>41.0958904109589</v>
+        <v>36.98630136986301</v>
       </c>
     </row>
     <row r="208">
@@ -5214,16 +5214,16 @@
         <v>1993</v>
       </c>
       <c r="D208" t="n">
-        <v>500</v>
+        <v>471</v>
       </c>
       <c r="E208" t="n">
-        <v>1993</v>
+        <v>1933</v>
       </c>
       <c r="F208" t="n">
-        <v>0</v>
+        <v>5.800000000000001</v>
       </c>
       <c r="G208" t="n">
-        <v>0</v>
+        <v>3.010536879076769</v>
       </c>
     </row>
     <row r="209">
@@ -5237,16 +5237,16 @@
         <v>1993</v>
       </c>
       <c r="D209" t="n">
-        <v>500</v>
+        <v>471</v>
       </c>
       <c r="E209" t="n">
-        <v>1993</v>
+        <v>1933</v>
       </c>
       <c r="F209" t="n">
-        <v>0</v>
+        <v>5.800000000000001</v>
       </c>
       <c r="G209" t="n">
-        <v>0</v>
+        <v>3.010536879076769</v>
       </c>
     </row>
     <row r="210">
@@ -5260,16 +5260,16 @@
         <v>1721</v>
       </c>
       <c r="D210" t="n">
-        <v>250</v>
+        <v>418</v>
       </c>
       <c r="E210" t="n">
-        <v>817</v>
+        <v>1108</v>
       </c>
       <c r="F210" t="n">
-        <v>42.6605504587156</v>
+        <v>4.128440366972478</v>
       </c>
       <c r="G210" t="n">
-        <v>52.52760023242301</v>
+        <v>35.61882626380012</v>
       </c>
     </row>
     <row r="211">
@@ -5283,16 +5283,16 @@
         <v>1993</v>
       </c>
       <c r="D211" t="n">
-        <v>500</v>
+        <v>471</v>
       </c>
       <c r="E211" t="n">
-        <v>1993</v>
+        <v>1933</v>
       </c>
       <c r="F211" t="n">
-        <v>0</v>
+        <v>5.800000000000001</v>
       </c>
       <c r="G211" t="n">
-        <v>0</v>
+        <v>3.010536879076769</v>
       </c>
     </row>
     <row r="212">
@@ -5306,16 +5306,16 @@
         <v>1993</v>
       </c>
       <c r="D212" t="n">
-        <v>500</v>
+        <v>471</v>
       </c>
       <c r="E212" t="n">
-        <v>1993</v>
+        <v>1933</v>
       </c>
       <c r="F212" t="n">
-        <v>0</v>
+        <v>5.800000000000001</v>
       </c>
       <c r="G212" t="n">
-        <v>0</v>
+        <v>3.010536879076769</v>
       </c>
     </row>
     <row r="213">
@@ -5329,16 +5329,16 @@
         <v>1721</v>
       </c>
       <c r="D213" t="n">
-        <v>250</v>
+        <v>418</v>
       </c>
       <c r="E213" t="n">
-        <v>817</v>
+        <v>1108</v>
       </c>
       <c r="F213" t="n">
-        <v>42.6605504587156</v>
+        <v>4.128440366972478</v>
       </c>
       <c r="G213" t="n">
-        <v>52.52760023242301</v>
+        <v>35.61882626380012</v>
       </c>
     </row>
     <row r="214">
@@ -5352,16 +5352,16 @@
         <v>1993</v>
       </c>
       <c r="D214" t="n">
-        <v>500</v>
+        <v>471</v>
       </c>
       <c r="E214" t="n">
-        <v>1993</v>
+        <v>1933</v>
       </c>
       <c r="F214" t="n">
-        <v>0</v>
+        <v>5.800000000000001</v>
       </c>
       <c r="G214" t="n">
-        <v>0</v>
+        <v>3.010536879076769</v>
       </c>
     </row>
     <row r="215">
@@ -5375,16 +5375,16 @@
         <v>1993</v>
       </c>
       <c r="D215" t="n">
-        <v>500</v>
+        <v>471</v>
       </c>
       <c r="E215" t="n">
-        <v>1993</v>
+        <v>1933</v>
       </c>
       <c r="F215" t="n">
-        <v>0</v>
+        <v>5.800000000000001</v>
       </c>
       <c r="G215" t="n">
-        <v>0</v>
+        <v>3.010536879076769</v>
       </c>
     </row>
     <row r="216">
@@ -5398,16 +5398,16 @@
         <v>1721</v>
       </c>
       <c r="D216" t="n">
-        <v>250</v>
+        <v>418</v>
       </c>
       <c r="E216" t="n">
-        <v>817</v>
+        <v>1108</v>
       </c>
       <c r="F216" t="n">
-        <v>42.6605504587156</v>
+        <v>4.128440366972478</v>
       </c>
       <c r="G216" t="n">
-        <v>52.52760023242301</v>
+        <v>35.61882626380012</v>
       </c>
     </row>
     <row r="217">
@@ -5421,16 +5421,16 @@
         <v>1993</v>
       </c>
       <c r="D217" t="n">
-        <v>500</v>
+        <v>471</v>
       </c>
       <c r="E217" t="n">
-        <v>1993</v>
+        <v>1933</v>
       </c>
       <c r="F217" t="n">
-        <v>0</v>
+        <v>5.800000000000001</v>
       </c>
       <c r="G217" t="n">
-        <v>0</v>
+        <v>3.010536879076769</v>
       </c>
     </row>
     <row r="218">
@@ -5444,16 +5444,16 @@
         <v>1993</v>
       </c>
       <c r="D218" t="n">
-        <v>500</v>
+        <v>471</v>
       </c>
       <c r="E218" t="n">
-        <v>1993</v>
+        <v>1933</v>
       </c>
       <c r="F218" t="n">
-        <v>0</v>
+        <v>5.800000000000001</v>
       </c>
       <c r="G218" t="n">
-        <v>0</v>
+        <v>3.010536879076769</v>
       </c>
     </row>
     <row r="219">
@@ -5467,16 +5467,16 @@
         <v>1721</v>
       </c>
       <c r="D219" t="n">
-        <v>250</v>
+        <v>418</v>
       </c>
       <c r="E219" t="n">
-        <v>817</v>
+        <v>1108</v>
       </c>
       <c r="F219" t="n">
-        <v>42.6605504587156</v>
+        <v>4.128440366972478</v>
       </c>
       <c r="G219" t="n">
-        <v>52.52760023242301</v>
+        <v>35.61882626380012</v>
       </c>
     </row>
     <row r="220">
@@ -5490,16 +5490,16 @@
         <v>1994</v>
       </c>
       <c r="D220" t="n">
-        <v>500</v>
+        <v>464</v>
       </c>
       <c r="E220" t="n">
-        <v>1994</v>
+        <v>1922</v>
       </c>
       <c r="F220" t="n">
-        <v>0</v>
+        <v>7.199999999999999</v>
       </c>
       <c r="G220" t="n">
-        <v>0</v>
+        <v>3.610832497492478</v>
       </c>
     </row>
     <row r="221">
@@ -5513,16 +5513,16 @@
         <v>1994</v>
       </c>
       <c r="D221" t="n">
-        <v>500</v>
+        <v>464</v>
       </c>
       <c r="E221" t="n">
-        <v>1994</v>
+        <v>1922</v>
       </c>
       <c r="F221" t="n">
-        <v>0</v>
+        <v>7.199999999999999</v>
       </c>
       <c r="G221" t="n">
-        <v>0</v>
+        <v>3.610832497492478</v>
       </c>
     </row>
     <row r="222">
@@ -5536,16 +5536,16 @@
         <v>1676</v>
       </c>
       <c r="D222" t="n">
-        <v>247</v>
+        <v>410</v>
       </c>
       <c r="E222" t="n">
-        <v>800</v>
+        <v>1076</v>
       </c>
       <c r="F222" t="n">
-        <v>42.95612009237875</v>
+        <v>5.311778290993072</v>
       </c>
       <c r="G222" t="n">
-        <v>52.2673031026253</v>
+        <v>35.79952267303103</v>
       </c>
     </row>
     <row r="223">
@@ -5559,16 +5559,16 @@
         <v>1994</v>
       </c>
       <c r="D223" t="n">
-        <v>500</v>
+        <v>464</v>
       </c>
       <c r="E223" t="n">
-        <v>1994</v>
+        <v>1922</v>
       </c>
       <c r="F223" t="n">
-        <v>0</v>
+        <v>7.199999999999999</v>
       </c>
       <c r="G223" t="n">
-        <v>0</v>
+        <v>3.610832497492478</v>
       </c>
     </row>
     <row r="224">
@@ -5582,16 +5582,16 @@
         <v>1994</v>
       </c>
       <c r="D224" t="n">
-        <v>500</v>
+        <v>464</v>
       </c>
       <c r="E224" t="n">
-        <v>1994</v>
+        <v>1922</v>
       </c>
       <c r="F224" t="n">
-        <v>0</v>
+        <v>7.199999999999999</v>
       </c>
       <c r="G224" t="n">
-        <v>0</v>
+        <v>3.610832497492478</v>
       </c>
     </row>
     <row r="225">
@@ -5605,16 +5605,16 @@
         <v>1676</v>
       </c>
       <c r="D225" t="n">
-        <v>247</v>
+        <v>410</v>
       </c>
       <c r="E225" t="n">
-        <v>800</v>
+        <v>1076</v>
       </c>
       <c r="F225" t="n">
-        <v>42.95612009237875</v>
+        <v>5.311778290993072</v>
       </c>
       <c r="G225" t="n">
-        <v>52.2673031026253</v>
+        <v>35.79952267303103</v>
       </c>
     </row>
     <row r="226">
@@ -5628,16 +5628,16 @@
         <v>1994</v>
       </c>
       <c r="D226" t="n">
-        <v>500</v>
+        <v>464</v>
       </c>
       <c r="E226" t="n">
-        <v>1994</v>
+        <v>1922</v>
       </c>
       <c r="F226" t="n">
-        <v>0</v>
+        <v>7.199999999999999</v>
       </c>
       <c r="G226" t="n">
-        <v>0</v>
+        <v>3.610832497492478</v>
       </c>
     </row>
     <row r="227">
@@ -5651,16 +5651,16 @@
         <v>1994</v>
       </c>
       <c r="D227" t="n">
-        <v>500</v>
+        <v>464</v>
       </c>
       <c r="E227" t="n">
-        <v>1994</v>
+        <v>1922</v>
       </c>
       <c r="F227" t="n">
-        <v>0</v>
+        <v>7.199999999999999</v>
       </c>
       <c r="G227" t="n">
-        <v>0</v>
+        <v>3.610832497492478</v>
       </c>
     </row>
     <row r="228">
@@ -5674,16 +5674,16 @@
         <v>1676</v>
       </c>
       <c r="D228" t="n">
-        <v>247</v>
+        <v>410</v>
       </c>
       <c r="E228" t="n">
-        <v>800</v>
+        <v>1076</v>
       </c>
       <c r="F228" t="n">
-        <v>42.95612009237875</v>
+        <v>5.311778290993072</v>
       </c>
       <c r="G228" t="n">
-        <v>52.2673031026253</v>
+        <v>35.79952267303103</v>
       </c>
     </row>
     <row r="229">
@@ -5697,16 +5697,16 @@
         <v>1994</v>
       </c>
       <c r="D229" t="n">
-        <v>500</v>
+        <v>464</v>
       </c>
       <c r="E229" t="n">
-        <v>1994</v>
+        <v>1922</v>
       </c>
       <c r="F229" t="n">
-        <v>0</v>
+        <v>7.199999999999999</v>
       </c>
       <c r="G229" t="n">
-        <v>0</v>
+        <v>3.610832497492478</v>
       </c>
     </row>
     <row r="230">
@@ -5720,16 +5720,16 @@
         <v>1994</v>
       </c>
       <c r="D230" t="n">
-        <v>500</v>
+        <v>464</v>
       </c>
       <c r="E230" t="n">
-        <v>1994</v>
+        <v>1922</v>
       </c>
       <c r="F230" t="n">
-        <v>0</v>
+        <v>7.199999999999999</v>
       </c>
       <c r="G230" t="n">
-        <v>0</v>
+        <v>3.610832497492478</v>
       </c>
     </row>
     <row r="231">
@@ -5743,16 +5743,16 @@
         <v>1676</v>
       </c>
       <c r="D231" t="n">
-        <v>247</v>
+        <v>410</v>
       </c>
       <c r="E231" t="n">
-        <v>800</v>
+        <v>1076</v>
       </c>
       <c r="F231" t="n">
-        <v>42.95612009237875</v>
+        <v>5.311778290993072</v>
       </c>
       <c r="G231" t="n">
-        <v>52.2673031026253</v>
+        <v>35.79952267303103</v>
       </c>
     </row>
     <row r="232">
@@ -5766,16 +5766,16 @@
         <v>1999</v>
       </c>
       <c r="D232" t="n">
-        <v>500</v>
+        <v>475</v>
       </c>
       <c r="E232" t="n">
-        <v>1999</v>
+        <v>1947</v>
       </c>
       <c r="F232" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G232" t="n">
-        <v>0</v>
+        <v>2.601300650325163</v>
       </c>
     </row>
     <row r="233">
@@ -5789,16 +5789,16 @@
         <v>1999</v>
       </c>
       <c r="D233" t="n">
-        <v>500</v>
+        <v>475</v>
       </c>
       <c r="E233" t="n">
-        <v>1999</v>
+        <v>1947</v>
       </c>
       <c r="F233" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G233" t="n">
-        <v>0</v>
+        <v>2.601300650325163</v>
       </c>
     </row>
     <row r="234">
@@ -5812,16 +5812,16 @@
         <v>1315</v>
       </c>
       <c r="D234" t="n">
-        <v>182</v>
+        <v>344</v>
       </c>
       <c r="E234" t="n">
-        <v>461</v>
+        <v>698</v>
       </c>
       <c r="F234" t="n">
-        <v>48.44192634560906</v>
+        <v>2.549575070821529</v>
       </c>
       <c r="G234" t="n">
-        <v>64.94296577946767</v>
+        <v>46.92015209125475</v>
       </c>
     </row>
     <row r="235">
@@ -5835,16 +5835,16 @@
         <v>1999</v>
       </c>
       <c r="D235" t="n">
-        <v>500</v>
+        <v>475</v>
       </c>
       <c r="E235" t="n">
-        <v>1999</v>
+        <v>1947</v>
       </c>
       <c r="F235" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G235" t="n">
-        <v>0</v>
+        <v>2.601300650325163</v>
       </c>
     </row>
     <row r="236">
@@ -5858,16 +5858,16 @@
         <v>1999</v>
       </c>
       <c r="D236" t="n">
-        <v>500</v>
+        <v>475</v>
       </c>
       <c r="E236" t="n">
-        <v>1999</v>
+        <v>1947</v>
       </c>
       <c r="F236" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G236" t="n">
-        <v>0</v>
+        <v>2.601300650325163</v>
       </c>
     </row>
     <row r="237">
@@ -5881,16 +5881,16 @@
         <v>1315</v>
       </c>
       <c r="D237" t="n">
-        <v>182</v>
+        <v>344</v>
       </c>
       <c r="E237" t="n">
-        <v>461</v>
+        <v>698</v>
       </c>
       <c r="F237" t="n">
-        <v>48.44192634560906</v>
+        <v>2.549575070821529</v>
       </c>
       <c r="G237" t="n">
-        <v>64.94296577946767</v>
+        <v>46.92015209125475</v>
       </c>
     </row>
     <row r="238">
@@ -5904,16 +5904,16 @@
         <v>1999</v>
       </c>
       <c r="D238" t="n">
-        <v>500</v>
+        <v>475</v>
       </c>
       <c r="E238" t="n">
-        <v>1999</v>
+        <v>1947</v>
       </c>
       <c r="F238" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G238" t="n">
-        <v>0</v>
+        <v>2.601300650325163</v>
       </c>
     </row>
     <row r="239">
@@ -5927,16 +5927,16 @@
         <v>1999</v>
       </c>
       <c r="D239" t="n">
-        <v>500</v>
+        <v>475</v>
       </c>
       <c r="E239" t="n">
-        <v>1999</v>
+        <v>1947</v>
       </c>
       <c r="F239" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G239" t="n">
-        <v>0</v>
+        <v>2.601300650325163</v>
       </c>
     </row>
     <row r="240">
@@ -5950,16 +5950,16 @@
         <v>1315</v>
       </c>
       <c r="D240" t="n">
-        <v>182</v>
+        <v>344</v>
       </c>
       <c r="E240" t="n">
-        <v>461</v>
+        <v>698</v>
       </c>
       <c r="F240" t="n">
-        <v>48.44192634560906</v>
+        <v>2.549575070821529</v>
       </c>
       <c r="G240" t="n">
-        <v>64.94296577946767</v>
+        <v>46.92015209125475</v>
       </c>
     </row>
     <row r="241">
@@ -5973,16 +5973,16 @@
         <v>1999</v>
       </c>
       <c r="D241" t="n">
-        <v>500</v>
+        <v>475</v>
       </c>
       <c r="E241" t="n">
-        <v>1999</v>
+        <v>1947</v>
       </c>
       <c r="F241" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G241" t="n">
-        <v>0</v>
+        <v>2.601300650325163</v>
       </c>
     </row>
     <row r="242">
@@ -5996,16 +5996,16 @@
         <v>1999</v>
       </c>
       <c r="D242" t="n">
-        <v>500</v>
+        <v>475</v>
       </c>
       <c r="E242" t="n">
-        <v>1999</v>
+        <v>1947</v>
       </c>
       <c r="F242" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G242" t="n">
-        <v>0</v>
+        <v>2.601300650325163</v>
       </c>
     </row>
     <row r="243">
@@ -6019,16 +6019,16 @@
         <v>1315</v>
       </c>
       <c r="D243" t="n">
-        <v>182</v>
+        <v>344</v>
       </c>
       <c r="E243" t="n">
-        <v>461</v>
+        <v>698</v>
       </c>
       <c r="F243" t="n">
-        <v>48.44192634560906</v>
+        <v>2.549575070821529</v>
       </c>
       <c r="G243" t="n">
-        <v>64.94296577946767</v>
+        <v>46.92015209125475</v>
       </c>
     </row>
     <row r="244">
@@ -6042,16 +6042,16 @@
         <v>1992</v>
       </c>
       <c r="D244" t="n">
-        <v>500</v>
+        <v>481</v>
       </c>
       <c r="E244" t="n">
-        <v>1992</v>
+        <v>1954</v>
       </c>
       <c r="F244" t="n">
-        <v>0</v>
+        <v>3.8</v>
       </c>
       <c r="G244" t="n">
-        <v>0</v>
+        <v>1.907630522088354</v>
       </c>
     </row>
     <row r="245">
@@ -6065,16 +6065,16 @@
         <v>1992</v>
       </c>
       <c r="D245" t="n">
-        <v>500</v>
+        <v>481</v>
       </c>
       <c r="E245" t="n">
-        <v>1992</v>
+        <v>1954</v>
       </c>
       <c r="F245" t="n">
-        <v>0</v>
+        <v>3.8</v>
       </c>
       <c r="G245" t="n">
-        <v>0</v>
+        <v>1.907630522088354</v>
       </c>
     </row>
     <row r="246">
@@ -6088,16 +6088,16 @@
         <v>1898</v>
       </c>
       <c r="D246" t="n">
-        <v>378</v>
+        <v>460</v>
       </c>
       <c r="E246" t="n">
-        <v>1302</v>
+        <v>1493</v>
       </c>
       <c r="F246" t="n">
-        <v>20.58823529411764</v>
+        <v>3.361344537815126</v>
       </c>
       <c r="G246" t="n">
-        <v>31.40147523709167</v>
+        <v>21.33825079030559</v>
       </c>
     </row>
     <row r="247">
@@ -6111,16 +6111,16 @@
         <v>1992</v>
       </c>
       <c r="D247" t="n">
-        <v>500</v>
+        <v>481</v>
       </c>
       <c r="E247" t="n">
-        <v>1992</v>
+        <v>1954</v>
       </c>
       <c r="F247" t="n">
-        <v>0</v>
+        <v>3.8</v>
       </c>
       <c r="G247" t="n">
-        <v>0</v>
+        <v>1.907630522088354</v>
       </c>
     </row>
     <row r="248">
@@ -6134,16 +6134,16 @@
         <v>1992</v>
       </c>
       <c r="D248" t="n">
-        <v>500</v>
+        <v>481</v>
       </c>
       <c r="E248" t="n">
-        <v>1992</v>
+        <v>1954</v>
       </c>
       <c r="F248" t="n">
-        <v>0</v>
+        <v>3.8</v>
       </c>
       <c r="G248" t="n">
-        <v>0</v>
+        <v>1.907630522088354</v>
       </c>
     </row>
     <row r="249">
@@ -6157,16 +6157,16 @@
         <v>1898</v>
       </c>
       <c r="D249" t="n">
-        <v>378</v>
+        <v>460</v>
       </c>
       <c r="E249" t="n">
-        <v>1302</v>
+        <v>1493</v>
       </c>
       <c r="F249" t="n">
-        <v>20.58823529411764</v>
+        <v>3.361344537815126</v>
       </c>
       <c r="G249" t="n">
-        <v>31.40147523709167</v>
+        <v>21.33825079030559</v>
       </c>
     </row>
     <row r="250">
@@ -6180,16 +6180,16 @@
         <v>1992</v>
       </c>
       <c r="D250" t="n">
-        <v>500</v>
+        <v>481</v>
       </c>
       <c r="E250" t="n">
-        <v>1992</v>
+        <v>1954</v>
       </c>
       <c r="F250" t="n">
-        <v>0</v>
+        <v>3.8</v>
       </c>
       <c r="G250" t="n">
-        <v>0</v>
+        <v>1.907630522088354</v>
       </c>
     </row>
     <row r="251">
@@ -6203,16 +6203,16 @@
         <v>1992</v>
       </c>
       <c r="D251" t="n">
-        <v>500</v>
+        <v>481</v>
       </c>
       <c r="E251" t="n">
-        <v>1992</v>
+        <v>1954</v>
       </c>
       <c r="F251" t="n">
-        <v>0</v>
+        <v>3.8</v>
       </c>
       <c r="G251" t="n">
-        <v>0</v>
+        <v>1.907630522088354</v>
       </c>
     </row>
     <row r="252">
@@ -6226,16 +6226,16 @@
         <v>1898</v>
       </c>
       <c r="D252" t="n">
-        <v>378</v>
+        <v>460</v>
       </c>
       <c r="E252" t="n">
-        <v>1302</v>
+        <v>1493</v>
       </c>
       <c r="F252" t="n">
-        <v>20.58823529411764</v>
+        <v>3.361344537815126</v>
       </c>
       <c r="G252" t="n">
-        <v>31.40147523709167</v>
+        <v>21.33825079030559</v>
       </c>
     </row>
     <row r="253">
@@ -6249,16 +6249,16 @@
         <v>1992</v>
       </c>
       <c r="D253" t="n">
-        <v>500</v>
+        <v>481</v>
       </c>
       <c r="E253" t="n">
-        <v>1992</v>
+        <v>1954</v>
       </c>
       <c r="F253" t="n">
-        <v>0</v>
+        <v>3.8</v>
       </c>
       <c r="G253" t="n">
-        <v>0</v>
+        <v>1.907630522088354</v>
       </c>
     </row>
     <row r="254">
@@ -6272,16 +6272,16 @@
         <v>1992</v>
       </c>
       <c r="D254" t="n">
-        <v>500</v>
+        <v>481</v>
       </c>
       <c r="E254" t="n">
-        <v>1992</v>
+        <v>1954</v>
       </c>
       <c r="F254" t="n">
-        <v>0</v>
+        <v>3.8</v>
       </c>
       <c r="G254" t="n">
-        <v>0</v>
+        <v>1.907630522088354</v>
       </c>
     </row>
     <row r="255">
@@ -6295,16 +6295,16 @@
         <v>1898</v>
       </c>
       <c r="D255" t="n">
-        <v>378</v>
+        <v>460</v>
       </c>
       <c r="E255" t="n">
-        <v>1302</v>
+        <v>1493</v>
       </c>
       <c r="F255" t="n">
-        <v>20.58823529411764</v>
+        <v>3.361344537815126</v>
       </c>
       <c r="G255" t="n">
-        <v>31.40147523709167</v>
+        <v>21.33825079030559</v>
       </c>
     </row>
     <row r="256">
@@ -6318,16 +6318,16 @@
         <v>1997</v>
       </c>
       <c r="D256" t="n">
-        <v>500</v>
+        <v>485</v>
       </c>
       <c r="E256" t="n">
-        <v>1997</v>
+        <v>1967</v>
       </c>
       <c r="F256" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G256" t="n">
-        <v>0</v>
+        <v>1.502253380070105</v>
       </c>
     </row>
     <row r="257">
@@ -6341,16 +6341,16 @@
         <v>1997</v>
       </c>
       <c r="D257" t="n">
-        <v>500</v>
+        <v>485</v>
       </c>
       <c r="E257" t="n">
-        <v>1997</v>
+        <v>1967</v>
       </c>
       <c r="F257" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G257" t="n">
-        <v>0</v>
+        <v>1.502253380070105</v>
       </c>
     </row>
     <row r="258">
@@ -6364,16 +6364,16 @@
         <v>1381</v>
       </c>
       <c r="D258" t="n">
-        <v>275</v>
+        <v>372</v>
       </c>
       <c r="E258" t="n">
-        <v>612</v>
+        <v>768</v>
       </c>
       <c r="F258" t="n">
-        <v>26.86170212765958</v>
+        <v>1.063829787234043</v>
       </c>
       <c r="G258" t="n">
-        <v>55.6842867487328</v>
+        <v>44.3881245474294</v>
       </c>
     </row>
     <row r="259">
@@ -6387,16 +6387,16 @@
         <v>1997</v>
       </c>
       <c r="D259" t="n">
-        <v>500</v>
+        <v>485</v>
       </c>
       <c r="E259" t="n">
-        <v>1997</v>
+        <v>1967</v>
       </c>
       <c r="F259" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G259" t="n">
-        <v>0</v>
+        <v>1.502253380070105</v>
       </c>
     </row>
     <row r="260">
@@ -6410,16 +6410,16 @@
         <v>1997</v>
       </c>
       <c r="D260" t="n">
-        <v>500</v>
+        <v>485</v>
       </c>
       <c r="E260" t="n">
-        <v>1997</v>
+        <v>1967</v>
       </c>
       <c r="F260" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G260" t="n">
-        <v>0</v>
+        <v>1.502253380070105</v>
       </c>
     </row>
     <row r="261">
@@ -6433,16 +6433,16 @@
         <v>1381</v>
       </c>
       <c r="D261" t="n">
-        <v>275</v>
+        <v>372</v>
       </c>
       <c r="E261" t="n">
-        <v>612</v>
+        <v>768</v>
       </c>
       <c r="F261" t="n">
-        <v>26.86170212765958</v>
+        <v>1.063829787234043</v>
       </c>
       <c r="G261" t="n">
-        <v>55.6842867487328</v>
+        <v>44.3881245474294</v>
       </c>
     </row>
     <row r="262">
@@ -6456,16 +6456,16 @@
         <v>1997</v>
       </c>
       <c r="D262" t="n">
-        <v>500</v>
+        <v>485</v>
       </c>
       <c r="E262" t="n">
-        <v>1997</v>
+        <v>1967</v>
       </c>
       <c r="F262" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G262" t="n">
-        <v>0</v>
+        <v>1.502253380070105</v>
       </c>
     </row>
     <row r="263">
@@ -6479,16 +6479,16 @@
         <v>1997</v>
       </c>
       <c r="D263" t="n">
-        <v>500</v>
+        <v>485</v>
       </c>
       <c r="E263" t="n">
-        <v>1997</v>
+        <v>1967</v>
       </c>
       <c r="F263" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G263" t="n">
-        <v>0</v>
+        <v>1.502253380070105</v>
       </c>
     </row>
     <row r="264">
@@ -6502,16 +6502,16 @@
         <v>1381</v>
       </c>
       <c r="D264" t="n">
-        <v>275</v>
+        <v>372</v>
       </c>
       <c r="E264" t="n">
-        <v>612</v>
+        <v>768</v>
       </c>
       <c r="F264" t="n">
-        <v>26.86170212765958</v>
+        <v>1.063829787234043</v>
       </c>
       <c r="G264" t="n">
-        <v>55.6842867487328</v>
+        <v>44.3881245474294</v>
       </c>
     </row>
     <row r="265">
@@ -6525,16 +6525,16 @@
         <v>1997</v>
       </c>
       <c r="D265" t="n">
-        <v>500</v>
+        <v>485</v>
       </c>
       <c r="E265" t="n">
-        <v>1997</v>
+        <v>1967</v>
       </c>
       <c r="F265" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G265" t="n">
-        <v>0</v>
+        <v>1.502253380070105</v>
       </c>
     </row>
     <row r="266">
@@ -6548,16 +6548,16 @@
         <v>1997</v>
       </c>
       <c r="D266" t="n">
-        <v>500</v>
+        <v>485</v>
       </c>
       <c r="E266" t="n">
-        <v>1997</v>
+        <v>1967</v>
       </c>
       <c r="F266" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G266" t="n">
-        <v>0</v>
+        <v>1.502253380070105</v>
       </c>
     </row>
     <row r="267">
@@ -6571,16 +6571,16 @@
         <v>1381</v>
       </c>
       <c r="D267" t="n">
-        <v>275</v>
+        <v>372</v>
       </c>
       <c r="E267" t="n">
-        <v>612</v>
+        <v>768</v>
       </c>
       <c r="F267" t="n">
-        <v>26.86170212765958</v>
+        <v>1.063829787234043</v>
       </c>
       <c r="G267" t="n">
-        <v>55.6842867487328</v>
+        <v>44.3881245474294</v>
       </c>
     </row>
     <row r="268">
@@ -6870,16 +6870,16 @@
         <v>4991</v>
       </c>
       <c r="D280" t="n">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="E280" t="n">
-        <v>4991</v>
+        <v>4989</v>
       </c>
       <c r="F280" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G280" t="n">
-        <v>0</v>
+        <v>0.04007212983370066</v>
       </c>
     </row>
     <row r="281">
@@ -6893,16 +6893,16 @@
         <v>4991</v>
       </c>
       <c r="D281" t="n">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="E281" t="n">
-        <v>4991</v>
+        <v>4989</v>
       </c>
       <c r="F281" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G281" t="n">
-        <v>0</v>
+        <v>0.04007212983370066</v>
       </c>
     </row>
     <row r="282">
@@ -6916,16 +6916,16 @@
         <v>4991</v>
       </c>
       <c r="D282" t="n">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="E282" t="n">
-        <v>4991</v>
+        <v>4989</v>
       </c>
       <c r="F282" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G282" t="n">
-        <v>0</v>
+        <v>0.04007212983370066</v>
       </c>
     </row>
     <row r="283">
@@ -6939,16 +6939,16 @@
         <v>4991</v>
       </c>
       <c r="D283" t="n">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="E283" t="n">
-        <v>4991</v>
+        <v>4989</v>
       </c>
       <c r="F283" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G283" t="n">
-        <v>0</v>
+        <v>0.04007212983370066</v>
       </c>
     </row>
     <row r="284">
@@ -6962,16 +6962,16 @@
         <v>4991</v>
       </c>
       <c r="D284" t="n">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="E284" t="n">
-        <v>4991</v>
+        <v>4989</v>
       </c>
       <c r="F284" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G284" t="n">
-        <v>0</v>
+        <v>0.04007212983370066</v>
       </c>
     </row>
     <row r="285">
@@ -6985,16 +6985,16 @@
         <v>4991</v>
       </c>
       <c r="D285" t="n">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="E285" t="n">
-        <v>4991</v>
+        <v>4989</v>
       </c>
       <c r="F285" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G285" t="n">
-        <v>0</v>
+        <v>0.04007212983370066</v>
       </c>
     </row>
     <row r="286">
@@ -7008,16 +7008,16 @@
         <v>4991</v>
       </c>
       <c r="D286" t="n">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="E286" t="n">
-        <v>4991</v>
+        <v>4989</v>
       </c>
       <c r="F286" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G286" t="n">
-        <v>0</v>
+        <v>0.04007212983370066</v>
       </c>
     </row>
     <row r="287">
@@ -7031,16 +7031,16 @@
         <v>4991</v>
       </c>
       <c r="D287" t="n">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="E287" t="n">
-        <v>4991</v>
+        <v>4989</v>
       </c>
       <c r="F287" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G287" t="n">
-        <v>0</v>
+        <v>0.04007212983370066</v>
       </c>
     </row>
     <row r="288">
@@ -7054,16 +7054,16 @@
         <v>4991</v>
       </c>
       <c r="D288" t="n">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="E288" t="n">
-        <v>4991</v>
+        <v>4989</v>
       </c>
       <c r="F288" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G288" t="n">
-        <v>0</v>
+        <v>0.04007212983370066</v>
       </c>
     </row>
     <row r="289">
@@ -7077,16 +7077,16 @@
         <v>4991</v>
       </c>
       <c r="D289" t="n">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="E289" t="n">
-        <v>4991</v>
+        <v>4989</v>
       </c>
       <c r="F289" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G289" t="n">
-        <v>0</v>
+        <v>0.04007212983370066</v>
       </c>
     </row>
     <row r="290">
@@ -7100,16 +7100,16 @@
         <v>4991</v>
       </c>
       <c r="D290" t="n">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="E290" t="n">
-        <v>4991</v>
+        <v>4989</v>
       </c>
       <c r="F290" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G290" t="n">
-        <v>0</v>
+        <v>0.04007212983370066</v>
       </c>
     </row>
     <row r="291">
@@ -7123,16 +7123,16 @@
         <v>4991</v>
       </c>
       <c r="D291" t="n">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="E291" t="n">
-        <v>4991</v>
+        <v>4989</v>
       </c>
       <c r="F291" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G291" t="n">
-        <v>0</v>
+        <v>0.04007212983370066</v>
       </c>
     </row>
     <row r="292">
@@ -7146,16 +7146,16 @@
         <v>4994</v>
       </c>
       <c r="D292" t="n">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="E292" t="n">
-        <v>4994</v>
+        <v>4992</v>
       </c>
       <c r="F292" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G292" t="n">
-        <v>0</v>
+        <v>0.04004805766920305</v>
       </c>
     </row>
     <row r="293">
@@ -7169,16 +7169,16 @@
         <v>4994</v>
       </c>
       <c r="D293" t="n">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="E293" t="n">
-        <v>4994</v>
+        <v>4992</v>
       </c>
       <c r="F293" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G293" t="n">
-        <v>0</v>
+        <v>0.04004805766920305</v>
       </c>
     </row>
     <row r="294">
@@ -7215,16 +7215,16 @@
         <v>4994</v>
       </c>
       <c r="D295" t="n">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="E295" t="n">
-        <v>4994</v>
+        <v>4992</v>
       </c>
       <c r="F295" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G295" t="n">
-        <v>0</v>
+        <v>0.04004805766920305</v>
       </c>
     </row>
     <row r="296">
@@ -7238,16 +7238,16 @@
         <v>4994</v>
       </c>
       <c r="D296" t="n">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="E296" t="n">
-        <v>4994</v>
+        <v>4992</v>
       </c>
       <c r="F296" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G296" t="n">
-        <v>0</v>
+        <v>0.04004805766920305</v>
       </c>
     </row>
     <row r="297">
@@ -7284,16 +7284,16 @@
         <v>4994</v>
       </c>
       <c r="D298" t="n">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="E298" t="n">
-        <v>4994</v>
+        <v>4992</v>
       </c>
       <c r="F298" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G298" t="n">
-        <v>0</v>
+        <v>0.04004805766920305</v>
       </c>
     </row>
     <row r="299">
@@ -7307,16 +7307,16 @@
         <v>4994</v>
       </c>
       <c r="D299" t="n">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="E299" t="n">
-        <v>4994</v>
+        <v>4992</v>
       </c>
       <c r="F299" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G299" t="n">
-        <v>0</v>
+        <v>0.04004805766920305</v>
       </c>
     </row>
     <row r="300">
@@ -7353,16 +7353,16 @@
         <v>4994</v>
       </c>
       <c r="D301" t="n">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="E301" t="n">
-        <v>4994</v>
+        <v>4992</v>
       </c>
       <c r="F301" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G301" t="n">
-        <v>0</v>
+        <v>0.04004805766920305</v>
       </c>
     </row>
     <row r="302">
@@ -7376,16 +7376,16 @@
         <v>4994</v>
       </c>
       <c r="D302" t="n">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="E302" t="n">
-        <v>4994</v>
+        <v>4992</v>
       </c>
       <c r="F302" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G302" t="n">
-        <v>0</v>
+        <v>0.04004805766920305</v>
       </c>
     </row>
     <row r="303">

--- a/application/results/preprocess/results.xlsx
+++ b/application/results/preprocess/results.xlsx
@@ -458,13 +458,13 @@
       <c r="A1" s="1" t="inlineStr"/>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Graph1</t>
+          <t>D1 (hop-limiting vertices)</t>
         </is>
       </c>
       <c r="C1" s="1" t="n"/>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Graph2</t>
+          <t>D2 (removing simplicials)</t>
         </is>
       </c>
       <c r="E1" s="1" t="n"/>
